--- a/templates/02-ont-plasmid.xlsx
+++ b/templates/02-ont-plasmid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angeloas/code/opentrons/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4116326-6808-2544-9BFC-FF8917815512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FF14F4-26B3-1D47-803D-E31BC3D33F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="1360" windowWidth="27920" windowHeight="15940" activeTab="2" xr2:uid="{0E74BB9A-F8B8-AA47-B7C7-EA2C2417D685}"/>
+    <workbookView xWindow="1700" yWindow="1360" windowWidth="27920" windowHeight="15940" xr2:uid="{0E74BB9A-F8B8-AA47-B7C7-EA2C2417D685}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="348">
   <si>
     <t>Plasmid sequencing ONT at BCL - Opentrons template</t>
   </si>
@@ -1042,9 +1042,6 @@
     <t>sample 15</t>
   </si>
   <si>
-    <t>dest well2</t>
-  </si>
-  <si>
     <t>This template is used to prepare the data for protocols/ont-plasmid.py</t>
   </si>
   <si>
@@ -1094,6 +1091,18 @@
   </si>
   <si>
     <t>sample 22</t>
+  </si>
+  <si>
+    <t>barcode well</t>
+  </si>
+  <si>
+    <t>dest well</t>
+  </si>
+  <si>
+    <t>final library</t>
+  </si>
+  <si>
+    <t>tuberack B1</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1260,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1301,24 +1313,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59494247-6707-4A4B-A68E-97E8FDDD4AF4}" name="Table1" displayName="Table1" ref="B8:J104" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="B8:J104" xr:uid="{59494247-6707-4A4B-A68E-97E8FDDD4AF4}"/>
-  <tableColumns count="9">
-    <tableColumn id="8" xr3:uid="{FA78698F-F611-D543-B141-D777144BECEE}" name="source well" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59494247-6707-4A4B-A68E-97E8FDDD4AF4}" name="Table1" displayName="Table1" ref="B8:K104" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="B8:K104" xr:uid="{59494247-6707-4A4B-A68E-97E8FDDD4AF4}"/>
+  <tableColumns count="10">
+    <tableColumn id="8" xr3:uid="{FA78698F-F611-D543-B141-D777144BECEE}" name="source well" dataDxfId="5"/>
     <tableColumn id="1" xr3:uid="{91DE4E1A-6DA9-5D41-9DB5-21149FC9505F}" name="sample name"/>
     <tableColumn id="7" xr3:uid="{E7F73DE6-44A2-FD49-95BC-9E263FB79FB0}" name="barcode"/>
     <tableColumn id="2" xr3:uid="{D3E7E880-2BC6-B94A-AFA4-408237577810}" name="plasmid size"/>
     <tableColumn id="3" xr3:uid="{AF07D2D6-012E-8643-901A-5055CCEAF026}" name="ng/ul"/>
-    <tableColumn id="4" xr3:uid="{80D148B5-CECA-CA44-B1DD-F9E1A8DAA6A0}" name="fmol/ul" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{80D148B5-CECA-CA44-B1DD-F9E1A8DAA6A0}" name="fmol/ul" dataDxfId="4">
       <calculatedColumnFormula>F9/((E9*617.96)+36.04) * 1000000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{6A4DD60B-B1AB-FF44-9E4F-4697D7C0CC9E}" name="ul plasmid" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{6A4DD60B-B1AB-FF44-9E4F-4697D7C0CC9E}" name="ul plasmid" dataDxfId="3">
       <calculatedColumnFormula array="1">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{53D08A06-9EBD-1143-A0BC-3E9BC0C89175}" name="ul water to 4.5" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{53D08A06-9EBD-1143-A0BC-3E9BC0C89175}" name="ul water to 4.5" dataDxfId="2">
       <calculatedColumnFormula>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0EE7AD1A-A1CC-364C-B346-C43B6AB6BFEF}" name="dest well2" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{0EE7AD1A-A1CC-364C-B346-C43B6AB6BFEF}" name="dest well" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{DDAE90F6-C57C-A64E-B7AF-286C3EB0FE38}" name="barcode well" dataDxfId="0">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1633,10 +1648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842AFD07-9B34-384A-83A8-BAD898DE59C4}">
-  <dimension ref="B1:P105"/>
+  <dimension ref="B1:R105"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1648,33 +1663,36 @@
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="16.1640625" customWidth="1"/>
     <col min="15" max="15" width="12.5" customWidth="1"/>
     <col min="16" max="16" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M4" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -1685,7 +1703,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -1695,34 +1713,34 @@
       <c r="J6">
         <v>0.5</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
+        <v>329</v>
+      </c>
+      <c r="N6" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="P6" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="M7" t="s">
         <v>331</v>
       </c>
-      <c r="O6" t="s">
-        <v>314</v>
-      </c>
-      <c r="P6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="L7" t="s">
-        <v>332</v>
-      </c>
-      <c r="M7" s="12">
+      <c r="N7" s="12">
         <v>4</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>317</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>313</v>
       </c>
@@ -1748,22 +1766,25 @@
         <v>7</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="L8" t="s">
+        <v>345</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="M8" t="s">
         <v>324</v>
       </c>
-      <c r="M8" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="N8" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q8" t="s">
         <v>320</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>120</v>
       </c>
@@ -1794,19 +1815,23 @@
       <c r="J9" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="L9" t="s">
-        <v>337</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="K9" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v>A01</v>
+      </c>
+      <c r="M9" t="s">
+        <v>336</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D10" t="s">
         <v>218</v>
@@ -1832,19 +1857,23 @@
       <c r="J10" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="L10" t="s">
-        <v>336</v>
-      </c>
-      <c r="M10" s="12" t="s">
+      <c r="K10" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v>B01</v>
+      </c>
+      <c r="M10" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="N10" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D11" t="s">
         <v>219</v>
@@ -1870,13 +1899,17 @@
       <c r="J11" s="9" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="K11" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v>C01</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D12" t="s">
         <v>220</v>
@@ -1902,13 +1935,23 @@
       <c r="J12" s="9" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="K12" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v>D01</v>
+      </c>
+      <c r="M12" t="s">
+        <v>346</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D13" t="s">
         <v>221</v>
@@ -1934,14 +1977,18 @@
       <c r="J13" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="M13" s="11"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="K13" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v>E01</v>
+      </c>
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D14" t="s">
         <v>222</v>
@@ -1967,13 +2014,17 @@
       <c r="J14" s="9" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="K14" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v>F01</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D15" t="s">
         <v>223</v>
@@ -1999,13 +2050,17 @@
       <c r="J15" s="9" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="K15" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v>G01</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D16" t="s">
         <v>224</v>
@@ -2031,8 +2086,12 @@
       <c r="J16" s="9" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K16" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v>H01</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="G17" s="2">
         <f>F17/((E17*617.96)+36.04) * 1000000</f>
@@ -2049,8 +2108,12 @@
       <c r="J17" s="9" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K17" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="G18" s="2">
         <f>F18/((E18*617.96)+36.04) * 1000000</f>
@@ -2067,8 +2130,12 @@
       <c r="J18" s="9" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K18" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="G19" s="2">
         <f>F19/((E19*617.96)+36.04) * 1000000</f>
@@ -2085,8 +2152,12 @@
       <c r="J19" s="9" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K19" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="G20" s="2">
         <f>F20/((E20*617.96)+36.04) * 1000000</f>
@@ -2103,8 +2174,12 @@
       <c r="J20" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K20" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="G21" s="2">
         <f>F21/((E21*617.96)+36.04) * 1000000</f>
@@ -2121,8 +2196,12 @@
       <c r="J21" s="9" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K21" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="G22" s="2">
         <f>F22/((E22*617.96)+36.04) * 1000000</f>
@@ -2139,8 +2218,12 @@
       <c r="J22" s="9" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K22" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="G23" s="2">
         <f>F23/((E23*617.96)+36.04) * 1000000</f>
@@ -2157,8 +2240,12 @@
       <c r="J23" s="9" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K23" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="G24" s="2">
         <f t="shared" ref="G24" si="0">F24/((E24*617.96)+36.04) * 1000000</f>
@@ -2175,8 +2262,12 @@
       <c r="J24" s="9" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K24" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>120</v>
       </c>
@@ -2207,8 +2298,12 @@
       <c r="J25" s="9" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K25" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v>A02</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>121</v>
       </c>
@@ -2239,8 +2334,12 @@
       <c r="J26" s="9" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K26" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v>B02</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>122</v>
       </c>
@@ -2271,8 +2370,12 @@
       <c r="J27" s="9" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K27" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v>C02</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>123</v>
       </c>
@@ -2303,8 +2406,12 @@
       <c r="J28" s="9" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K28" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v>D02</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>124</v>
       </c>
@@ -2335,8 +2442,12 @@
       <c r="J29" s="9" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K29" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v>E02</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>125</v>
       </c>
@@ -2367,8 +2478,12 @@
       <c r="J30" s="9" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K30" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v>F02</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>126</v>
       </c>
@@ -2399,8 +2514,12 @@
       <c r="J31" s="9" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K31" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v>G02</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>127</v>
       </c>
@@ -2431,8 +2550,12 @@
       <c r="J32" s="9" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K32" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v>H02</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="G33" s="2">
         <f>F33/((E33*617.96)+36.04) * 1000000</f>
@@ -2449,8 +2572,12 @@
       <c r="J33" s="9" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K33" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="G34" s="2">
         <f>F34/((E34*617.96)+36.04) * 1000000</f>
@@ -2467,8 +2594,12 @@
       <c r="J34" s="9" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K34" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="G35" s="2">
         <f>F35/((E35*617.96)+36.04) * 1000000</f>
@@ -2485,8 +2616,12 @@
       <c r="J35" s="9" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K35" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="G36" s="2">
         <f>F36/((E36*617.96)+36.04) * 1000000</f>
@@ -2503,8 +2638,12 @@
       <c r="J36" s="9" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K36" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="G37" s="2">
         <f>F37/((E37*617.96)+36.04) * 1000000</f>
@@ -2521,8 +2660,12 @@
       <c r="J37" s="9" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K37" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="G38" s="2">
         <f>F38/((E38*617.96)+36.04) * 1000000</f>
@@ -2539,8 +2682,12 @@
       <c r="J38" s="9" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K38" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="G39" s="2">
         <f t="shared" ref="G39:G57" si="1">F39/((E39*617.96)+36.04) * 1000000</f>
@@ -2557,8 +2704,12 @@
       <c r="J39" s="9" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K39" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="G40" s="2">
         <f t="shared" si="1"/>
@@ -2575,8 +2726,12 @@
       <c r="J40" s="9" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K40" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="G41" s="2">
         <f t="shared" si="1"/>
@@ -2593,8 +2748,12 @@
       <c r="J41" s="9" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K41" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="G42" s="2">
         <f t="shared" si="1"/>
@@ -2611,8 +2770,12 @@
       <c r="J42" s="9" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K42" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="G43" s="2">
         <f t="shared" si="1"/>
@@ -2629,8 +2792,12 @@
       <c r="J43" s="9" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K43" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="G44" s="2">
         <f t="shared" si="1"/>
@@ -2647,8 +2814,12 @@
       <c r="J44" s="9" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K44" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="G45" s="2">
         <f t="shared" si="1"/>
@@ -2665,8 +2836,12 @@
       <c r="J45" s="9" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K45" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
       <c r="G46" s="2">
         <f t="shared" si="1"/>
@@ -2683,8 +2858,12 @@
       <c r="J46" s="9" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K46" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="2"/>
       <c r="G47" s="2">
         <f t="shared" si="1"/>
@@ -2701,8 +2880,12 @@
       <c r="J47" s="9" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K47" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="2"/>
       <c r="G48" s="2">
         <f t="shared" si="1"/>
@@ -2719,8 +2902,12 @@
       <c r="J48" s="9" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K48" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" s="2"/>
       <c r="G49" s="2">
         <f t="shared" si="1"/>
@@ -2737,8 +2924,12 @@
       <c r="J49" s="9" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K49" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
       <c r="G50" s="2">
         <f t="shared" si="1"/>
@@ -2755,8 +2946,12 @@
       <c r="J50" s="9" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K50" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="2"/>
       <c r="G51" s="2">
         <f t="shared" si="1"/>
@@ -2773,8 +2968,12 @@
       <c r="J51" s="9" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K51" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
       <c r="G52" s="2">
         <f t="shared" si="1"/>
@@ -2791,8 +2990,12 @@
       <c r="J52" s="9" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K52" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
       <c r="G53" s="2">
         <f t="shared" si="1"/>
@@ -2809,8 +3012,12 @@
       <c r="J53" s="9" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K53" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54" s="2"/>
       <c r="G54" s="2">
         <f t="shared" si="1"/>
@@ -2827,8 +3034,12 @@
       <c r="J54" s="9" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K54" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
       <c r="G55" s="2">
         <f t="shared" si="1"/>
@@ -2845,8 +3056,12 @@
       <c r="J55" s="9" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K55" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="G56" s="2">
         <f t="shared" si="1"/>
@@ -2863,8 +3078,12 @@
       <c r="J56" s="9" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K56" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="G57" s="2">
         <f t="shared" si="1"/>
@@ -2881,8 +3100,12 @@
       <c r="J57" s="9" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K57" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="G58" s="2">
         <f t="shared" ref="G58:G89" si="2">F58/((E58*617.96)+36.04) * 1000000</f>
@@ -2899,8 +3122,12 @@
       <c r="J58" s="9" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K58" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
       <c r="G59" s="2">
         <f t="shared" si="2"/>
@@ -2917,8 +3144,12 @@
       <c r="J59" s="9" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K59" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B60" s="2"/>
       <c r="G60" s="2">
         <f t="shared" si="2"/>
@@ -2935,8 +3166,12 @@
       <c r="J60" s="9" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K60" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
       <c r="G61" s="2">
         <f t="shared" si="2"/>
@@ -2953,8 +3188,12 @@
       <c r="J61" s="9" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K61" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="G62" s="2">
         <f t="shared" si="2"/>
@@ -2971,8 +3210,12 @@
       <c r="J62" s="9" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K62" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="G63" s="2">
         <f t="shared" si="2"/>
@@ -2989,8 +3232,12 @@
       <c r="J63" s="9" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K63" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64" s="2"/>
       <c r="G64" s="2">
         <f t="shared" si="2"/>
@@ -3007,8 +3254,12 @@
       <c r="J64" s="9" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K64" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
       <c r="G65" s="2">
         <f t="shared" si="2"/>
@@ -3025,8 +3276,12 @@
       <c r="J65" s="9" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K65" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66" s="2"/>
       <c r="G66" s="2">
         <f t="shared" si="2"/>
@@ -3043,8 +3298,12 @@
       <c r="J66" s="9" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K66" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
       <c r="G67" s="2">
         <f t="shared" si="2"/>
@@ -3061,8 +3320,12 @@
       <c r="J67" s="9" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K67" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68" s="2"/>
       <c r="G68" s="2">
         <f t="shared" si="2"/>
@@ -3079,8 +3342,12 @@
       <c r="J68" s="9" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K68" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
       <c r="G69" s="2">
         <f t="shared" si="2"/>
@@ -3097,8 +3364,12 @@
       <c r="J69" s="9" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K69" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" s="2"/>
       <c r="G70" s="2">
         <f t="shared" si="2"/>
@@ -3115,8 +3386,12 @@
       <c r="J70" s="9" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K70" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71" s="2"/>
       <c r="G71" s="2">
         <f t="shared" si="2"/>
@@ -3133,8 +3408,12 @@
       <c r="J71" s="9" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K71" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72" s="2"/>
       <c r="G72" s="2">
         <f t="shared" si="2"/>
@@ -3151,8 +3430,12 @@
       <c r="J72" s="9" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K72" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" s="2"/>
       <c r="G73" s="2">
         <f t="shared" si="2"/>
@@ -3169,8 +3452,12 @@
       <c r="J73" s="9" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K73" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74" s="2"/>
       <c r="G74" s="2">
         <f t="shared" si="2"/>
@@ -3187,8 +3474,12 @@
       <c r="J74" s="9" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K74" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75" s="2"/>
       <c r="G75" s="2">
         <f t="shared" si="2"/>
@@ -3205,8 +3496,12 @@
       <c r="J75" s="9" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K75" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" s="2"/>
       <c r="G76" s="2">
         <f t="shared" si="2"/>
@@ -3223,8 +3518,12 @@
       <c r="J76" s="9" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K76" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77" s="2"/>
       <c r="G77" s="2">
         <f t="shared" si="2"/>
@@ -3241,8 +3540,12 @@
       <c r="J77" s="9" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K77" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B78" s="2"/>
       <c r="G78" s="2">
         <f t="shared" si="2"/>
@@ -3259,8 +3562,12 @@
       <c r="J78" s="9" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K78" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79" s="2"/>
       <c r="G79" s="2">
         <f t="shared" si="2"/>
@@ -3277,8 +3584,12 @@
       <c r="J79" s="9" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K79" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B80" s="2"/>
       <c r="G80" s="2">
         <f t="shared" si="2"/>
@@ -3295,8 +3606,12 @@
       <c r="J80" s="9" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K80" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81" s="2"/>
       <c r="G81" s="2">
         <f t="shared" si="2"/>
@@ -3313,8 +3628,12 @@
       <c r="J81" s="9" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K81" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B82" s="2"/>
       <c r="G82" s="2">
         <f t="shared" si="2"/>
@@ -3331,8 +3650,12 @@
       <c r="J82" s="9" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K82" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B83" s="2"/>
       <c r="G83" s="2">
         <f t="shared" si="2"/>
@@ -3349,8 +3672,12 @@
       <c r="J83" s="9" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K83" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B84" s="2"/>
       <c r="G84" s="2">
         <f t="shared" si="2"/>
@@ -3367,8 +3694,12 @@
       <c r="J84" s="9" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K84" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B85" s="2"/>
       <c r="G85" s="2">
         <f t="shared" si="2"/>
@@ -3385,8 +3716,12 @@
       <c r="J85" s="9" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K85" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B86" s="2"/>
       <c r="G86" s="2">
         <f t="shared" si="2"/>
@@ -3403,8 +3738,12 @@
       <c r="J86" s="9" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K86" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B87" s="2"/>
       <c r="G87" s="2">
         <f t="shared" si="2"/>
@@ -3421,8 +3760,12 @@
       <c r="J87" s="9" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K87" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B88" s="2"/>
       <c r="G88" s="2">
         <f t="shared" si="2"/>
@@ -3439,8 +3782,12 @@
       <c r="J88" s="9" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K88" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B89" s="2"/>
       <c r="G89" s="2">
         <f t="shared" si="2"/>
@@ -3457,8 +3804,12 @@
       <c r="J89" s="9" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K89" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B90" s="2"/>
       <c r="G90" s="2">
         <f t="shared" ref="G90:G104" si="3">F90/((E90*617.96)+36.04) * 1000000</f>
@@ -3475,8 +3826,12 @@
       <c r="J90" s="9" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K90" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B91" s="2"/>
       <c r="G91" s="2">
         <f t="shared" si="3"/>
@@ -3493,8 +3848,12 @@
       <c r="J91" s="9" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K91" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B92" s="2"/>
       <c r="G92" s="2">
         <f t="shared" si="3"/>
@@ -3511,8 +3870,12 @@
       <c r="J92" s="9" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K92" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B93" s="2"/>
       <c r="G93" s="2">
         <f t="shared" si="3"/>
@@ -3529,8 +3892,12 @@
       <c r="J93" s="9" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K93" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B94" s="2"/>
       <c r="G94" s="2">
         <f t="shared" si="3"/>
@@ -3547,8 +3914,12 @@
       <c r="J94" s="9" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K94" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B95" s="2"/>
       <c r="G95" s="2">
         <f t="shared" si="3"/>
@@ -3565,8 +3936,12 @@
       <c r="J95" s="9" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K95" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B96" s="2"/>
       <c r="G96" s="2">
         <f t="shared" si="3"/>
@@ -3583,8 +3958,12 @@
       <c r="J96" s="9" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K96" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B97" s="2"/>
       <c r="G97" s="2">
         <f t="shared" si="3"/>
@@ -3601,8 +3980,12 @@
       <c r="J97" s="9" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K97" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B98" s="2"/>
       <c r="G98" s="2">
         <f t="shared" si="3"/>
@@ -3619,8 +4002,12 @@
       <c r="J98" s="9" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K98" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B99" s="2"/>
       <c r="G99" s="2">
         <f t="shared" si="3"/>
@@ -3637,8 +4024,12 @@
       <c r="J99" s="9" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K99" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B100" s="2"/>
       <c r="G100" s="2">
         <f t="shared" si="3"/>
@@ -3655,8 +4046,12 @@
       <c r="J100" s="9" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K100" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B101" s="2"/>
       <c r="G101" s="2">
         <f t="shared" si="3"/>
@@ -3673,8 +4068,12 @@
       <c r="J101" s="9" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K101" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B102" s="2"/>
       <c r="G102" s="2">
         <f t="shared" si="3"/>
@@ -3691,8 +4090,12 @@
       <c r="J102" s="9" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K102" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B103" s="2"/>
       <c r="G103" s="2">
         <f t="shared" si="3"/>
@@ -3709,8 +4112,12 @@
       <c r="J103" s="9" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K103" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B104" s="2"/>
       <c r="G104" s="2">
         <f t="shared" si="3"/>
@@ -3727,8 +4134,12 @@
       <c r="J104" s="9" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="K104" s="9" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B105" s="2"/>
       <c r="D105" s="2"/>
       <c r="H105" s="2"/>
@@ -3739,7 +4150,7 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="M6" twoDigitTextYear="1"/>
+    <ignoredError sqref="N6" twoDigitTextYear="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -3769,7 +4180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D898479-BFF5-2546-B83B-02B04494078A}">
   <dimension ref="B2:F100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A66" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -5151,8 +5562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF35A37-6984-6748-A6C5-DACECEF70E0B}">
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/templates/02-ont-plasmid.xlsx
+++ b/templates/02-ont-plasmid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angeloas/code/opentrons/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FF14F4-26B3-1D47-803D-E31BC3D33F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AF11AE-A6EF-974D-B519-7109AE3C278F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="1360" windowWidth="27920" windowHeight="15940" xr2:uid="{0E74BB9A-F8B8-AA47-B7C7-EA2C2417D685}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="349">
   <si>
     <t>Plasmid sequencing ONT at BCL - Opentrons template</t>
   </si>
@@ -1103,6 +1103,9 @@
   </si>
   <si>
     <t>tuberack B1</t>
+  </si>
+  <si>
+    <t>final pool volume</t>
   </si>
 </sst>
 </file>
@@ -1651,7 +1654,7 @@
   <dimension ref="B1:R105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1980,6 +1983,9 @@
       <c r="K13" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v>E01</v>
+      </c>
+      <c r="M13" t="s">
+        <v>348</v>
       </c>
       <c r="N13" s="11"/>
     </row>
@@ -5563,7 +5569,7 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/templates/02-ont-plasmid.xlsx
+++ b/templates/02-ont-plasmid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angeloas/code/opentrons/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AF11AE-A6EF-974D-B519-7109AE3C278F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D0816D-A40E-FE4C-801E-CC2D3F6C9742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="1360" windowWidth="27920" windowHeight="15940" xr2:uid="{0E74BB9A-F8B8-AA47-B7C7-EA2C2417D685}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="334">
   <si>
     <t>Plasmid sequencing ONT at BCL - Opentrons template</t>
   </si>
@@ -91,27 +91,6 @@
     <t>fmoles per rxn</t>
   </si>
   <si>
-    <t>sample 2</t>
-  </si>
-  <si>
-    <t>sample 3</t>
-  </si>
-  <si>
-    <t>sample 4</t>
-  </si>
-  <si>
-    <t>sample 5</t>
-  </si>
-  <si>
-    <t>sample 6</t>
-  </si>
-  <si>
-    <t>sample 7</t>
-  </si>
-  <si>
-    <t>sample 8</t>
-  </si>
-  <si>
     <t>min pipetting vol</t>
   </si>
   <si>
@@ -1039,9 +1018,6 @@
     <t>rapid barcode plate</t>
   </si>
   <si>
-    <t>sample 15</t>
-  </si>
-  <si>
     <t>This template is used to prepare the data for protocols/ont-plasmid.py</t>
   </si>
   <si>
@@ -1070,27 +1046,6 @@
   </si>
   <si>
     <t>destination plate</t>
-  </si>
-  <si>
-    <t>sample 16</t>
-  </si>
-  <si>
-    <t>sample 17</t>
-  </si>
-  <si>
-    <t>sample 18</t>
-  </si>
-  <si>
-    <t>sample 19</t>
-  </si>
-  <si>
-    <t>sample 20</t>
-  </si>
-  <si>
-    <t>sample 21</t>
-  </si>
-  <si>
-    <t>sample 22</t>
   </si>
   <si>
     <t>barcode well</t>
@@ -1654,7 +1609,7 @@
   <dimension ref="B1:R105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1681,18 +1636,18 @@
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
@@ -1711,56 +1666,56 @@
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J6">
         <v>0.5</v>
       </c>
       <c r="M6" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="P6" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="Q6" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="M7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="N7" s="12">
         <v>4</v>
       </c>
       <c r="P7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q7" t="s">
         <v>317</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>5</v>
@@ -1769,338 +1724,226 @@
         <v>7</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="M8" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="Q8" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="R8" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" t="s">
-        <v>326</v>
-      </c>
-      <c r="D9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E9">
-        <v>5000</v>
-      </c>
-      <c r="F9">
-        <v>68</v>
-      </c>
+      <c r="B9" s="2"/>
       <c r="G9" s="2">
-        <f>F9/((E9*617.96)+36.04) * 1000000</f>
-        <v>22.007640250063236</v>
+        <f t="shared" ref="G9:G23" si="0">F9/((E9*617.96)+36.04) * 1000000</f>
+        <v>0</v>
       </c>
       <c r="H9" s="2" cm="1">
         <f t="array" ref="H9">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>0.908775305882353</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
-        <v>3.5912246941176469</v>
+        <v>0</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="K9" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="M9" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" t="s">
-        <v>337</v>
-      </c>
-      <c r="D10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E10">
-        <v>5000</v>
-      </c>
-      <c r="F10">
-        <v>68</v>
-      </c>
+      <c r="B10" s="2"/>
       <c r="G10" s="2">
-        <f>F10/((E10*617.96)+36.04) * 1000000</f>
-        <v>22.007640250063236</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H10" s="2" cm="1">
         <f t="array" ref="H10">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>0.908775305882353</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
-        <v>3.5912246941176469</v>
+        <v>0</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="K10" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
-        <v>B01</v>
+        <v/>
       </c>
       <c r="M10" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" t="s">
-        <v>338</v>
-      </c>
-      <c r="D11" t="s">
-        <v>219</v>
-      </c>
-      <c r="E11">
-        <v>5000</v>
-      </c>
-      <c r="F11">
-        <v>68</v>
-      </c>
+      <c r="B11" s="2"/>
       <c r="G11" s="2">
-        <f>F11/((E11*617.96)+36.04) * 1000000</f>
-        <v>22.007640250063236</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H11" s="2" cm="1">
         <f t="array" ref="H11">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>0.908775305882353</v>
+        <v>0</v>
       </c>
       <c r="I11" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
-        <v>3.5912246941176469</v>
+        <v>0</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="K11" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
-        <v>C01</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" t="s">
-        <v>339</v>
-      </c>
-      <c r="D12" t="s">
-        <v>220</v>
-      </c>
-      <c r="E12">
-        <v>5000</v>
-      </c>
-      <c r="F12">
-        <v>68</v>
-      </c>
+      <c r="B12" s="2"/>
       <c r="G12" s="2">
-        <f>F12/((E12*617.96)+36.04) * 1000000</f>
-        <v>22.007640250063236</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H12" s="2" cm="1">
         <f t="array" ref="H12">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>0.908775305882353</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
-        <v>3.5912246941176469</v>
+        <v>0</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K12" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
-        <v>D01</v>
+        <v/>
       </c>
       <c r="M12" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" t="s">
-        <v>340</v>
-      </c>
-      <c r="D13" t="s">
-        <v>221</v>
-      </c>
-      <c r="E13">
-        <v>5000</v>
-      </c>
-      <c r="F13">
-        <v>68</v>
-      </c>
+      <c r="B13" s="2"/>
       <c r="G13" s="2">
-        <f>F13/((E13*617.96)+36.04) * 1000000</f>
-        <v>22.007640250063236</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H13" s="2" cm="1">
         <f t="array" ref="H13">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>0.908775305882353</v>
+        <v>0</v>
       </c>
       <c r="I13" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
-        <v>3.5912246941176469</v>
+        <v>0</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="K13" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
-        <v>E01</v>
+        <v/>
       </c>
       <c r="M13" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="N13" s="11"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" t="s">
-        <v>341</v>
-      </c>
-      <c r="D14" t="s">
-        <v>222</v>
-      </c>
-      <c r="E14">
-        <v>5000</v>
-      </c>
-      <c r="F14">
-        <v>68</v>
-      </c>
+      <c r="B14" s="2"/>
       <c r="G14" s="2">
-        <f>F14/((E14*617.96)+36.04) * 1000000</f>
-        <v>22.007640250063236</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H14" s="2" cm="1">
         <f t="array" ref="H14">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>0.908775305882353</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
-        <v>3.5912246941176469</v>
+        <v>0</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="K14" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
-        <v>F01</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" t="s">
-        <v>342</v>
-      </c>
-      <c r="D15" t="s">
-        <v>223</v>
-      </c>
-      <c r="E15">
-        <v>5000</v>
-      </c>
-      <c r="F15">
-        <v>68</v>
-      </c>
+      <c r="B15" s="2"/>
       <c r="G15" s="2">
-        <f>F15/((E15*617.96)+36.04) * 1000000</f>
-        <v>22.007640250063236</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H15" s="2" cm="1">
         <f t="array" ref="H15">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>0.908775305882353</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
-        <v>3.5912246941176469</v>
+        <v>0</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="K15" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
-        <v>G01</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" t="s">
-        <v>343</v>
-      </c>
-      <c r="D16" t="s">
-        <v>224</v>
-      </c>
-      <c r="E16">
-        <v>5000</v>
-      </c>
-      <c r="F16">
-        <v>68</v>
-      </c>
+      <c r="B16" s="2"/>
       <c r="G16" s="2">
-        <f>F16/((E16*617.96)+36.04) * 1000000</f>
-        <v>22.007640250063236</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H16" s="2" cm="1">
         <f t="array" ref="H16">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>0.908775305882353</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
-        <v>3.5912246941176469</v>
+        <v>0</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="K16" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
-        <v>H01</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="G17" s="2">
-        <f>F17/((E17*617.96)+36.04) * 1000000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H17" s="2" cm="1">
@@ -2112,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="K17" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2122,7 +1965,7 @@
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="G18" s="2">
-        <f>F18/((E18*617.96)+36.04) * 1000000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H18" s="2" cm="1">
@@ -2134,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="K18" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2144,7 +1987,7 @@
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="G19" s="2">
-        <f>F19/((E19*617.96)+36.04) * 1000000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H19" s="2" cm="1">
@@ -2156,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="K19" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2166,7 +2009,7 @@
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="G20" s="2">
-        <f>F20/((E20*617.96)+36.04) * 1000000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H20" s="2" cm="1">
@@ -2178,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="K20" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2188,7 +2031,7 @@
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="G21" s="2">
-        <f>F21/((E21*617.96)+36.04) * 1000000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H21" s="2" cm="1">
@@ -2200,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="K21" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2210,7 +2053,7 @@
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="G22" s="2">
-        <f>F22/((E22*617.96)+36.04) * 1000000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22" s="2" cm="1">
@@ -2222,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K22" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2232,7 +2075,7 @@
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="G23" s="2">
-        <f>F23/((E23*617.96)+36.04) * 1000000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H23" s="2" cm="1">
@@ -2244,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="K23" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2254,7 +2097,7 @@
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="G24" s="2">
-        <f t="shared" ref="G24" si="0">F24/((E24*617.96)+36.04) * 1000000</f>
+        <f t="shared" ref="G24" si="1">F24/((E24*617.96)+36.04) * 1000000</f>
         <v>0</v>
       </c>
       <c r="H24" s="2" cm="1">
@@ -2266,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K24" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2275,13 +2118,13 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E25">
         <v>5000</v>
@@ -2290,7 +2133,7 @@
         <v>40</v>
       </c>
       <c r="G25" s="2">
-        <f>F25/((E25*617.96)+36.04) * 1000000</f>
+        <f t="shared" ref="G25:G38" si="2">F25/((E25*617.96)+36.04) * 1000000</f>
         <v>12.945670735331316</v>
       </c>
       <c r="H25" s="2" cm="1">
@@ -2302,7 +2145,7 @@
         <v>2.9550819800000001</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="K25" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2310,261 +2153,163 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" t="s">
-        <v>226</v>
-      </c>
-      <c r="E26">
-        <v>5000</v>
-      </c>
-      <c r="F26">
-        <v>80</v>
-      </c>
+      <c r="B26" s="2"/>
       <c r="G26" s="2">
-        <f>F26/((E26*617.96)+36.04) * 1000000</f>
-        <v>25.891341470662631</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H26" s="2" cm="1">
         <f t="array" ref="H26">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>0.77245900999999995</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
-        <v>3.7275409900000001</v>
+        <v>0</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="K26" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
-        <v>B02</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s">
-        <v>227</v>
-      </c>
-      <c r="E27">
-        <v>5000</v>
-      </c>
-      <c r="F27">
-        <v>100</v>
-      </c>
+      <c r="B27" s="2"/>
       <c r="G27" s="2">
-        <f>F27/((E27*617.96)+36.04) * 1000000</f>
-        <v>32.364176838328284</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H27" s="2" cm="1">
         <f t="array" ref="H27">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>0.61796720800000005</v>
+        <v>0</v>
       </c>
       <c r="I27" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
-        <v>3.882032792</v>
+        <v>0</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="K27" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
-        <v>C02</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" t="s">
-        <v>228</v>
-      </c>
-      <c r="E28">
-        <v>5000</v>
-      </c>
-      <c r="F28">
-        <v>200</v>
-      </c>
+      <c r="B28" s="2"/>
       <c r="G28" s="2">
-        <f>F28/((E28*617.96)+36.04) * 1000000</f>
-        <v>64.728353676656567</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H28" s="2" cm="1">
         <f t="array" ref="H28">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I28" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K28" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
-        <v>D02</v>
+        <v/>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" t="s">
-        <v>229</v>
-      </c>
-      <c r="E29">
-        <v>5000</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
+      <c r="B29" s="2"/>
       <c r="G29" s="2">
-        <f>F29/((E29*617.96)+36.04) * 1000000</f>
-        <v>0.3236417683832829</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H29" s="2" cm="1">
         <f t="array" ref="H29">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="I29" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="K29" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
-        <v>E02</v>
+        <v/>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" t="s">
-        <v>230</v>
-      </c>
-      <c r="E30">
-        <v>5000</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
+      <c r="B30" s="2"/>
       <c r="G30" s="2">
-        <f>F30/((E30*617.96)+36.04) * 1000000</f>
-        <v>0.6472835367665658</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H30" s="2" cm="1">
         <f t="array" ref="H30">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="I30" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="K30" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
-        <v>F02</v>
+        <v/>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" t="s">
-        <v>231</v>
-      </c>
-      <c r="E31">
-        <v>5000</v>
-      </c>
-      <c r="F31">
-        <v>3</v>
-      </c>
+      <c r="B31" s="2"/>
       <c r="G31" s="2">
-        <f>F31/((E31*617.96)+36.04) * 1000000</f>
-        <v>0.97092530514984865</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H31" s="2" cm="1">
         <f t="array" ref="H31">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="I31" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="K31" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
-        <v>G02</v>
+        <v/>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" t="s">
-        <v>232</v>
-      </c>
-      <c r="E32">
-        <v>5000</v>
-      </c>
-      <c r="F32">
-        <v>4</v>
-      </c>
+      <c r="B32" s="2"/>
       <c r="G32" s="2">
-        <f>F32/((E32*617.96)+36.04) * 1000000</f>
-        <v>1.2945670735331316</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H32" s="2" cm="1">
         <f t="array" ref="H32">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="I32" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="K32" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
-        <v>H02</v>
+        <v/>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="G33" s="2">
-        <f>F33/((E33*617.96)+36.04) * 1000000</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H33" s="2" cm="1">
@@ -2576,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="K33" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2586,7 +2331,7 @@
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="G34" s="2">
-        <f>F34/((E34*617.96)+36.04) * 1000000</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H34" s="2" cm="1">
@@ -2598,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="K34" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2608,7 +2353,7 @@
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="G35" s="2">
-        <f>F35/((E35*617.96)+36.04) * 1000000</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H35" s="2" cm="1">
@@ -2620,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="K35" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2630,7 +2375,7 @@
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="G36" s="2">
-        <f>F36/((E36*617.96)+36.04) * 1000000</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H36" s="2" cm="1">
@@ -2642,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="K36" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2652,7 +2397,7 @@
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="G37" s="2">
-        <f>F37/((E37*617.96)+36.04) * 1000000</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H37" s="2" cm="1">
@@ -2664,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="K37" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2674,7 +2419,7 @@
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="G38" s="2">
-        <f>F38/((E38*617.96)+36.04) * 1000000</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H38" s="2" cm="1">
@@ -2686,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K38" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2696,7 +2441,7 @@
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="G39" s="2">
-        <f t="shared" ref="G39:G57" si="1">F39/((E39*617.96)+36.04) * 1000000</f>
+        <f t="shared" ref="G39:G57" si="3">F39/((E39*617.96)+36.04) * 1000000</f>
         <v>0</v>
       </c>
       <c r="H39" s="2" cm="1">
@@ -2708,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="K39" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2718,7 +2463,7 @@
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="G40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H40" s="2" cm="1">
@@ -2730,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K40" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2740,7 +2485,7 @@
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="G41" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H41" s="2" cm="1">
@@ -2752,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="K41" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2762,7 +2507,7 @@
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="G42" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H42" s="2" cm="1">
@@ -2774,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K42" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2784,7 +2529,7 @@
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="G43" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H43" s="2" cm="1">
@@ -2796,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="K43" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2806,7 +2551,7 @@
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="G44" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H44" s="2" cm="1">
@@ -2818,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="K44" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2828,7 +2573,7 @@
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="G45" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H45" s="2" cm="1">
@@ -2840,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="K45" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2850,7 +2595,7 @@
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
       <c r="G46" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H46" s="2" cm="1">
@@ -2862,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="K46" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2872,7 +2617,7 @@
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="2"/>
       <c r="G47" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H47" s="2" cm="1">
@@ -2884,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="K47" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2894,7 +2639,7 @@
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="2"/>
       <c r="G48" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H48" s="2" cm="1">
@@ -2906,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="K48" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2916,7 +2661,7 @@
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" s="2"/>
       <c r="G49" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H49" s="2" cm="1">
@@ -2928,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="K49" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2938,7 +2683,7 @@
     <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
       <c r="G50" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H50" s="2" cm="1">
@@ -2950,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K50" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2960,7 +2705,7 @@
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="2"/>
       <c r="G51" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H51" s="2" cm="1">
@@ -2972,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K51" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2982,7 +2727,7 @@
     <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
       <c r="G52" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H52" s="2" cm="1">
@@ -2994,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K52" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3004,7 +2749,7 @@
     <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
       <c r="G53" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H53" s="2" cm="1">
@@ -3016,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="K53" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3026,7 +2771,7 @@
     <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54" s="2"/>
       <c r="G54" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H54" s="2" cm="1">
@@ -3038,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="K54" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3048,7 +2793,7 @@
     <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
       <c r="G55" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H55" s="2" cm="1">
@@ -3060,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="K55" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3070,7 +2815,7 @@
     <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="G56" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H56" s="2" cm="1">
@@ -3082,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="K56" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3092,7 +2837,7 @@
     <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="G57" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H57" s="2" cm="1">
@@ -3104,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="K57" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3114,7 +2859,7 @@
     <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="G58" s="2">
-        <f t="shared" ref="G58:G89" si="2">F58/((E58*617.96)+36.04) * 1000000</f>
+        <f t="shared" ref="G58:G89" si="4">F58/((E58*617.96)+36.04) * 1000000</f>
         <v>0</v>
       </c>
       <c r="H58" s="2" cm="1">
@@ -3126,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="K58" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3136,7 +2881,7 @@
     <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
       <c r="G59" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H59" s="2" cm="1">
@@ -3148,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="K59" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3158,7 +2903,7 @@
     <row r="60" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B60" s="2"/>
       <c r="G60" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H60" s="2" cm="1">
@@ -3170,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="K60" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3180,7 +2925,7 @@
     <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
       <c r="G61" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H61" s="2" cm="1">
@@ -3192,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="K61" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3202,7 +2947,7 @@
     <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="G62" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H62" s="2" cm="1">
@@ -3214,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="K62" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3224,7 +2969,7 @@
     <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="G63" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H63" s="2" cm="1">
@@ -3236,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="K63" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3246,7 +2991,7 @@
     <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64" s="2"/>
       <c r="G64" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H64" s="2" cm="1">
@@ -3258,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="K64" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3268,7 +3013,7 @@
     <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
       <c r="G65" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H65" s="2" cm="1">
@@ -3280,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="K65" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3290,7 +3035,7 @@
     <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66" s="2"/>
       <c r="G66" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H66" s="2" cm="1">
@@ -3302,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K66" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3312,7 +3057,7 @@
     <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
       <c r="G67" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H67" s="2" cm="1">
@@ -3324,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="K67" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3334,7 +3079,7 @@
     <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68" s="2"/>
       <c r="G68" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H68" s="2" cm="1">
@@ -3346,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="K68" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3356,7 +3101,7 @@
     <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
       <c r="G69" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H69" s="2" cm="1">
@@ -3368,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="K69" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3378,7 +3123,7 @@
     <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" s="2"/>
       <c r="G70" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H70" s="2" cm="1">
@@ -3390,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="K70" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3400,7 +3145,7 @@
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71" s="2"/>
       <c r="G71" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H71" s="2" cm="1">
@@ -3412,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="K71" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3422,7 +3167,7 @@
     <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72" s="2"/>
       <c r="G72" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H72" s="2" cm="1">
@@ -3434,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K72" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3444,7 +3189,7 @@
     <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" s="2"/>
       <c r="G73" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H73" s="2" cm="1">
@@ -3456,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="K73" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3466,7 +3211,7 @@
     <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74" s="2"/>
       <c r="G74" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H74" s="2" cm="1">
@@ -3478,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="K74" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3488,7 +3233,7 @@
     <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75" s="2"/>
       <c r="G75" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H75" s="2" cm="1">
@@ -3500,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="K75" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3510,7 +3255,7 @@
     <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" s="2"/>
       <c r="G76" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H76" s="2" cm="1">
@@ -3522,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="K76" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3532,7 +3277,7 @@
     <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77" s="2"/>
       <c r="G77" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H77" s="2" cm="1">
@@ -3544,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="K77" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3554,7 +3299,7 @@
     <row r="78" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B78" s="2"/>
       <c r="G78" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H78" s="2" cm="1">
@@ -3566,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="K78" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3576,7 +3321,7 @@
     <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79" s="2"/>
       <c r="G79" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H79" s="2" cm="1">
@@ -3588,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="K79" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3598,7 +3343,7 @@
     <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B80" s="2"/>
       <c r="G80" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H80" s="2" cm="1">
@@ -3610,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="K80" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3620,7 +3365,7 @@
     <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81" s="2"/>
       <c r="G81" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H81" s="2" cm="1">
@@ -3632,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="K81" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3642,7 +3387,7 @@
     <row r="82" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B82" s="2"/>
       <c r="G82" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H82" s="2" cm="1">
@@ -3654,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="K82" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3664,7 +3409,7 @@
     <row r="83" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B83" s="2"/>
       <c r="G83" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H83" s="2" cm="1">
@@ -3676,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="K83" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3686,7 +3431,7 @@
     <row r="84" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B84" s="2"/>
       <c r="G84" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H84" s="2" cm="1">
@@ -3698,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="K84" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3708,7 +3453,7 @@
     <row r="85" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B85" s="2"/>
       <c r="G85" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H85" s="2" cm="1">
@@ -3720,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="K85" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3730,7 +3475,7 @@
     <row r="86" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B86" s="2"/>
       <c r="G86" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H86" s="2" cm="1">
@@ -3742,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="K86" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3752,7 +3497,7 @@
     <row r="87" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B87" s="2"/>
       <c r="G87" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H87" s="2" cm="1">
@@ -3764,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="K87" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3774,7 +3519,7 @@
     <row r="88" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B88" s="2"/>
       <c r="G88" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H88" s="2" cm="1">
@@ -3786,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="K88" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3796,7 +3541,7 @@
     <row r="89" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B89" s="2"/>
       <c r="G89" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H89" s="2" cm="1">
@@ -3808,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="K89" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3818,7 +3563,7 @@
     <row r="90" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B90" s="2"/>
       <c r="G90" s="2">
-        <f t="shared" ref="G90:G104" si="3">F90/((E90*617.96)+36.04) * 1000000</f>
+        <f t="shared" ref="G90:G104" si="5">F90/((E90*617.96)+36.04) * 1000000</f>
         <v>0</v>
       </c>
       <c r="H90" s="2" cm="1">
@@ -3830,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="K90" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3840,7 +3585,7 @@
     <row r="91" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B91" s="2"/>
       <c r="G91" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H91" s="2" cm="1">
@@ -3852,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="K91" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3862,7 +3607,7 @@
     <row r="92" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B92" s="2"/>
       <c r="G92" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H92" s="2" cm="1">
@@ -3874,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="K92" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3884,7 +3629,7 @@
     <row r="93" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B93" s="2"/>
       <c r="G93" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H93" s="2" cm="1">
@@ -3896,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="K93" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3906,7 +3651,7 @@
     <row r="94" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B94" s="2"/>
       <c r="G94" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H94" s="2" cm="1">
@@ -3918,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="K94" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3928,7 +3673,7 @@
     <row r="95" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B95" s="2"/>
       <c r="G95" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H95" s="2" cm="1">
@@ -3940,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="K95" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3950,7 +3695,7 @@
     <row r="96" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B96" s="2"/>
       <c r="G96" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H96" s="2" cm="1">
@@ -3962,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="K96" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3972,7 +3717,7 @@
     <row r="97" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B97" s="2"/>
       <c r="G97" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H97" s="2" cm="1">
@@ -3984,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="K97" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3994,7 +3739,7 @@
     <row r="98" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B98" s="2"/>
       <c r="G98" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H98" s="2" cm="1">
@@ -4006,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="K98" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -4016,7 +3761,7 @@
     <row r="99" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B99" s="2"/>
       <c r="G99" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H99" s="2" cm="1">
@@ -4028,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="K99" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -4038,7 +3783,7 @@
     <row r="100" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B100" s="2"/>
       <c r="G100" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H100" s="2" cm="1">
@@ -4050,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="K100" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -4060,7 +3805,7 @@
     <row r="101" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B101" s="2"/>
       <c r="G101" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H101" s="2" cm="1">
@@ -4072,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="K101" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -4082,7 +3827,7 @@
     <row r="102" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B102" s="2"/>
       <c r="G102" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H102" s="2" cm="1">
@@ -4094,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="K102" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -4104,7 +3849,7 @@
     <row r="103" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B103" s="2"/>
       <c r="G103" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H103" s="2" cm="1">
@@ -4116,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="K103" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -4126,7 +3871,7 @@
     <row r="104" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B104" s="2"/>
       <c r="G104" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H104" s="2" cm="1">
@@ -4138,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="K104" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -4194,1365 +3939,1365 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C39" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D40" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D41" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D42" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D44" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D46" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C47" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D47" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C48" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D48" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D49" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C50" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D50" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C51" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D51" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C52" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D52" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C53" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D53" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C54" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D54" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C55" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D55" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C56" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D56" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C57" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D57" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C58" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D58" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C59" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D59" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C60" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D60" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C61" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D61" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C62" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D62" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C63" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D63" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C64" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D64" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C65" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D65" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C66" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D66" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C67" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D67" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C68" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D68" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C69" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D69" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C70" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D70" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C71" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D71" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C72" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D72" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C73" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D73" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C74" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D74" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C75" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D75" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C76" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D76" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C77" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D77" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C78" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D78" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C79" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D79" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C80" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D80" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C81" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D81" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C82" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D82" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C83" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D83" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C84" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D84" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C85" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D85" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C86" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D86" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C87" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D87" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C88" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D88" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C89" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D89" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C90" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D90" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C91" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D91" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C92" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D92" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C93" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D93" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C94" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D94" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C95" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D95" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C96" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D96" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C97" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D97" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C98" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D98" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C99" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D99" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C100" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D100" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -5587,311 +5332,311 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>315</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="str">
         <f>TEXT(main!B9, "")</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="B2" s="8" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C2" s="9">
         <f>main!H9</f>
-        <v>0.908775305882353</v>
+        <v>0</v>
       </c>
       <c r="D2" s="8" t="str">
         <f>IF(C2=0, "", "A01")</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="E2" s="8" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F2" s="9">
         <f>main!I9</f>
-        <v>3.5912246941176469</v>
+        <v>0</v>
       </c>
       <c r="G2" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D9,Table2[name],Table2[well],"")</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="H2" s="8" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="I2" s="8">
         <f>IF(C2=0,0,0.5)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="str">
         <f>TEXT(main!B10, "")</f>
-        <v>B01</v>
+        <v/>
       </c>
       <c r="B3" s="8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C3" s="9">
         <f>main!H10</f>
-        <v>0.908775305882353</v>
+        <v>0</v>
       </c>
       <c r="D3" s="8" t="str">
         <f t="shared" ref="D3:D66" si="0">IF(C3=0, "", "A01")</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="E3" s="8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F3" s="9">
         <f>main!I10</f>
-        <v>3.5912246941176469</v>
+        <v>0</v>
       </c>
       <c r="G3" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D10,Table2[name],Table2[well],"")</f>
-        <v>B01</v>
+        <v/>
       </c>
       <c r="H3" s="8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I3" s="8">
         <f t="shared" ref="I3:I66" si="1">IF(C3=0,0,0.5)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="str">
         <f>TEXT(main!B11, "")</f>
-        <v>C01</v>
+        <v/>
       </c>
       <c r="B4" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C4" s="9">
         <f>main!H11</f>
-        <v>0.908775305882353</v>
+        <v>0</v>
       </c>
       <c r="D4" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="E4" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F4" s="9">
         <f>main!I11</f>
-        <v>3.5912246941176469</v>
+        <v>0</v>
       </c>
       <c r="G4" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D11,Table2[name],Table2[well],"")</f>
-        <v>C01</v>
+        <v/>
       </c>
       <c r="H4" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I4" s="8">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="str">
         <f>TEXT(main!B12, "")</f>
-        <v>D01</v>
+        <v/>
       </c>
       <c r="B5" s="8" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C5" s="9">
         <f>main!H12</f>
-        <v>0.908775305882353</v>
+        <v>0</v>
       </c>
       <c r="D5" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="E5" s="8" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F5" s="9">
         <f>main!I12</f>
-        <v>3.5912246941176469</v>
+        <v>0</v>
       </c>
       <c r="G5" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D12,Table2[name],Table2[well],"")</f>
-        <v>D01</v>
+        <v/>
       </c>
       <c r="H5" s="8" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I5" s="8">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="str">
         <f>TEXT(main!B13, "")</f>
-        <v>E01</v>
+        <v/>
       </c>
       <c r="B6" s="8" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C6" s="9">
         <f>main!H13</f>
-        <v>0.908775305882353</v>
+        <v>0</v>
       </c>
       <c r="D6" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="E6" s="8" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F6" s="9">
         <f>main!I13</f>
-        <v>3.5912246941176469</v>
+        <v>0</v>
       </c>
       <c r="G6" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D13,Table2[name],Table2[well],"")</f>
-        <v>E01</v>
+        <v/>
       </c>
       <c r="H6" s="8" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I6" s="8">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="str">
         <f>TEXT(main!B14, "")</f>
-        <v>F01</v>
+        <v/>
       </c>
       <c r="B7" s="8" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C7" s="9">
         <f>main!H14</f>
-        <v>0.908775305882353</v>
+        <v>0</v>
       </c>
       <c r="D7" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="E7" s="8" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F7" s="9">
         <f>main!I14</f>
-        <v>3.5912246941176469</v>
+        <v>0</v>
       </c>
       <c r="G7" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D14,Table2[name],Table2[well],"")</f>
-        <v>F01</v>
+        <v/>
       </c>
       <c r="H7" s="8" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="I7" s="8">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="str">
         <f>TEXT(main!B15, "")</f>
-        <v>G01</v>
+        <v/>
       </c>
       <c r="B8" s="8" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C8" s="9">
         <f>main!H15</f>
-        <v>0.908775305882353</v>
+        <v>0</v>
       </c>
       <c r="D8" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="E8" s="8" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F8" s="9">
         <f>main!I15</f>
-        <v>3.5912246941176469</v>
+        <v>0</v>
       </c>
       <c r="G8" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D15,Table2[name],Table2[well],"")</f>
-        <v>G01</v>
+        <v/>
       </c>
       <c r="H8" s="8" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="I8" s="8">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="str">
         <f>TEXT(main!B16, "")</f>
-        <v>H01</v>
+        <v/>
       </c>
       <c r="B9" s="8" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C9" s="9">
         <f>main!H16</f>
-        <v>0.908775305882353</v>
+        <v>0</v>
       </c>
       <c r="D9" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="E9" s="8" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F9" s="9">
         <f>main!I16</f>
-        <v>3.5912246941176469</v>
+        <v>0</v>
       </c>
       <c r="G9" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D16,Table2[name],Table2[well],"")</f>
-        <v>H01</v>
+        <v/>
       </c>
       <c r="H9" s="8" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="I9" s="8">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -5900,7 +5645,7 @@
         <v/>
       </c>
       <c r="B10" s="8" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C10" s="9">
         <f>main!H17</f>
@@ -5911,7 +5656,7 @@
         <v/>
       </c>
       <c r="E10" s="8" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F10" s="9">
         <f>main!I17</f>
@@ -5922,7 +5667,7 @@
         <v/>
       </c>
       <c r="H10" s="8" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I10" s="8">
         <f t="shared" si="1"/>
@@ -5935,7 +5680,7 @@
         <v/>
       </c>
       <c r="B11" s="8" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C11" s="9">
         <f>main!H18</f>
@@ -5946,7 +5691,7 @@
         <v/>
       </c>
       <c r="E11" s="8" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F11" s="9">
         <f>main!I18</f>
@@ -5957,7 +5702,7 @@
         <v/>
       </c>
       <c r="H11" s="8" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I11" s="8">
         <f t="shared" si="1"/>
@@ -5970,7 +5715,7 @@
         <v/>
       </c>
       <c r="B12" s="8" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C12" s="9">
         <f>main!H19</f>
@@ -5981,7 +5726,7 @@
         <v/>
       </c>
       <c r="E12" s="8" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F12" s="9">
         <f>main!I19</f>
@@ -5992,7 +5737,7 @@
         <v/>
       </c>
       <c r="H12" s="8" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" si="1"/>
@@ -6005,7 +5750,7 @@
         <v/>
       </c>
       <c r="B13" s="8" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C13" s="9">
         <f>main!H20</f>
@@ -6016,7 +5761,7 @@
         <v/>
       </c>
       <c r="E13" s="8" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F13" s="9">
         <f>main!I20</f>
@@ -6027,7 +5772,7 @@
         <v/>
       </c>
       <c r="H13" s="8" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I13" s="8">
         <f t="shared" si="1"/>
@@ -6040,7 +5785,7 @@
         <v/>
       </c>
       <c r="B14" s="8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C14" s="9">
         <f>main!H21</f>
@@ -6051,7 +5796,7 @@
         <v/>
       </c>
       <c r="E14" s="8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F14" s="9">
         <f>main!I21</f>
@@ -6062,7 +5807,7 @@
         <v/>
       </c>
       <c r="H14" s="8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I14" s="8">
         <f t="shared" si="1"/>
@@ -6075,7 +5820,7 @@
         <v/>
       </c>
       <c r="B15" s="8" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C15" s="9">
         <f>main!H22</f>
@@ -6086,7 +5831,7 @@
         <v/>
       </c>
       <c r="E15" s="8" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F15" s="9">
         <f>main!I22</f>
@@ -6097,7 +5842,7 @@
         <v/>
       </c>
       <c r="H15" s="8" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="I15" s="8">
         <f t="shared" si="1"/>
@@ -6110,7 +5855,7 @@
         <v/>
       </c>
       <c r="B16" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C16" s="9">
         <f>main!H23</f>
@@ -6121,7 +5866,7 @@
         <v/>
       </c>
       <c r="E16" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F16" s="9">
         <f>main!I23</f>
@@ -6132,7 +5877,7 @@
         <v/>
       </c>
       <c r="H16" s="8" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I16" s="8">
         <f t="shared" si="1"/>
@@ -6145,7 +5890,7 @@
         <v/>
       </c>
       <c r="B17" s="8" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C17" s="9">
         <f>main!H24</f>
@@ -6156,7 +5901,7 @@
         <v/>
       </c>
       <c r="E17" s="8" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F17" s="9">
         <f>main!I24</f>
@@ -6167,7 +5912,7 @@
         <v/>
       </c>
       <c r="H17" s="8" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="I17" s="8">
         <f t="shared" si="1"/>
@@ -6180,7 +5925,7 @@
         <v>A01</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C18" s="9">
         <f>main!H25</f>
@@ -6191,7 +5936,7 @@
         <v>A01</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F18" s="9">
         <f>main!I25</f>
@@ -6202,7 +5947,7 @@
         <v>A02</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="I18" s="8">
         <f t="shared" si="1"/>
@@ -6212,126 +5957,126 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="str">
         <f>TEXT(main!B26, "")</f>
-        <v>B01</v>
+        <v/>
       </c>
       <c r="B19" s="8" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C19" s="9">
         <f>main!H26</f>
-        <v>0.77245900999999995</v>
+        <v>0</v>
       </c>
       <c r="D19" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="E19" s="8" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F19" s="9">
         <f>main!I26</f>
-        <v>3.7275409900000001</v>
+        <v>0</v>
       </c>
       <c r="G19" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D26,Table2[name],Table2[well],"")</f>
-        <v>B02</v>
+        <v/>
       </c>
       <c r="H19" s="8" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I19" s="8">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="str">
         <f>TEXT(main!B27, "")</f>
-        <v>C01</v>
+        <v/>
       </c>
       <c r="B20" s="8" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C20" s="9">
         <f>main!H27</f>
-        <v>0.61796720800000005</v>
+        <v>0</v>
       </c>
       <c r="D20" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="E20" s="8" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F20" s="9">
         <f>main!I27</f>
-        <v>3.882032792</v>
+        <v>0</v>
       </c>
       <c r="G20" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D27,Table2[name],Table2[well],"")</f>
-        <v>C02</v>
+        <v/>
       </c>
       <c r="H20" s="8" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I20" s="8">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="str">
         <f>TEXT(main!B28, "")</f>
-        <v>D01</v>
+        <v/>
       </c>
       <c r="B21" s="8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C21" s="9">
         <f>main!H28</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D21" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="E21" s="8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F21" s="9">
         <f>main!I28</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G21" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D28,Table2[name],Table2[well],"")</f>
-        <v>D02</v>
+        <v/>
       </c>
       <c r="H21" s="8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I21" s="8">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="str">
         <f>TEXT(main!B29, "")</f>
-        <v>E01</v>
+        <v/>
       </c>
       <c r="B22" s="8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C22" s="9">
         <f>main!H29</f>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D22" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="E22" s="8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F22" s="9">
         <f>main!I29</f>
@@ -6339,34 +6084,34 @@
       </c>
       <c r="G22" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D29,Table2[name],Table2[well],"")</f>
-        <v>E02</v>
+        <v/>
       </c>
       <c r="H22" s="8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="str">
         <f>TEXT(main!B30, "")</f>
-        <v>F01</v>
+        <v/>
       </c>
       <c r="B23" s="8" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C23" s="9">
         <f>main!H30</f>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D23" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="E23" s="8" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F23" s="9">
         <f>main!I30</f>
@@ -6374,34 +6119,34 @@
       </c>
       <c r="G23" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D30,Table2[name],Table2[well],"")</f>
-        <v>F02</v>
+        <v/>
       </c>
       <c r="H23" s="8" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="str">
         <f>TEXT(main!B31, "")</f>
-        <v>G01</v>
+        <v/>
       </c>
       <c r="B24" s="8" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C24" s="9">
         <f>main!H31</f>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D24" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="E24" s="8" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F24" s="9">
         <f>main!I31</f>
@@ -6409,34 +6154,34 @@
       </c>
       <c r="G24" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D31,Table2[name],Table2[well],"")</f>
-        <v>G02</v>
+        <v/>
       </c>
       <c r="H24" s="8" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I24" s="8">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="str">
         <f>TEXT(main!B32, "")</f>
-        <v>H01</v>
+        <v/>
       </c>
       <c r="B25" s="8" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C25" s="9">
         <f>main!H32</f>
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D25" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="E25" s="8" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F25" s="9">
         <f>main!I32</f>
@@ -6444,14 +6189,14 @@
       </c>
       <c r="G25" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D32,Table2[name],Table2[well],"")</f>
-        <v>H02</v>
+        <v/>
       </c>
       <c r="H25" s="8" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="I25" s="8">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -6460,7 +6205,7 @@
         <v/>
       </c>
       <c r="B26" s="8" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C26" s="9">
         <f>main!H33</f>
@@ -6471,7 +6216,7 @@
         <v/>
       </c>
       <c r="E26" s="8" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F26" s="9">
         <f>main!I33</f>
@@ -6482,7 +6227,7 @@
         <v/>
       </c>
       <c r="H26" s="8" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="I26" s="8">
         <f t="shared" si="1"/>
@@ -6495,7 +6240,7 @@
         <v/>
       </c>
       <c r="B27" s="8" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C27" s="9">
         <f>main!H34</f>
@@ -6506,7 +6251,7 @@
         <v/>
       </c>
       <c r="E27" s="8" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F27" s="9">
         <f>main!I34</f>
@@ -6517,7 +6262,7 @@
         <v/>
       </c>
       <c r="H27" s="8" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="I27" s="8">
         <f t="shared" si="1"/>
@@ -6530,7 +6275,7 @@
         <v/>
       </c>
       <c r="B28" s="8" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C28" s="9">
         <f>main!H35</f>
@@ -6541,7 +6286,7 @@
         <v/>
       </c>
       <c r="E28" s="8" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F28" s="9">
         <f>main!I35</f>
@@ -6552,7 +6297,7 @@
         <v/>
       </c>
       <c r="H28" s="8" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="I28" s="8">
         <f t="shared" si="1"/>
@@ -6565,7 +6310,7 @@
         <v/>
       </c>
       <c r="B29" s="8" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C29" s="9">
         <f>main!H36</f>
@@ -6576,7 +6321,7 @@
         <v/>
       </c>
       <c r="E29" s="8" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F29" s="9">
         <f>main!I36</f>
@@ -6587,7 +6332,7 @@
         <v/>
       </c>
       <c r="H29" s="8" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I29" s="8">
         <f t="shared" si="1"/>
@@ -6600,7 +6345,7 @@
         <v/>
       </c>
       <c r="B30" s="8" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C30" s="9">
         <f>main!H37</f>
@@ -6611,7 +6356,7 @@
         <v/>
       </c>
       <c r="E30" s="8" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F30" s="9">
         <f>main!I37</f>
@@ -6622,7 +6367,7 @@
         <v/>
       </c>
       <c r="H30" s="8" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="I30" s="8">
         <f t="shared" si="1"/>
@@ -6635,7 +6380,7 @@
         <v/>
       </c>
       <c r="B31" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C31" s="9">
         <f>main!H38</f>
@@ -6646,7 +6391,7 @@
         <v/>
       </c>
       <c r="E31" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F31" s="9">
         <f>main!I38</f>
@@ -6657,7 +6402,7 @@
         <v/>
       </c>
       <c r="H31" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="I31" s="8">
         <f t="shared" si="1"/>
@@ -6670,7 +6415,7 @@
         <v/>
       </c>
       <c r="B32" s="8" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C32" s="9">
         <f>main!H39</f>
@@ -6681,7 +6426,7 @@
         <v/>
       </c>
       <c r="E32" s="8" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F32" s="9">
         <f>main!I39</f>
@@ -6692,7 +6437,7 @@
         <v/>
       </c>
       <c r="H32" s="8" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I32" s="8">
         <f t="shared" si="1"/>
@@ -6705,7 +6450,7 @@
         <v/>
       </c>
       <c r="B33" s="8" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C33" s="9">
         <f>main!H40</f>
@@ -6716,7 +6461,7 @@
         <v/>
       </c>
       <c r="E33" s="8" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F33" s="9">
         <f>main!I40</f>
@@ -6727,7 +6472,7 @@
         <v/>
       </c>
       <c r="H33" s="8" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I33" s="8">
         <f t="shared" si="1"/>
@@ -6740,7 +6485,7 @@
         <v/>
       </c>
       <c r="B34" s="8" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C34" s="9">
         <f>main!H41</f>
@@ -6751,7 +6496,7 @@
         <v/>
       </c>
       <c r="E34" s="8" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F34" s="9">
         <f>main!I41</f>
@@ -6762,7 +6507,7 @@
         <v/>
       </c>
       <c r="H34" s="8" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I34" s="8">
         <f t="shared" si="1"/>
@@ -6775,7 +6520,7 @@
         <v/>
       </c>
       <c r="B35" s="8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C35" s="9">
         <f>main!H42</f>
@@ -6786,7 +6531,7 @@
         <v/>
       </c>
       <c r="E35" s="8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F35" s="9">
         <f>main!I42</f>
@@ -6797,7 +6542,7 @@
         <v/>
       </c>
       <c r="H35" s="8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I35" s="8">
         <f t="shared" si="1"/>
@@ -6810,7 +6555,7 @@
         <v/>
       </c>
       <c r="B36" s="8" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C36" s="9">
         <f>main!H43</f>
@@ -6821,7 +6566,7 @@
         <v/>
       </c>
       <c r="E36" s="8" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F36" s="9">
         <f>main!I43</f>
@@ -6832,7 +6577,7 @@
         <v/>
       </c>
       <c r="H36" s="8" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I36" s="8">
         <f t="shared" si="1"/>
@@ -6845,7 +6590,7 @@
         <v/>
       </c>
       <c r="B37" s="8" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C37" s="9">
         <f>main!H44</f>
@@ -6856,7 +6601,7 @@
         <v/>
       </c>
       <c r="E37" s="8" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F37" s="9">
         <f>main!I44</f>
@@ -6867,7 +6612,7 @@
         <v/>
       </c>
       <c r="H37" s="8" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I37" s="8">
         <f t="shared" si="1"/>
@@ -6880,7 +6625,7 @@
         <v/>
       </c>
       <c r="B38" s="8" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C38" s="9">
         <f>main!H45</f>
@@ -6891,7 +6636,7 @@
         <v/>
       </c>
       <c r="E38" s="8" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F38" s="9">
         <f>main!I45</f>
@@ -6902,7 +6647,7 @@
         <v/>
       </c>
       <c r="H38" s="8" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="I38" s="8">
         <f t="shared" si="1"/>
@@ -6915,7 +6660,7 @@
         <v/>
       </c>
       <c r="B39" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C39" s="9">
         <f>main!H46</f>
@@ -6926,7 +6671,7 @@
         <v/>
       </c>
       <c r="E39" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F39" s="9">
         <f>main!I46</f>
@@ -6937,7 +6682,7 @@
         <v/>
       </c>
       <c r="H39" s="8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I39" s="8">
         <f t="shared" si="1"/>
@@ -6950,7 +6695,7 @@
         <v/>
       </c>
       <c r="B40" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C40" s="9">
         <f>main!H47</f>
@@ -6961,7 +6706,7 @@
         <v/>
       </c>
       <c r="E40" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F40" s="9">
         <f>main!I47</f>
@@ -6972,7 +6717,7 @@
         <v/>
       </c>
       <c r="H40" s="8" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="I40" s="8">
         <f t="shared" si="1"/>
@@ -6985,7 +6730,7 @@
         <v/>
       </c>
       <c r="B41" s="8" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C41" s="9">
         <f>main!H48</f>
@@ -6996,7 +6741,7 @@
         <v/>
       </c>
       <c r="E41" s="8" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F41" s="9">
         <f>main!I48</f>
@@ -7007,7 +6752,7 @@
         <v/>
       </c>
       <c r="H41" s="8" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="I41" s="8">
         <f t="shared" si="1"/>
@@ -7020,7 +6765,7 @@
         <v/>
       </c>
       <c r="B42" s="8" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C42" s="9">
         <f>main!H49</f>
@@ -7031,7 +6776,7 @@
         <v/>
       </c>
       <c r="E42" s="8" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F42" s="9">
         <f>main!I49</f>
@@ -7042,7 +6787,7 @@
         <v/>
       </c>
       <c r="H42" s="8" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="I42" s="8">
         <f t="shared" si="1"/>
@@ -7055,7 +6800,7 @@
         <v/>
       </c>
       <c r="B43" s="8" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C43" s="9">
         <f>main!H50</f>
@@ -7066,7 +6811,7 @@
         <v/>
       </c>
       <c r="E43" s="8" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F43" s="9">
         <f>main!I50</f>
@@ -7077,7 +6822,7 @@
         <v/>
       </c>
       <c r="H43" s="8" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="I43" s="8">
         <f t="shared" si="1"/>
@@ -7090,7 +6835,7 @@
         <v/>
       </c>
       <c r="B44" s="8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C44" s="9">
         <f>main!H51</f>
@@ -7101,7 +6846,7 @@
         <v/>
       </c>
       <c r="E44" s="8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F44" s="9">
         <f>main!I51</f>
@@ -7112,7 +6857,7 @@
         <v/>
       </c>
       <c r="H44" s="8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="I44" s="8">
         <f t="shared" si="1"/>
@@ -7125,7 +6870,7 @@
         <v/>
       </c>
       <c r="B45" s="8" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C45" s="9">
         <f>main!H52</f>
@@ -7136,7 +6881,7 @@
         <v/>
       </c>
       <c r="E45" s="8" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F45" s="9">
         <f>main!I52</f>
@@ -7147,7 +6892,7 @@
         <v/>
       </c>
       <c r="H45" s="8" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I45" s="8">
         <f t="shared" si="1"/>
@@ -7160,7 +6905,7 @@
         <v/>
       </c>
       <c r="B46" s="8" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C46" s="9">
         <f>main!H53</f>
@@ -7171,7 +6916,7 @@
         <v/>
       </c>
       <c r="E46" s="8" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F46" s="9">
         <f>main!I53</f>
@@ -7182,7 +6927,7 @@
         <v/>
       </c>
       <c r="H46" s="8" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I46" s="8">
         <f t="shared" si="1"/>
@@ -7195,7 +6940,7 @@
         <v/>
       </c>
       <c r="B47" s="8" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C47" s="9">
         <f>main!H54</f>
@@ -7206,7 +6951,7 @@
         <v/>
       </c>
       <c r="E47" s="8" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F47" s="9">
         <f>main!I54</f>
@@ -7217,7 +6962,7 @@
         <v/>
       </c>
       <c r="H47" s="8" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="I47" s="8">
         <f t="shared" si="1"/>
@@ -7230,7 +6975,7 @@
         <v/>
       </c>
       <c r="B48" s="8" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C48" s="9">
         <f>main!H55</f>
@@ -7241,7 +6986,7 @@
         <v/>
       </c>
       <c r="E48" s="8" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F48" s="9">
         <f>main!I55</f>
@@ -7252,7 +6997,7 @@
         <v/>
       </c>
       <c r="H48" s="8" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I48" s="8">
         <f t="shared" si="1"/>
@@ -7265,7 +7010,7 @@
         <v/>
       </c>
       <c r="B49" s="8" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C49" s="9">
         <f>main!H56</f>
@@ -7276,7 +7021,7 @@
         <v/>
       </c>
       <c r="E49" s="8" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F49" s="9">
         <f>main!I56</f>
@@ -7287,7 +7032,7 @@
         <v/>
       </c>
       <c r="H49" s="8" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I49" s="8">
         <f t="shared" si="1"/>
@@ -7300,7 +7045,7 @@
         <v/>
       </c>
       <c r="B50" s="8" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C50" s="9">
         <f>main!H57</f>
@@ -7311,7 +7056,7 @@
         <v/>
       </c>
       <c r="E50" s="8" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F50" s="9">
         <f>main!I57</f>
@@ -7322,7 +7067,7 @@
         <v/>
       </c>
       <c r="H50" s="8" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="I50" s="8">
         <f t="shared" si="1"/>
@@ -7335,7 +7080,7 @@
         <v/>
       </c>
       <c r="B51" s="8" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C51" s="9">
         <f>main!H58</f>
@@ -7346,7 +7091,7 @@
         <v/>
       </c>
       <c r="E51" s="8" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F51" s="9">
         <f>main!I58</f>
@@ -7357,7 +7102,7 @@
         <v/>
       </c>
       <c r="H51" s="8" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I51" s="8">
         <f t="shared" si="1"/>
@@ -7370,7 +7115,7 @@
         <v/>
       </c>
       <c r="B52" s="8" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C52" s="9">
         <f>main!H59</f>
@@ -7381,7 +7126,7 @@
         <v/>
       </c>
       <c r="E52" s="8" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F52" s="9">
         <f>main!I59</f>
@@ -7392,7 +7137,7 @@
         <v/>
       </c>
       <c r="H52" s="8" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I52" s="8">
         <f t="shared" si="1"/>
@@ -7405,7 +7150,7 @@
         <v/>
       </c>
       <c r="B53" s="8" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C53" s="9">
         <f>main!H60</f>
@@ -7416,7 +7161,7 @@
         <v/>
       </c>
       <c r="E53" s="8" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F53" s="9">
         <f>main!I60</f>
@@ -7427,7 +7172,7 @@
         <v/>
       </c>
       <c r="H53" s="8" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="I53" s="8">
         <f t="shared" si="1"/>
@@ -7440,7 +7185,7 @@
         <v/>
       </c>
       <c r="B54" s="8" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C54" s="9">
         <f>main!H61</f>
@@ -7451,7 +7196,7 @@
         <v/>
       </c>
       <c r="E54" s="8" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F54" s="9">
         <f>main!I61</f>
@@ -7462,7 +7207,7 @@
         <v/>
       </c>
       <c r="H54" s="8" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="I54" s="8">
         <f t="shared" si="1"/>
@@ -7475,7 +7220,7 @@
         <v/>
       </c>
       <c r="B55" s="8" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C55" s="9">
         <f>main!H62</f>
@@ -7486,7 +7231,7 @@
         <v/>
       </c>
       <c r="E55" s="8" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F55" s="9">
         <f>main!I62</f>
@@ -7497,7 +7242,7 @@
         <v/>
       </c>
       <c r="H55" s="8" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="I55" s="8">
         <f t="shared" si="1"/>
@@ -7510,7 +7255,7 @@
         <v/>
       </c>
       <c r="B56" s="8" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C56" s="9">
         <f>main!H63</f>
@@ -7521,7 +7266,7 @@
         <v/>
       </c>
       <c r="E56" s="8" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F56" s="9">
         <f>main!I63</f>
@@ -7532,7 +7277,7 @@
         <v/>
       </c>
       <c r="H56" s="8" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="I56" s="8">
         <f t="shared" si="1"/>
@@ -7545,7 +7290,7 @@
         <v/>
       </c>
       <c r="B57" s="8" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C57" s="9">
         <f>main!H64</f>
@@ -7556,7 +7301,7 @@
         <v/>
       </c>
       <c r="E57" s="8" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F57" s="9">
         <f>main!I64</f>
@@ -7567,7 +7312,7 @@
         <v/>
       </c>
       <c r="H57" s="8" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="I57" s="8">
         <f t="shared" si="1"/>
@@ -7580,7 +7325,7 @@
         <v/>
       </c>
       <c r="B58" s="8" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C58" s="9">
         <f>main!H65</f>
@@ -7591,7 +7336,7 @@
         <v/>
       </c>
       <c r="E58" s="8" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F58" s="9">
         <f>main!I65</f>
@@ -7602,7 +7347,7 @@
         <v/>
       </c>
       <c r="H58" s="8" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="I58" s="8">
         <f t="shared" si="1"/>
@@ -7615,7 +7360,7 @@
         <v/>
       </c>
       <c r="B59" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C59" s="9">
         <f>main!H66</f>
@@ -7626,7 +7371,7 @@
         <v/>
       </c>
       <c r="E59" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F59" s="9">
         <f>main!I66</f>
@@ -7637,7 +7382,7 @@
         <v/>
       </c>
       <c r="H59" s="8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I59" s="8">
         <f t="shared" si="1"/>
@@ -7650,7 +7395,7 @@
         <v/>
       </c>
       <c r="B60" s="8" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C60" s="9">
         <f>main!H67</f>
@@ -7661,7 +7406,7 @@
         <v/>
       </c>
       <c r="E60" s="8" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F60" s="9">
         <f>main!I67</f>
@@ -7672,7 +7417,7 @@
         <v/>
       </c>
       <c r="H60" s="8" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="I60" s="8">
         <f t="shared" si="1"/>
@@ -7685,7 +7430,7 @@
         <v/>
       </c>
       <c r="B61" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C61" s="9">
         <f>main!H68</f>
@@ -7696,7 +7441,7 @@
         <v/>
       </c>
       <c r="E61" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F61" s="9">
         <f>main!I68</f>
@@ -7707,7 +7452,7 @@
         <v/>
       </c>
       <c r="H61" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="I61" s="8">
         <f t="shared" si="1"/>
@@ -7720,7 +7465,7 @@
         <v/>
       </c>
       <c r="B62" s="8" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C62" s="9">
         <f>main!H69</f>
@@ -7731,7 +7476,7 @@
         <v/>
       </c>
       <c r="E62" s="8" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F62" s="9">
         <f>main!I69</f>
@@ -7742,7 +7487,7 @@
         <v/>
       </c>
       <c r="H62" s="8" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="I62" s="8">
         <f t="shared" si="1"/>
@@ -7755,7 +7500,7 @@
         <v/>
       </c>
       <c r="B63" s="8" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C63" s="9">
         <f>main!H70</f>
@@ -7766,7 +7511,7 @@
         <v/>
       </c>
       <c r="E63" s="8" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F63" s="9">
         <f>main!I70</f>
@@ -7777,7 +7522,7 @@
         <v/>
       </c>
       <c r="H63" s="8" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="I63" s="8">
         <f t="shared" si="1"/>
@@ -7790,7 +7535,7 @@
         <v/>
       </c>
       <c r="B64" s="8" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C64" s="9">
         <f>main!H71</f>
@@ -7801,7 +7546,7 @@
         <v/>
       </c>
       <c r="E64" s="8" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F64" s="9">
         <f>main!I71</f>
@@ -7812,7 +7557,7 @@
         <v/>
       </c>
       <c r="H64" s="8" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="I64" s="8">
         <f t="shared" si="1"/>
@@ -7825,7 +7570,7 @@
         <v/>
       </c>
       <c r="B65" s="8" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C65" s="9">
         <f>main!H72</f>
@@ -7836,7 +7581,7 @@
         <v/>
       </c>
       <c r="E65" s="8" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F65" s="9">
         <f>main!I72</f>
@@ -7847,7 +7592,7 @@
         <v/>
       </c>
       <c r="H65" s="8" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="I65" s="8">
         <f t="shared" si="1"/>
@@ -7860,7 +7605,7 @@
         <v/>
       </c>
       <c r="B66" s="8" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C66" s="9">
         <f>main!H73</f>
@@ -7871,7 +7616,7 @@
         <v/>
       </c>
       <c r="E66" s="8" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F66" s="9">
         <f>main!I73</f>
@@ -7882,7 +7627,7 @@
         <v/>
       </c>
       <c r="H66" s="8" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="I66" s="8">
         <f t="shared" si="1"/>
@@ -7895,7 +7640,7 @@
         <v/>
       </c>
       <c r="B67" s="8" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C67" s="9">
         <f>main!H74</f>
@@ -7906,7 +7651,7 @@
         <v/>
       </c>
       <c r="E67" s="8" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F67" s="9">
         <f>main!I74</f>
@@ -7917,7 +7662,7 @@
         <v/>
       </c>
       <c r="H67" s="8" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="I67" s="8">
         <f t="shared" ref="I67:I97" si="3">IF(C67=0,0,0.5)</f>
@@ -7930,7 +7675,7 @@
         <v/>
       </c>
       <c r="B68" s="8" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C68" s="9">
         <f>main!H75</f>
@@ -7941,7 +7686,7 @@
         <v/>
       </c>
       <c r="E68" s="8" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F68" s="9">
         <f>main!I75</f>
@@ -7952,7 +7697,7 @@
         <v/>
       </c>
       <c r="H68" s="8" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="I68" s="8">
         <f t="shared" si="3"/>
@@ -7965,7 +7710,7 @@
         <v/>
       </c>
       <c r="B69" s="8" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C69" s="9">
         <f>main!H76</f>
@@ -7976,7 +7721,7 @@
         <v/>
       </c>
       <c r="E69" s="8" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F69" s="9">
         <f>main!I76</f>
@@ -7987,7 +7732,7 @@
         <v/>
       </c>
       <c r="H69" s="8" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="I69" s="8">
         <f t="shared" si="3"/>
@@ -8000,7 +7745,7 @@
         <v/>
       </c>
       <c r="B70" s="8" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C70" s="9">
         <f>main!H77</f>
@@ -8011,7 +7756,7 @@
         <v/>
       </c>
       <c r="E70" s="8" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F70" s="9">
         <f>main!I77</f>
@@ -8022,7 +7767,7 @@
         <v/>
       </c>
       <c r="H70" s="8" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="I70" s="8">
         <f t="shared" si="3"/>
@@ -8035,7 +7780,7 @@
         <v/>
       </c>
       <c r="B71" s="8" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C71" s="9">
         <f>main!H78</f>
@@ -8046,7 +7791,7 @@
         <v/>
       </c>
       <c r="E71" s="8" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F71" s="9">
         <f>main!I78</f>
@@ -8057,7 +7802,7 @@
         <v/>
       </c>
       <c r="H71" s="8" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="I71" s="8">
         <f t="shared" si="3"/>
@@ -8070,7 +7815,7 @@
         <v/>
       </c>
       <c r="B72" s="8" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C72" s="9">
         <f>main!H79</f>
@@ -8081,7 +7826,7 @@
         <v/>
       </c>
       <c r="E72" s="8" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F72" s="9">
         <f>main!I79</f>
@@ -8092,7 +7837,7 @@
         <v/>
       </c>
       <c r="H72" s="8" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="I72" s="8">
         <f t="shared" si="3"/>
@@ -8105,7 +7850,7 @@
         <v/>
       </c>
       <c r="B73" s="8" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C73" s="9">
         <f>main!H80</f>
@@ -8116,7 +7861,7 @@
         <v/>
       </c>
       <c r="E73" s="8" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F73" s="9">
         <f>main!I80</f>
@@ -8127,7 +7872,7 @@
         <v/>
       </c>
       <c r="H73" s="8" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="I73" s="8">
         <f t="shared" si="3"/>
@@ -8140,7 +7885,7 @@
         <v/>
       </c>
       <c r="B74" s="8" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C74" s="9">
         <f>main!H81</f>
@@ -8151,7 +7896,7 @@
         <v/>
       </c>
       <c r="E74" s="8" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F74" s="9">
         <f>main!I81</f>
@@ -8162,7 +7907,7 @@
         <v/>
       </c>
       <c r="H74" s="8" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I74" s="8">
         <f t="shared" si="3"/>
@@ -8175,7 +7920,7 @@
         <v/>
       </c>
       <c r="B75" s="8" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C75" s="9">
         <f>main!H82</f>
@@ -8186,7 +7931,7 @@
         <v/>
       </c>
       <c r="E75" s="8" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F75" s="9">
         <f>main!I82</f>
@@ -8197,7 +7942,7 @@
         <v/>
       </c>
       <c r="H75" s="8" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="I75" s="8">
         <f t="shared" si="3"/>
@@ -8210,7 +7955,7 @@
         <v/>
       </c>
       <c r="B76" s="8" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C76" s="9">
         <f>main!H83</f>
@@ -8221,7 +7966,7 @@
         <v/>
       </c>
       <c r="E76" s="8" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F76" s="9">
         <f>main!I83</f>
@@ -8232,7 +7977,7 @@
         <v/>
       </c>
       <c r="H76" s="8" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="I76" s="8">
         <f t="shared" si="3"/>
@@ -8245,7 +7990,7 @@
         <v/>
       </c>
       <c r="B77" s="8" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C77" s="9">
         <f>main!H84</f>
@@ -8256,7 +8001,7 @@
         <v/>
       </c>
       <c r="E77" s="8" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F77" s="9">
         <f>main!I84</f>
@@ -8267,7 +8012,7 @@
         <v/>
       </c>
       <c r="H77" s="8" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I77" s="8">
         <f t="shared" si="3"/>
@@ -8280,7 +8025,7 @@
         <v/>
       </c>
       <c r="B78" s="8" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C78" s="9">
         <f>main!H85</f>
@@ -8291,7 +8036,7 @@
         <v/>
       </c>
       <c r="E78" s="8" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F78" s="9">
         <f>main!I85</f>
@@ -8302,7 +8047,7 @@
         <v/>
       </c>
       <c r="H78" s="8" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="I78" s="8">
         <f t="shared" si="3"/>
@@ -8315,7 +8060,7 @@
         <v/>
       </c>
       <c r="B79" s="8" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C79" s="9">
         <f>main!H86</f>
@@ -8326,7 +8071,7 @@
         <v/>
       </c>
       <c r="E79" s="8" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F79" s="9">
         <f>main!I86</f>
@@ -8337,7 +8082,7 @@
         <v/>
       </c>
       <c r="H79" s="8" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="I79" s="8">
         <f t="shared" si="3"/>
@@ -8350,7 +8095,7 @@
         <v/>
       </c>
       <c r="B80" s="8" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C80" s="9">
         <f>main!H87</f>
@@ -8361,7 +8106,7 @@
         <v/>
       </c>
       <c r="E80" s="8" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F80" s="9">
         <f>main!I87</f>
@@ -8372,7 +8117,7 @@
         <v/>
       </c>
       <c r="H80" s="8" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I80" s="8">
         <f t="shared" si="3"/>
@@ -8385,7 +8130,7 @@
         <v/>
       </c>
       <c r="B81" s="8" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C81" s="9">
         <f>main!H88</f>
@@ -8396,7 +8141,7 @@
         <v/>
       </c>
       <c r="E81" s="8" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F81" s="9">
         <f>main!I88</f>
@@ -8407,7 +8152,7 @@
         <v/>
       </c>
       <c r="H81" s="8" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="I81" s="8">
         <f t="shared" si="3"/>
@@ -8420,7 +8165,7 @@
         <v/>
       </c>
       <c r="B82" s="8" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C82" s="9">
         <f>main!H89</f>
@@ -8431,7 +8176,7 @@
         <v/>
       </c>
       <c r="E82" s="8" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F82" s="9">
         <f>main!I89</f>
@@ -8442,7 +8187,7 @@
         <v/>
       </c>
       <c r="H82" s="8" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="I82" s="8">
         <f t="shared" si="3"/>
@@ -8455,7 +8200,7 @@
         <v/>
       </c>
       <c r="B83" s="8" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C83" s="9">
         <f>main!H90</f>
@@ -8466,7 +8211,7 @@
         <v/>
       </c>
       <c r="E83" s="8" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F83" s="9">
         <f>main!I90</f>
@@ -8477,7 +8222,7 @@
         <v/>
       </c>
       <c r="H83" s="8" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="I83" s="8">
         <f t="shared" si="3"/>
@@ -8490,7 +8235,7 @@
         <v/>
       </c>
       <c r="B84" s="8" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C84" s="9">
         <f>main!H91</f>
@@ -8501,7 +8246,7 @@
         <v/>
       </c>
       <c r="E84" s="8" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F84" s="9">
         <f>main!I91</f>
@@ -8512,7 +8257,7 @@
         <v/>
       </c>
       <c r="H84" s="8" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="I84" s="8">
         <f t="shared" si="3"/>
@@ -8525,7 +8270,7 @@
         <v/>
       </c>
       <c r="B85" s="8" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C85" s="9">
         <f>main!H92</f>
@@ -8536,7 +8281,7 @@
         <v/>
       </c>
       <c r="E85" s="8" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F85" s="9">
         <f>main!I92</f>
@@ -8547,7 +8292,7 @@
         <v/>
       </c>
       <c r="H85" s="8" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="I85" s="8">
         <f t="shared" si="3"/>
@@ -8560,7 +8305,7 @@
         <v/>
       </c>
       <c r="B86" s="8" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C86" s="9">
         <f>main!H93</f>
@@ -8571,7 +8316,7 @@
         <v/>
       </c>
       <c r="E86" s="8" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F86" s="9">
         <f>main!I93</f>
@@ -8582,7 +8327,7 @@
         <v/>
       </c>
       <c r="H86" s="8" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="I86" s="8">
         <f t="shared" si="3"/>
@@ -8595,7 +8340,7 @@
         <v/>
       </c>
       <c r="B87" s="8" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C87" s="9">
         <f>main!H94</f>
@@ -8606,7 +8351,7 @@
         <v/>
       </c>
       <c r="E87" s="8" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F87" s="9">
         <f>main!I94</f>
@@ -8617,7 +8362,7 @@
         <v/>
       </c>
       <c r="H87" s="8" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I87" s="8">
         <f t="shared" si="3"/>
@@ -8630,7 +8375,7 @@
         <v/>
       </c>
       <c r="B88" s="8" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C88" s="9">
         <f>main!H95</f>
@@ -8641,7 +8386,7 @@
         <v/>
       </c>
       <c r="E88" s="8" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F88" s="9">
         <f>main!I95</f>
@@ -8652,7 +8397,7 @@
         <v/>
       </c>
       <c r="H88" s="8" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="I88" s="8">
         <f t="shared" si="3"/>
@@ -8665,7 +8410,7 @@
         <v/>
       </c>
       <c r="B89" s="8" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C89" s="9">
         <f>main!H96</f>
@@ -8676,7 +8421,7 @@
         <v/>
       </c>
       <c r="E89" s="8" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F89" s="9">
         <f>main!I96</f>
@@ -8687,7 +8432,7 @@
         <v/>
       </c>
       <c r="H89" s="8" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I89" s="8">
         <f t="shared" si="3"/>
@@ -8700,7 +8445,7 @@
         <v/>
       </c>
       <c r="B90" s="8" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C90" s="9">
         <f>main!H97</f>
@@ -8711,7 +8456,7 @@
         <v/>
       </c>
       <c r="E90" s="8" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F90" s="9">
         <f>main!I97</f>
@@ -8722,7 +8467,7 @@
         <v/>
       </c>
       <c r="H90" s="8" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="I90" s="8">
         <f t="shared" si="3"/>
@@ -8735,7 +8480,7 @@
         <v/>
       </c>
       <c r="B91" s="8" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C91" s="9">
         <f>main!H98</f>
@@ -8746,7 +8491,7 @@
         <v/>
       </c>
       <c r="E91" s="8" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F91" s="9">
         <f>main!I98</f>
@@ -8757,7 +8502,7 @@
         <v/>
       </c>
       <c r="H91" s="8" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="I91" s="8">
         <f t="shared" si="3"/>
@@ -8770,7 +8515,7 @@
         <v/>
       </c>
       <c r="B92" s="8" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C92" s="9">
         <f>main!H99</f>
@@ -8781,7 +8526,7 @@
         <v/>
       </c>
       <c r="E92" s="8" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F92" s="9">
         <f>main!I99</f>
@@ -8792,7 +8537,7 @@
         <v/>
       </c>
       <c r="H92" s="8" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I92" s="8">
         <f t="shared" si="3"/>
@@ -8805,7 +8550,7 @@
         <v/>
       </c>
       <c r="B93" s="8" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C93" s="9">
         <f>main!H100</f>
@@ -8816,7 +8561,7 @@
         <v/>
       </c>
       <c r="E93" s="8" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F93" s="9">
         <f>main!I100</f>
@@ -8827,7 +8572,7 @@
         <v/>
       </c>
       <c r="H93" s="8" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I93" s="8">
         <f t="shared" si="3"/>
@@ -8840,7 +8585,7 @@
         <v/>
       </c>
       <c r="B94" s="8" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C94" s="9">
         <f>main!H101</f>
@@ -8851,7 +8596,7 @@
         <v/>
       </c>
       <c r="E94" s="8" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F94" s="9">
         <f>main!I101</f>
@@ -8862,7 +8607,7 @@
         <v/>
       </c>
       <c r="H94" s="8" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="I94" s="8">
         <f t="shared" si="3"/>
@@ -8875,7 +8620,7 @@
         <v/>
       </c>
       <c r="B95" s="8" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C95" s="9">
         <f>main!H102</f>
@@ -8886,7 +8631,7 @@
         <v/>
       </c>
       <c r="E95" s="8" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F95" s="9">
         <f>main!I102</f>
@@ -8897,7 +8642,7 @@
         <v/>
       </c>
       <c r="H95" s="8" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I95" s="8">
         <f t="shared" si="3"/>
@@ -8910,7 +8655,7 @@
         <v/>
       </c>
       <c r="B96" s="8" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C96" s="9">
         <f>main!H103</f>
@@ -8921,7 +8666,7 @@
         <v/>
       </c>
       <c r="E96" s="8" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F96" s="9">
         <f>main!I103</f>
@@ -8932,7 +8677,7 @@
         <v/>
       </c>
       <c r="H96" s="8" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="I96" s="8">
         <f t="shared" si="3"/>
@@ -8945,7 +8690,7 @@
         <v/>
       </c>
       <c r="B97" s="8" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C97" s="9">
         <f>main!H104</f>
@@ -8956,7 +8701,7 @@
         <v/>
       </c>
       <c r="E97" s="8" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F97" s="9">
         <f>main!I104</f>
@@ -8967,7 +8712,7 @@
         <v/>
       </c>
       <c r="H97" s="8" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="I97" s="8">
         <f t="shared" si="3"/>

--- a/templates/02-ont-plasmid.xlsx
+++ b/templates/02-ont-plasmid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angeloas/code/opentrons/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D0816D-A40E-FE4C-801E-CC2D3F6C9742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45078B7E-964F-ED41-8852-7CBD12582762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="1360" windowWidth="27920" windowHeight="15940" xr2:uid="{0E74BB9A-F8B8-AA47-B7C7-EA2C2417D685}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="335">
   <si>
     <t>Plasmid sequencing ONT at BCL - Opentrons template</t>
   </si>
@@ -1061,6 +1061,9 @@
   </si>
   <si>
     <t>final pool volume</t>
+  </si>
+  <si>
+    <t>sample 2</t>
   </si>
 </sst>
 </file>
@@ -1608,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842AFD07-9B34-384A-83A8-BAD898DE59C4}">
   <dimension ref="B1:R105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1743,25 +1746,39 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9">
+        <v>5000</v>
+      </c>
+      <c r="F9">
+        <v>40</v>
+      </c>
       <c r="G9" s="2">
         <f t="shared" ref="G9:G23" si="0">F9/((E9*617.96)+36.04) * 1000000</f>
-        <v>0</v>
+        <v>12.945670735331316</v>
       </c>
       <c r="H9" s="2" cm="1">
         <f t="array" ref="H9">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>0</v>
+        <v>1.5449180199999999</v>
       </c>
       <c r="I9" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
-        <v>0</v>
+        <v>2.9550819800000001</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>113</v>
       </c>
       <c r="K9" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
-        <v/>
+        <v>A02</v>
       </c>
       <c r="M9" t="s">
         <v>328</v>
@@ -1771,25 +1788,39 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E10">
+        <v>2000</v>
+      </c>
+      <c r="F10">
+        <v>45</v>
+      </c>
       <c r="G10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36.409061927477616</v>
       </c>
       <c r="H10" s="2" cm="1">
         <f t="array" ref="H10">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>0</v>
+        <v>0.54931379555555548</v>
       </c>
       <c r="I10" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
-        <v>0</v>
+        <v>3.9506862044444446</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>114</v>
       </c>
       <c r="K10" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
-        <v/>
+        <v>E01</v>
       </c>
       <c r="M10" t="s">
         <v>327</v>
@@ -2117,39 +2148,25 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>218</v>
-      </c>
-      <c r="E25">
-        <v>5000</v>
-      </c>
-      <c r="F25">
-        <v>40</v>
-      </c>
+      <c r="B25" s="2"/>
       <c r="G25" s="2">
         <f t="shared" ref="G25:G38" si="2">F25/((E25*617.96)+36.04) * 1000000</f>
-        <v>12.945670735331316</v>
+        <v>0</v>
       </c>
       <c r="H25" s="2" cm="1">
         <f t="array" ref="H25">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>1.5449180199999999</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
-        <v>2.9550819800000001</v>
+        <v>0</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>129</v>
       </c>
       <c r="K25" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
-        <v>A02</v>
+        <v/>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
@@ -5362,71 +5379,71 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="str">
         <f>TEXT(main!B9, "")</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>113</v>
       </c>
       <c r="C2" s="9">
         <f>main!H9</f>
-        <v>0</v>
+        <v>1.5449180199999999</v>
       </c>
       <c r="D2" s="8" t="str">
         <f>IF(C2=0, "", "A01")</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>113</v>
       </c>
       <c r="F2" s="9">
         <f>main!I9</f>
-        <v>0</v>
+        <v>2.9550819800000001</v>
       </c>
       <c r="G2" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D9,Table2[name],Table2[well],"")</f>
-        <v/>
+        <v>A02</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>113</v>
       </c>
       <c r="I2" s="8">
         <f>IF(C2=0,0,0.5)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="str">
         <f>TEXT(main!B10, "")</f>
-        <v/>
+        <v>B01</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>114</v>
       </c>
       <c r="C3" s="9">
         <f>main!H10</f>
-        <v>0</v>
+        <v>0.54931379555555548</v>
       </c>
       <c r="D3" s="8" t="str">
         <f t="shared" ref="D3:D66" si="0">IF(C3=0, "", "A01")</f>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>114</v>
       </c>
       <c r="F3" s="9">
         <f>main!I10</f>
-        <v>0</v>
+        <v>3.9506862044444446</v>
       </c>
       <c r="G3" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D10,Table2[name],Table2[well],"")</f>
-        <v/>
+        <v>E01</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>114</v>
       </c>
       <c r="I3" s="8">
         <f t="shared" ref="I3:I66" si="1">IF(C3=0,0,0.5)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -5922,36 +5939,36 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="str">
         <f>TEXT(main!B25, "")</f>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="B18" s="8" t="s">
         <v>129</v>
       </c>
       <c r="C18" s="9">
         <f>main!H25</f>
-        <v>1.5449180199999999</v>
+        <v>0</v>
       </c>
       <c r="D18" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>A01</v>
+        <v/>
       </c>
       <c r="E18" s="8" t="s">
         <v>129</v>
       </c>
       <c r="F18" s="9">
         <f>main!I25</f>
-        <v>2.9550819800000001</v>
+        <v>0</v>
       </c>
       <c r="G18" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D25,Table2[name],Table2[well],"")</f>
-        <v>A02</v>
+        <v/>
       </c>
       <c r="H18" s="8" t="s">
         <v>129</v>
       </c>
       <c r="I18" s="8">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">

--- a/templates/02-ont-plasmid.xlsx
+++ b/templates/02-ont-plasmid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angeloas/code/opentrons/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45078B7E-964F-ED41-8852-7CBD12582762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2D2803-C77D-CC4E-BC3A-74FB73880BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="1360" windowWidth="27920" windowHeight="15940" xr2:uid="{0E74BB9A-F8B8-AA47-B7C7-EA2C2417D685}"/>
   </bookViews>
@@ -1609,10 +1609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842AFD07-9B34-384A-83A8-BAD898DE59C4}">
-  <dimension ref="B1:R105"/>
+  <dimension ref="B1:Q105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1632,17 +1632,17 @@
     <col min="16" max="16" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>319</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="M7" t="s">
         <v>323</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>306</v>
       </c>
@@ -1738,14 +1738,14 @@
       <c r="N8" s="12" t="s">
         <v>325</v>
       </c>
+      <c r="P8" t="s">
+        <v>313</v>
+      </c>
       <c r="Q8" t="s">
-        <v>313</v>
-      </c>
-      <c r="R8" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>113</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>114</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="G11" s="2">
         <f t="shared" si="0"/>
@@ -1851,7 +1851,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
@@ -1879,7 +1879,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="G13" s="2">
         <f t="shared" si="0"/>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="N13" s="11"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="G14" s="2">
         <f t="shared" si="0"/>
@@ -1927,7 +1927,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="G15" s="2">
         <f t="shared" si="0"/>
@@ -1949,7 +1949,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="G16" s="2">
         <f t="shared" si="0"/>

--- a/templates/02-ont-plasmid.xlsx
+++ b/templates/02-ont-plasmid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angeloas/code/opentrons/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2D2803-C77D-CC4E-BC3A-74FB73880BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EA3D23-D7FD-BB49-9D2B-93C14CA069EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="1360" windowWidth="27920" windowHeight="15940" xr2:uid="{0E74BB9A-F8B8-AA47-B7C7-EA2C2417D685}"/>
+    <workbookView xWindow="1540" yWindow="1140" windowWidth="28060" windowHeight="16560" xr2:uid="{0E74BB9A-F8B8-AA47-B7C7-EA2C2417D685}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -59,10 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="335">
-  <si>
-    <t>Plasmid sequencing ONT at BCL - Opentrons template</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="339">
   <si>
     <t>The incubations are done off instrument</t>
   </si>
@@ -82,27 +79,15 @@
     <t>sample 1</t>
   </si>
   <si>
-    <t>ul water to 4.5</t>
-  </si>
-  <si>
     <t>Constants used for calculations:</t>
   </si>
   <si>
     <t>fmoles per rxn</t>
   </si>
   <si>
-    <t>min pipetting vol</t>
-  </si>
-  <si>
     <t>ng/ul</t>
   </si>
   <si>
-    <t>fmol/ul</t>
-  </si>
-  <si>
-    <t>SQK-RBK110.96</t>
-  </si>
-  <si>
     <t>SQK-RBK110.96 rapid barcode plate</t>
   </si>
   <si>
@@ -1018,9 +1003,6 @@
     <t>rapid barcode plate</t>
   </si>
   <si>
-    <t>This template is used to prepare the data for protocols/ont-plasmid.py</t>
-  </si>
-  <si>
     <t>Deck layout for protocols/02-ont-plasmid.py:</t>
   </si>
   <si>
@@ -1064,6 +1046,36 @@
   </si>
   <si>
     <t>sample 2</t>
+  </si>
+  <si>
+    <t>Plasmid sequencing rapid ONT at BCL - Opentrons template</t>
+  </si>
+  <si>
+    <t>This template is used to prepare the data for protocols/ont-rapid.py</t>
+  </si>
+  <si>
+    <t>Use 20 fmoles/sample</t>
+  </si>
+  <si>
+    <t>min/max pipetting vol</t>
+  </si>
+  <si>
+    <t>number of samples</t>
+  </si>
+  <si>
+    <t>total fmoles</t>
+  </si>
+  <si>
+    <t>ul water to 5</t>
+  </si>
+  <si>
+    <t>fmoles/ul</t>
+  </si>
+  <si>
+    <t>0.5/5</t>
+  </si>
+  <si>
+    <t>SQK-RBK114.96</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1187,11 +1199,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1211,23 +1232,68 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="16">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -1237,6 +1303,10 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -1274,25 +1344,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59494247-6707-4A4B-A68E-97E8FDDD4AF4}" name="Table1" displayName="Table1" ref="B8:K104" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59494247-6707-4A4B-A68E-97E8FDDD4AF4}" name="Table1" displayName="Table1" ref="B8:K104" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="B8:K104" xr:uid="{59494247-6707-4A4B-A68E-97E8FDDD4AF4}"/>
   <tableColumns count="10">
-    <tableColumn id="8" xr3:uid="{FA78698F-F611-D543-B141-D777144BECEE}" name="source well" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{FA78698F-F611-D543-B141-D777144BECEE}" name="source well" dataDxfId="14"/>
     <tableColumn id="1" xr3:uid="{91DE4E1A-6DA9-5D41-9DB5-21149FC9505F}" name="sample name"/>
     <tableColumn id="7" xr3:uid="{E7F73DE6-44A2-FD49-95BC-9E263FB79FB0}" name="barcode"/>
     <tableColumn id="2" xr3:uid="{D3E7E880-2BC6-B94A-AFA4-408237577810}" name="plasmid size"/>
     <tableColumn id="3" xr3:uid="{AF07D2D6-012E-8643-901A-5055CCEAF026}" name="ng/ul"/>
-    <tableColumn id="4" xr3:uid="{80D148B5-CECA-CA44-B1DD-F9E1A8DAA6A0}" name="fmol/ul" dataDxfId="4">
-      <calculatedColumnFormula>F9/((E9*617.96)+36.04) * 1000000</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{80D148B5-CECA-CA44-B1DD-F9E1A8DAA6A0}" name="fmoles/ul" dataDxfId="0">
+      <calculatedColumnFormula array="1">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F9/((E9*617.96)+36.04) * 1000000)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{6A4DD60B-B1AB-FF44-9E4F-4697D7C0CC9E}" name="ul plasmid" dataDxfId="3">
-      <calculatedColumnFormula array="1">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{6A4DD60B-B1AB-FF44-9E4F-4697D7C0CC9E}" name="ul plasmid" dataDxfId="11">
+      <calculatedColumnFormula array="1">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{53D08A06-9EBD-1143-A0BC-3E9BC0C89175}" name="ul water to 4.5" dataDxfId="2">
-      <calculatedColumnFormula>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{53D08A06-9EBD-1143-A0BC-3E9BC0C89175}" name="ul water to 5" dataDxfId="10">
+      <calculatedColumnFormula>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0EE7AD1A-A1CC-364C-B346-C43B6AB6BFEF}" name="dest well" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{DDAE90F6-C57C-A64E-B7AF-286C3EB0FE38}" name="barcode well" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{0EE7AD1A-A1CC-364C-B346-C43B6AB6BFEF}" name="dest well" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{DDAE90F6-C57C-A64E-B7AF-286C3EB0FE38}" name="barcode well" dataDxfId="12">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1313,7 +1383,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1601,7 +1671,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1611,8 +1681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842AFD07-9B34-384A-83A8-BAD898DE59C4}">
   <dimension ref="B1:Q105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1623,42 +1693,49 @@
     <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="16.1640625" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" customWidth="1"/>
     <col min="15" max="15" width="12.5" customWidth="1"/>
     <col min="16" max="16" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>13</v>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="I3" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>319</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="13"/>
       <c r="M4" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J5">
         <v>20</v>
@@ -1666,94 +1743,94 @@
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6">
-        <v>0.5</v>
+        <v>332</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>337</v>
       </c>
       <c r="M6" t="s">
-        <v>321</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>322</v>
+        <v>315</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>316</v>
       </c>
       <c r="P6" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="Q6" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="M7" t="s">
-        <v>323</v>
-      </c>
-      <c r="N7" s="12">
+        <v>317</v>
+      </c>
+      <c r="N7" s="11">
         <v>4</v>
       </c>
       <c r="P7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="Q7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>5</v>
-      </c>
       <c r="I8" s="10" t="s">
-        <v>7</v>
+        <v>335</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="M8" t="s">
-        <v>317</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>325</v>
+        <v>312</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>319</v>
       </c>
       <c r="P8" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q8" t="s">
         <v>313</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E9">
         <v>5000</v>
@@ -1761,210 +1838,232 @@
       <c r="F9">
         <v>40</v>
       </c>
-      <c r="G9" s="2">
-        <f t="shared" ref="G9:G23" si="0">F9/((E9*617.96)+36.04) * 1000000</f>
+      <c r="G9" s="2" cm="1">
+        <f t="array" ref="G9">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F9/((E9*617.96)+36.04) * 1000000)</f>
         <v>12.945670735331316</v>
       </c>
       <c r="H9" s="2" cm="1">
-        <f t="array" ref="H9">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H9">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>1.5449180199999999</v>
       </c>
       <c r="I9" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
-        <v>2.9550819800000001</v>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
+        <v>3.4550819800000001</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K9" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v>A02</v>
       </c>
       <c r="M9" t="s">
-        <v>328</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D10" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E10">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F10">
-        <v>45</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="0"/>
-        <v>36.409061927477616</v>
+        <v>33</v>
+      </c>
+      <c r="G10" s="2" cm="1">
+        <f t="array" ref="G10">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F10/((E10*617.96)+36.04) * 1000000)</f>
+        <v>53.398400416934706</v>
       </c>
       <c r="H10" s="2" cm="1">
-        <f t="array" ref="H10">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>0.54931379555555548</v>
+        <f t="array" ref="H10">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
+        <v>0.5</v>
       </c>
       <c r="I10" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
-        <v>3.9506862044444446</v>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
+        <v>4.5</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K10" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v>E01</v>
       </c>
       <c r="M10" t="s">
-        <v>327</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>326</v>
+        <v>321</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="G11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E11">
+        <v>20000</v>
+      </c>
+      <c r="F11">
+        <v>33</v>
+      </c>
+      <c r="G11" s="2" cm="1">
+        <f t="array" ref="G11">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F11/((E11*617.96)+36.04) * 1000000)</f>
+        <v>2.6700679470152755</v>
       </c>
       <c r="H11" s="2" cm="1">
-        <f t="array" ref="H11">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
-        <v>0</v>
+        <f t="array" ref="H11">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
+        <v>5</v>
       </c>
       <c r="I11" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K11" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
-        <v/>
+        <v>F01</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
-      <c r="G12" s="2">
-        <f t="shared" si="0"/>
+      <c r="G12" s="2" cm="1">
+        <f t="array" ref="G12">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F12/((E12*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H12" s="2" cm="1">
-        <f t="array" ref="H12">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H12">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I12" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K12" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-      <c r="M12" t="s">
-        <v>331</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>332</v>
+      <c r="M12" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
-      <c r="G13" s="2">
-        <f t="shared" si="0"/>
+      <c r="G13" s="2" cm="1">
+        <f t="array" ref="G13">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F13/((E13*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H13" s="2" cm="1">
-        <f t="array" ref="H13">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H13">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I13" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K13" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="N13" s="11"/>
+      <c r="N13">
+        <f>COUNTA(Table1[source well])</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
-      <c r="G14" s="2">
-        <f t="shared" si="0"/>
+      <c r="G14" s="2" cm="1">
+        <f t="array" ref="G14">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F14/((E14*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H14" s="2" cm="1">
-        <f t="array" ref="H14">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H14">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I14" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="K14" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
+      <c r="M14" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="N14" s="15"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
-      <c r="G15" s="2">
-        <f t="shared" si="0"/>
+      <c r="G15" s="2" cm="1">
+        <f t="array" ref="G15">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F15/((E15*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H15" s="2" cm="1">
-        <f t="array" ref="H15">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H15">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I15" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K15" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
+      <c r="M15" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="N15" s="16"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
-      <c r="G16" s="2">
-        <f t="shared" si="0"/>
+      <c r="G16" s="2" cm="1">
+        <f t="array" ref="G16">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F16/((E16*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H16" s="2" cm="1">
-        <f t="array" ref="H16">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H16">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I16" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K16" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -1973,20 +2072,20 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
-      <c r="G17" s="2">
-        <f t="shared" si="0"/>
+      <c r="G17" s="2" cm="1">
+        <f t="array" ref="G17">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F17/((E17*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H17" s="2" cm="1">
-        <f t="array" ref="H17">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H17">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I17" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K17" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -1995,20 +2094,20 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
-      <c r="G18" s="2">
-        <f t="shared" si="0"/>
+      <c r="G18" s="2" cm="1">
+        <f t="array" ref="G18">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F18/((E18*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H18" s="2" cm="1">
-        <f t="array" ref="H18">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H18">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I18" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="K18" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2017,20 +2116,20 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
-      <c r="G19" s="2">
-        <f t="shared" si="0"/>
+      <c r="G19" s="2" cm="1">
+        <f t="array" ref="G19">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F19/((E19*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H19" s="2" cm="1">
-        <f t="array" ref="H19">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H19">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I19" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="K19" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2039,20 +2138,20 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
-      <c r="G20" s="2">
-        <f t="shared" si="0"/>
+      <c r="G20" s="2" cm="1">
+        <f t="array" ref="G20">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F20/((E20*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H20" s="2" cm="1">
-        <f t="array" ref="H20">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H20">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I20" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="K20" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2061,20 +2160,20 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
-      <c r="G21" s="2">
-        <f t="shared" si="0"/>
+      <c r="G21" s="2" cm="1">
+        <f t="array" ref="G21">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F21/((E21*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H21" s="2" cm="1">
-        <f t="array" ref="H21">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H21">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I21" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K21" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2083,20 +2182,20 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
-      <c r="G22" s="2">
-        <f t="shared" si="0"/>
+      <c r="G22" s="2" cm="1">
+        <f t="array" ref="G22">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F22/((E22*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H22" s="2" cm="1">
-        <f t="array" ref="H22">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H22">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I22" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K22" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2105,20 +2204,20 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
-      <c r="G23" s="2">
-        <f t="shared" si="0"/>
+      <c r="G23" s="2" cm="1">
+        <f t="array" ref="G23">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F23/((E23*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H23" s="2" cm="1">
-        <f t="array" ref="H23">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H23">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I23" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="K23" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2127,20 +2226,20 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
-      <c r="G24" s="2">
-        <f t="shared" ref="G24" si="1">F24/((E24*617.96)+36.04) * 1000000</f>
+      <c r="G24" s="2" cm="1">
+        <f t="array" ref="G24">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F24/((E24*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H24" s="2" cm="1">
-        <f t="array" ref="H24">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H24">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I24" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="K24" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2149,20 +2248,20 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
-      <c r="G25" s="2">
-        <f t="shared" ref="G25:G38" si="2">F25/((E25*617.96)+36.04) * 1000000</f>
+      <c r="G25" s="2" cm="1">
+        <f t="array" ref="G25">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F25/((E25*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H25" s="2" cm="1">
-        <f t="array" ref="H25">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H25">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I25" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="K25" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2171,20 +2270,20 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
-      <c r="G26" s="2">
-        <f t="shared" si="2"/>
+      <c r="G26" s="2" cm="1">
+        <f t="array" ref="G26">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F26/((E26*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H26" s="2" cm="1">
-        <f t="array" ref="H26">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H26">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I26" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K26" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2193,20 +2292,20 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
-      <c r="G27" s="2">
-        <f t="shared" si="2"/>
+      <c r="G27" s="2" cm="1">
+        <f t="array" ref="G27">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F27/((E27*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H27" s="2" cm="1">
-        <f t="array" ref="H27">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H27">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I27" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K27" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2215,20 +2314,20 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
-      <c r="G28" s="2">
-        <f t="shared" si="2"/>
+      <c r="G28" s="2" cm="1">
+        <f t="array" ref="G28">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F28/((E28*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H28" s="2" cm="1">
-        <f t="array" ref="H28">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H28">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I28" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K28" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2237,20 +2336,20 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
-      <c r="G29" s="2">
-        <f t="shared" si="2"/>
+      <c r="G29" s="2" cm="1">
+        <f t="array" ref="G29">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F29/((E29*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H29" s="2" cm="1">
-        <f t="array" ref="H29">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H29">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I29" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K29" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2259,20 +2358,20 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
-      <c r="G30" s="2">
-        <f t="shared" si="2"/>
+      <c r="G30" s="2" cm="1">
+        <f t="array" ref="G30">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F30/((E30*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H30" s="2" cm="1">
-        <f t="array" ref="H30">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H30">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I30" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K30" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2281,20 +2380,20 @@
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
-      <c r="G31" s="2">
-        <f t="shared" si="2"/>
+      <c r="G31" s="2" cm="1">
+        <f t="array" ref="G31">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F31/((E31*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H31" s="2" cm="1">
-        <f t="array" ref="H31">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H31">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I31" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K31" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2303,20 +2402,20 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
-      <c r="G32" s="2">
-        <f t="shared" si="2"/>
+      <c r="G32" s="2" cm="1">
+        <f t="array" ref="G32">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F32/((E32*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H32" s="2" cm="1">
-        <f t="array" ref="H32">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H32">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I32" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K32" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2325,20 +2424,20 @@
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
-      <c r="G33" s="2">
-        <f t="shared" si="2"/>
+      <c r="G33" s="2" cm="1">
+        <f t="array" ref="G33">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F33/((E33*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H33" s="2" cm="1">
-        <f t="array" ref="H33">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H33">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I33" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K33" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2347,20 +2446,20 @@
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
-      <c r="G34" s="2">
-        <f t="shared" si="2"/>
+      <c r="G34" s="2" cm="1">
+        <f t="array" ref="G34">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F34/((E34*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H34" s="2" cm="1">
-        <f t="array" ref="H34">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H34">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I34" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K34" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2369,20 +2468,20 @@
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
-      <c r="G35" s="2">
-        <f t="shared" si="2"/>
+      <c r="G35" s="2" cm="1">
+        <f t="array" ref="G35">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F35/((E35*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H35" s="2" cm="1">
-        <f t="array" ref="H35">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H35">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I35" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K35" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2391,20 +2490,20 @@
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
-      <c r="G36" s="2">
-        <f t="shared" si="2"/>
+      <c r="G36" s="2" cm="1">
+        <f t="array" ref="G36">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F36/((E36*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H36" s="2" cm="1">
-        <f t="array" ref="H36">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H36">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I36" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K36" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2413,20 +2512,20 @@
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
-      <c r="G37" s="2">
-        <f t="shared" si="2"/>
+      <c r="G37" s="2" cm="1">
+        <f t="array" ref="G37">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F37/((E37*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H37" s="2" cm="1">
-        <f t="array" ref="H37">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H37">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I37" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="K37" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2435,20 +2534,20 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
-      <c r="G38" s="2">
-        <f t="shared" si="2"/>
+      <c r="G38" s="2" cm="1">
+        <f t="array" ref="G38">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F38/((E38*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H38" s="2" cm="1">
-        <f t="array" ref="H38">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H38">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I38" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K38" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2457,20 +2556,20 @@
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
-      <c r="G39" s="2">
-        <f t="shared" ref="G39:G57" si="3">F39/((E39*617.96)+36.04) * 1000000</f>
+      <c r="G39" s="2" cm="1">
+        <f t="array" ref="G39">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F39/((E39*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H39" s="2" cm="1">
-        <f t="array" ref="H39">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H39">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I39" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="K39" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2479,20 +2578,20 @@
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
-      <c r="G40" s="2">
-        <f t="shared" si="3"/>
+      <c r="G40" s="2" cm="1">
+        <f t="array" ref="G40">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F40/((E40*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H40" s="2" cm="1">
-        <f t="array" ref="H40">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H40">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I40" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="K40" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2501,20 +2600,20 @@
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
-      <c r="G41" s="2">
-        <f t="shared" si="3"/>
+      <c r="G41" s="2" cm="1">
+        <f t="array" ref="G41">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F41/((E41*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H41" s="2" cm="1">
-        <f t="array" ref="H41">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H41">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I41" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K41" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2523,20 +2622,20 @@
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
-      <c r="G42" s="2">
-        <f t="shared" si="3"/>
+      <c r="G42" s="2" cm="1">
+        <f t="array" ref="G42">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F42/((E42*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H42" s="2" cm="1">
-        <f t="array" ref="H42">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H42">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I42" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K42" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2545,20 +2644,20 @@
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
-      <c r="G43" s="2">
-        <f t="shared" si="3"/>
+      <c r="G43" s="2" cm="1">
+        <f t="array" ref="G43">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F43/((E43*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H43" s="2" cm="1">
-        <f t="array" ref="H43">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H43">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I43" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K43" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2567,20 +2666,20 @@
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
-      <c r="G44" s="2">
-        <f t="shared" si="3"/>
+      <c r="G44" s="2" cm="1">
+        <f t="array" ref="G44">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F44/((E44*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H44" s="2" cm="1">
-        <f t="array" ref="H44">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H44">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I44" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K44" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2589,20 +2688,20 @@
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
-      <c r="G45" s="2">
-        <f t="shared" si="3"/>
+      <c r="G45" s="2" cm="1">
+        <f t="array" ref="G45">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F45/((E45*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H45" s="2" cm="1">
-        <f t="array" ref="H45">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H45">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I45" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K45" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2611,20 +2710,20 @@
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
-      <c r="G46" s="2">
-        <f t="shared" si="3"/>
+      <c r="G46" s="2" cm="1">
+        <f t="array" ref="G46">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F46/((E46*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H46" s="2" cm="1">
-        <f t="array" ref="H46">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H46">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I46" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K46" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2633,20 +2732,20 @@
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="2"/>
-      <c r="G47" s="2">
-        <f t="shared" si="3"/>
+      <c r="G47" s="2" cm="1">
+        <f t="array" ref="G47">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F47/((E47*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H47" s="2" cm="1">
-        <f t="array" ref="H47">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H47">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I47" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K47" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2655,20 +2754,20 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="2"/>
-      <c r="G48" s="2">
-        <f t="shared" si="3"/>
+      <c r="G48" s="2" cm="1">
+        <f t="array" ref="G48">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F48/((E48*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H48" s="2" cm="1">
-        <f t="array" ref="H48">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H48">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I48" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="K48" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2677,20 +2776,20 @@
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" s="2"/>
-      <c r="G49" s="2">
-        <f t="shared" si="3"/>
+      <c r="G49" s="2" cm="1">
+        <f t="array" ref="G49">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F49/((E49*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H49" s="2" cm="1">
-        <f t="array" ref="H49">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H49">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I49" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K49" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2699,20 +2798,20 @@
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
-      <c r="G50" s="2">
-        <f t="shared" si="3"/>
+      <c r="G50" s="2" cm="1">
+        <f t="array" ref="G50">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F50/((E50*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H50" s="2" cm="1">
-        <f t="array" ref="H50">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H50">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I50" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K50" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2721,20 +2820,20 @@
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="2"/>
-      <c r="G51" s="2">
-        <f t="shared" si="3"/>
+      <c r="G51" s="2" cm="1">
+        <f t="array" ref="G51">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F51/((E51*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H51" s="2" cm="1">
-        <f t="array" ref="H51">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H51">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I51" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K51" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2743,20 +2842,20 @@
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
-      <c r="G52" s="2">
-        <f t="shared" si="3"/>
+      <c r="G52" s="2" cm="1">
+        <f t="array" ref="G52">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F52/((E52*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H52" s="2" cm="1">
-        <f t="array" ref="H52">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H52">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I52" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K52" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2765,20 +2864,20 @@
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
-      <c r="G53" s="2">
-        <f t="shared" si="3"/>
+      <c r="G53" s="2" cm="1">
+        <f t="array" ref="G53">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F53/((E53*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H53" s="2" cm="1">
-        <f t="array" ref="H53">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H53">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I53" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K53" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2787,20 +2886,20 @@
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54" s="2"/>
-      <c r="G54" s="2">
-        <f t="shared" si="3"/>
+      <c r="G54" s="2" cm="1">
+        <f t="array" ref="G54">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F54/((E54*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H54" s="2" cm="1">
-        <f t="array" ref="H54">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H54">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I54" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K54" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2809,20 +2908,20 @@
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
-      <c r="G55" s="2">
-        <f t="shared" si="3"/>
+      <c r="G55" s="2" cm="1">
+        <f t="array" ref="G55">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F55/((E55*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H55" s="2" cm="1">
-        <f t="array" ref="H55">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H55">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I55" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K55" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2831,20 +2930,20 @@
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
-      <c r="G56" s="2">
-        <f t="shared" si="3"/>
+      <c r="G56" s="2" cm="1">
+        <f t="array" ref="G56">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F56/((E56*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H56" s="2" cm="1">
-        <f t="array" ref="H56">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H56">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I56" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="K56" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2853,20 +2952,20 @@
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
-      <c r="G57" s="2">
-        <f t="shared" si="3"/>
+      <c r="G57" s="2" cm="1">
+        <f t="array" ref="G57">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F57/((E57*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H57" s="2" cm="1">
-        <f t="array" ref="H57">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H57">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I57" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K57" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2875,20 +2974,20 @@
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
-      <c r="G58" s="2">
-        <f t="shared" ref="G58:G89" si="4">F58/((E58*617.96)+36.04) * 1000000</f>
+      <c r="G58" s="2" cm="1">
+        <f t="array" ref="G58">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F58/((E58*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H58" s="2" cm="1">
-        <f t="array" ref="H58">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H58">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I58" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="K58" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2897,20 +2996,20 @@
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
-      <c r="G59" s="2">
-        <f t="shared" si="4"/>
+      <c r="G59" s="2" cm="1">
+        <f t="array" ref="G59">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F59/((E59*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H59" s="2" cm="1">
-        <f t="array" ref="H59">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H59">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I59" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="K59" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2919,20 +3018,20 @@
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B60" s="2"/>
-      <c r="G60" s="2">
-        <f t="shared" si="4"/>
+      <c r="G60" s="2" cm="1">
+        <f t="array" ref="G60">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F60/((E60*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H60" s="2" cm="1">
-        <f t="array" ref="H60">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H60">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I60" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K60" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2941,20 +3040,20 @@
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
-      <c r="G61" s="2">
-        <f t="shared" si="4"/>
+      <c r="G61" s="2" cm="1">
+        <f t="array" ref="G61">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F61/((E61*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H61" s="2" cm="1">
-        <f t="array" ref="H61">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H61">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I61" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K61" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2963,20 +3062,20 @@
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
-      <c r="G62" s="2">
-        <f t="shared" si="4"/>
+      <c r="G62" s="2" cm="1">
+        <f t="array" ref="G62">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F62/((E62*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H62" s="2" cm="1">
-        <f t="array" ref="H62">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H62">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I62" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K62" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -2985,20 +3084,20 @@
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
-      <c r="G63" s="2">
-        <f t="shared" si="4"/>
+      <c r="G63" s="2" cm="1">
+        <f t="array" ref="G63">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F63/((E63*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H63" s="2" cm="1">
-        <f t="array" ref="H63">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H63">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I63" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="K63" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3007,20 +3106,20 @@
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64" s="2"/>
-      <c r="G64" s="2">
-        <f t="shared" si="4"/>
+      <c r="G64" s="2" cm="1">
+        <f t="array" ref="G64">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F64/((E64*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H64" s="2" cm="1">
-        <f t="array" ref="H64">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H64">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I64" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="K64" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3029,20 +3128,20 @@
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
-      <c r="G65" s="2">
-        <f t="shared" si="4"/>
+      <c r="G65" s="2" cm="1">
+        <f t="array" ref="G65">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F65/((E65*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H65" s="2" cm="1">
-        <f t="array" ref="H65">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H65">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I65" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K65" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3051,20 +3150,20 @@
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66" s="2"/>
-      <c r="G66" s="2">
-        <f t="shared" si="4"/>
+      <c r="G66" s="2" cm="1">
+        <f t="array" ref="G66">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F66/((E66*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H66" s="2" cm="1">
-        <f t="array" ref="H66">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H66">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I66" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K66" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3073,20 +3172,20 @@
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
-      <c r="G67" s="2">
-        <f t="shared" si="4"/>
+      <c r="G67" s="2" cm="1">
+        <f t="array" ref="G67">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F67/((E67*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H67" s="2" cm="1">
-        <f t="array" ref="H67">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H67">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I67" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="K67" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3095,20 +3194,20 @@
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68" s="2"/>
-      <c r="G68" s="2">
-        <f t="shared" si="4"/>
+      <c r="G68" s="2" cm="1">
+        <f t="array" ref="G68">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F68/((E68*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H68" s="2" cm="1">
-        <f t="array" ref="H68">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H68">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I68" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K68" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3117,20 +3216,20 @@
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
-      <c r="G69" s="2">
-        <f t="shared" si="4"/>
+      <c r="G69" s="2" cm="1">
+        <f t="array" ref="G69">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F69/((E69*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H69" s="2" cm="1">
-        <f t="array" ref="H69">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H69">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I69" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K69" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3139,20 +3238,20 @@
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" s="2"/>
-      <c r="G70" s="2">
-        <f t="shared" si="4"/>
+      <c r="G70" s="2" cm="1">
+        <f t="array" ref="G70">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F70/((E70*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H70" s="2" cm="1">
-        <f t="array" ref="H70">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H70">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I70" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="K70" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3161,20 +3260,20 @@
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71" s="2"/>
-      <c r="G71" s="2">
-        <f t="shared" si="4"/>
+      <c r="G71" s="2" cm="1">
+        <f t="array" ref="G71">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F71/((E71*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H71" s="2" cm="1">
-        <f t="array" ref="H71">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H71">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I71" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K71" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3183,20 +3282,20 @@
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72" s="2"/>
-      <c r="G72" s="2">
-        <f t="shared" si="4"/>
+      <c r="G72" s="2" cm="1">
+        <f t="array" ref="G72">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F72/((E72*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H72" s="2" cm="1">
-        <f t="array" ref="H72">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H72">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I72" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K72" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3205,20 +3304,20 @@
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" s="2"/>
-      <c r="G73" s="2">
-        <f t="shared" si="4"/>
+      <c r="G73" s="2" cm="1">
+        <f t="array" ref="G73">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F73/((E73*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H73" s="2" cm="1">
-        <f t="array" ref="H73">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H73">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I73" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K73" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3227,20 +3326,20 @@
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74" s="2"/>
-      <c r="G74" s="2">
-        <f t="shared" si="4"/>
+      <c r="G74" s="2" cm="1">
+        <f t="array" ref="G74">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F74/((E74*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H74" s="2" cm="1">
-        <f t="array" ref="H74">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H74">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I74" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K74" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3249,20 +3348,20 @@
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75" s="2"/>
-      <c r="G75" s="2">
-        <f t="shared" si="4"/>
+      <c r="G75" s="2" cm="1">
+        <f t="array" ref="G75">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F75/((E75*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H75" s="2" cm="1">
-        <f t="array" ref="H75">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H75">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I75" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="K75" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3271,20 +3370,20 @@
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" s="2"/>
-      <c r="G76" s="2">
-        <f t="shared" si="4"/>
+      <c r="G76" s="2" cm="1">
+        <f t="array" ref="G76">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F76/((E76*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H76" s="2" cm="1">
-        <f t="array" ref="H76">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H76">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I76" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K76" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3293,20 +3392,20 @@
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77" s="2"/>
-      <c r="G77" s="2">
-        <f t="shared" si="4"/>
+      <c r="G77" s="2" cm="1">
+        <f t="array" ref="G77">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F77/((E77*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H77" s="2" cm="1">
-        <f t="array" ref="H77">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H77">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I77" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K77" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3315,20 +3414,20 @@
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B78" s="2"/>
-      <c r="G78" s="2">
-        <f t="shared" si="4"/>
+      <c r="G78" s="2" cm="1">
+        <f t="array" ref="G78">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F78/((E78*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H78" s="2" cm="1">
-        <f t="array" ref="H78">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H78">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I78" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="K78" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3337,20 +3436,20 @@
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79" s="2"/>
-      <c r="G79" s="2">
-        <f t="shared" si="4"/>
+      <c r="G79" s="2" cm="1">
+        <f t="array" ref="G79">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F79/((E79*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H79" s="2" cm="1">
-        <f t="array" ref="H79">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H79">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I79" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K79" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3359,20 +3458,20 @@
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B80" s="2"/>
-      <c r="G80" s="2">
-        <f t="shared" si="4"/>
+      <c r="G80" s="2" cm="1">
+        <f t="array" ref="G80">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F80/((E80*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H80" s="2" cm="1">
-        <f t="array" ref="H80">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H80">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I80" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K80" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3381,20 +3480,20 @@
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81" s="2"/>
-      <c r="G81" s="2">
-        <f t="shared" si="4"/>
+      <c r="G81" s="2" cm="1">
+        <f t="array" ref="G81">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F81/((E81*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H81" s="2" cm="1">
-        <f t="array" ref="H81">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H81">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I81" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K81" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3403,20 +3502,20 @@
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B82" s="2"/>
-      <c r="G82" s="2">
-        <f t="shared" si="4"/>
+      <c r="G82" s="2" cm="1">
+        <f t="array" ref="G82">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F82/((E82*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H82" s="2" cm="1">
-        <f t="array" ref="H82">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H82">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I82" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="K82" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3425,20 +3524,20 @@
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B83" s="2"/>
-      <c r="G83" s="2">
-        <f t="shared" si="4"/>
+      <c r="G83" s="2" cm="1">
+        <f t="array" ref="G83">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F83/((E83*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H83" s="2" cm="1">
-        <f t="array" ref="H83">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H83">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I83" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K83" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3447,20 +3546,20 @@
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B84" s="2"/>
-      <c r="G84" s="2">
-        <f t="shared" si="4"/>
+      <c r="G84" s="2" cm="1">
+        <f t="array" ref="G84">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F84/((E84*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H84" s="2" cm="1">
-        <f t="array" ref="H84">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H84">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I84" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="K84" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3469,20 +3568,20 @@
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B85" s="2"/>
-      <c r="G85" s="2">
-        <f t="shared" si="4"/>
+      <c r="G85" s="2" cm="1">
+        <f t="array" ref="G85">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F85/((E85*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H85" s="2" cm="1">
-        <f t="array" ref="H85">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H85">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I85" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K85" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3491,20 +3590,20 @@
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B86" s="2"/>
-      <c r="G86" s="2">
-        <f t="shared" si="4"/>
+      <c r="G86" s="2" cm="1">
+        <f t="array" ref="G86">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F86/((E86*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H86" s="2" cm="1">
-        <f t="array" ref="H86">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H86">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I86" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="K86" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3513,20 +3612,20 @@
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B87" s="2"/>
-      <c r="G87" s="2">
-        <f t="shared" si="4"/>
+      <c r="G87" s="2" cm="1">
+        <f t="array" ref="G87">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F87/((E87*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H87" s="2" cm="1">
-        <f t="array" ref="H87">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H87">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I87" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="K87" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3535,20 +3634,20 @@
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B88" s="2"/>
-      <c r="G88" s="2">
-        <f t="shared" si="4"/>
+      <c r="G88" s="2" cm="1">
+        <f t="array" ref="G88">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F88/((E88*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H88" s="2" cm="1">
-        <f t="array" ref="H88">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H88">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I88" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K88" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3557,20 +3656,20 @@
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B89" s="2"/>
-      <c r="G89" s="2">
-        <f t="shared" si="4"/>
+      <c r="G89" s="2" cm="1">
+        <f t="array" ref="G89">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F89/((E89*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H89" s="2" cm="1">
-        <f t="array" ref="H89">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H89">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I89" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="K89" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3579,20 +3678,20 @@
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B90" s="2"/>
-      <c r="G90" s="2">
-        <f t="shared" ref="G90:G104" si="5">F90/((E90*617.96)+36.04) * 1000000</f>
+      <c r="G90" s="2" cm="1">
+        <f t="array" ref="G90">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F90/((E90*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H90" s="2" cm="1">
-        <f t="array" ref="H90">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H90">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I90" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K90" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3601,20 +3700,20 @@
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B91" s="2"/>
-      <c r="G91" s="2">
-        <f t="shared" si="5"/>
+      <c r="G91" s="2" cm="1">
+        <f t="array" ref="G91">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F91/((E91*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H91" s="2" cm="1">
-        <f t="array" ref="H91">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H91">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I91" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K91" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3623,20 +3722,20 @@
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B92" s="2"/>
-      <c r="G92" s="2">
-        <f t="shared" si="5"/>
+      <c r="G92" s="2" cm="1">
+        <f t="array" ref="G92">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F92/((E92*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H92" s="2" cm="1">
-        <f t="array" ref="H92">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H92">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I92" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="K92" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3645,20 +3744,20 @@
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B93" s="2"/>
-      <c r="G93" s="2">
-        <f t="shared" si="5"/>
+      <c r="G93" s="2" cm="1">
+        <f t="array" ref="G93">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F93/((E93*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H93" s="2" cm="1">
-        <f t="array" ref="H93">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H93">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I93" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K93" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3667,20 +3766,20 @@
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B94" s="2"/>
-      <c r="G94" s="2">
-        <f t="shared" si="5"/>
+      <c r="G94" s="2" cm="1">
+        <f t="array" ref="G94">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F94/((E94*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H94" s="2" cm="1">
-        <f t="array" ref="H94">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H94">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I94" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="K94" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3689,20 +3788,20 @@
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B95" s="2"/>
-      <c r="G95" s="2">
-        <f t="shared" si="5"/>
+      <c r="G95" s="2" cm="1">
+        <f t="array" ref="G95">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F95/((E95*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H95" s="2" cm="1">
-        <f t="array" ref="H95">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H95">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I95" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="K95" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3711,20 +3810,20 @@
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B96" s="2"/>
-      <c r="G96" s="2">
-        <f t="shared" si="5"/>
+      <c r="G96" s="2" cm="1">
+        <f t="array" ref="G96">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F96/((E96*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H96" s="2" cm="1">
-        <f t="array" ref="H96">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H96">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I96" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K96" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3733,20 +3832,20 @@
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B97" s="2"/>
-      <c r="G97" s="2">
-        <f t="shared" si="5"/>
+      <c r="G97" s="2" cm="1">
+        <f t="array" ref="G97">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F97/((E97*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H97" s="2" cm="1">
-        <f t="array" ref="H97">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H97">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I97" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="K97" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3755,20 +3854,20 @@
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B98" s="2"/>
-      <c r="G98" s="2">
-        <f t="shared" si="5"/>
+      <c r="G98" s="2" cm="1">
+        <f t="array" ref="G98">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F98/((E98*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H98" s="2" cm="1">
-        <f t="array" ref="H98">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H98">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I98" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="K98" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3777,20 +3876,20 @@
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B99" s="2"/>
-      <c r="G99" s="2">
-        <f t="shared" si="5"/>
+      <c r="G99" s="2" cm="1">
+        <f t="array" ref="G99">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F99/((E99*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H99" s="2" cm="1">
-        <f t="array" ref="H99">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H99">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I99" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K99" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3799,20 +3898,20 @@
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B100" s="2"/>
-      <c r="G100" s="2">
-        <f t="shared" si="5"/>
+      <c r="G100" s="2" cm="1">
+        <f t="array" ref="G100">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F100/((E100*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H100" s="2" cm="1">
-        <f t="array" ref="H100">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H100">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I100" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="K100" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3821,20 +3920,20 @@
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B101" s="2"/>
-      <c r="G101" s="2">
-        <f t="shared" si="5"/>
+      <c r="G101" s="2" cm="1">
+        <f t="array" ref="G101">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F101/((E101*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H101" s="2" cm="1">
-        <f t="array" ref="H101">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H101">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I101" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="K101" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3843,20 +3942,20 @@
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B102" s="2"/>
-      <c r="G102" s="2">
-        <f t="shared" si="5"/>
+      <c r="G102" s="2" cm="1">
+        <f t="array" ref="G102">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F102/((E102*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H102" s="2" cm="1">
-        <f t="array" ref="H102">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H102">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I102" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K102" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3865,20 +3964,20 @@
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B103" s="2"/>
-      <c r="G103" s="2">
-        <f t="shared" si="5"/>
+      <c r="G103" s="2" cm="1">
+        <f t="array" ref="G103">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F103/((E103*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H103" s="2" cm="1">
-        <f t="array" ref="H103">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H103">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I103" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="K103" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3887,20 +3986,20 @@
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B104" s="2"/>
-      <c r="G104" s="2">
-        <f t="shared" si="5"/>
+      <c r="G104" s="2" cm="1">
+        <f t="array" ref="G104">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F104/((E104*617.96)+36.04) * 1000000)</f>
         <v>0</v>
       </c>
       <c r="H104" s="2" cm="1">
-        <f t="array" ref="H104">_xlfn.IFS(Table1[[#This Row],[fmol/ul]]=0,0,$J$5/Table1[[#This Row],[fmol/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmol/ul]]&gt;4.5,4.5,  TRUE, $J$5/Table1[[#This Row],[fmol/ul]])</f>
+        <f t="array" ref="H104">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
         <v>0</v>
       </c>
       <c r="I104" s="2">
-        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,4.5-Table1[[#This Row],[ul plasmid]])</f>
+        <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
         <v>0</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="K104" s="9" t="str">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
@@ -3916,6 +4015,15 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="G9:G104">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+      <formula>$J$5/0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+      <formula>0.1</formula>
+      <formula>$J$5/5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="N6" twoDigitTextYear="1"/>
@@ -3956,1365 +4064,1365 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D38" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D44" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D45" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D46" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D47" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D48" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D49" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D50" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D51" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D52" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D53" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D54" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D55" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C56" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D56" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C57" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D57" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D58" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D59" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D60" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C61" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D61" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C62" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D62" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D63" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C64" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D64" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C65" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D65" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C66" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D66" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C67" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D67" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C68" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D68" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C69" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D69" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C70" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D70" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C71" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D71" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C72" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D72" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C73" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D73" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C74" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D74" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C75" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D75" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C76" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D76" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C77" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D77" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C78" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D78" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C79" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D79" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C80" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D80" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C81" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D81" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C82" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D82" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C83" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D83" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C84" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D84" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C85" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D85" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C86" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D86" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C87" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D87" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C88" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D88" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C89" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D89" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C90" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D90" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C91" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D91" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C92" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D92" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C93" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D93" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C94" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D94" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C95" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D95" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C96" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D96" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C97" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D97" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C98" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D98" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C99" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D99" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C100" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D100" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -5349,31 +5457,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>310</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -5382,7 +5490,7 @@
         <v>A01</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C2" s="9">
         <f>main!H9</f>
@@ -5393,18 +5501,18 @@
         <v>A01</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F2" s="9">
         <f>main!I9</f>
-        <v>2.9550819800000001</v>
+        <v>3.4550819800000001</v>
       </c>
       <c r="G2" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D9,Table2[name],Table2[well],"")</f>
         <v>A02</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I2" s="8">
         <f>IF(C2=0,0,0.5)</f>
@@ -5417,29 +5525,29 @@
         <v>B01</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C3" s="9">
         <f>main!H10</f>
-        <v>0.54931379555555548</v>
+        <v>0.5</v>
       </c>
       <c r="D3" s="8" t="str">
         <f t="shared" ref="D3:D66" si="0">IF(C3=0, "", "A01")</f>
         <v>A01</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F3" s="9">
         <f>main!I10</f>
-        <v>3.9506862044444446</v>
+        <v>4.5</v>
       </c>
       <c r="G3" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D10,Table2[name],Table2[well],"")</f>
         <v>E01</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I3" s="8">
         <f t="shared" ref="I3:I66" si="1">IF(C3=0,0,0.5)</f>
@@ -5449,21 +5557,21 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="str">
         <f>TEXT(main!B11, "")</f>
-        <v/>
+        <v>C01</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C4" s="9">
         <f>main!H11</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>A01</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F4" s="9">
         <f>main!I11</f>
@@ -5471,14 +5579,14 @@
       </c>
       <c r="G4" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D11,Table2[name],Table2[well],"")</f>
-        <v/>
+        <v>F01</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I4" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -5487,7 +5595,7 @@
         <v/>
       </c>
       <c r="B5" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C5" s="9">
         <f>main!H12</f>
@@ -5498,7 +5606,7 @@
         <v/>
       </c>
       <c r="E5" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F5" s="9">
         <f>main!I12</f>
@@ -5509,7 +5617,7 @@
         <v/>
       </c>
       <c r="H5" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I5" s="8">
         <f t="shared" si="1"/>
@@ -5522,7 +5630,7 @@
         <v/>
       </c>
       <c r="B6" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C6" s="9">
         <f>main!H13</f>
@@ -5533,7 +5641,7 @@
         <v/>
       </c>
       <c r="E6" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F6" s="9">
         <f>main!I13</f>
@@ -5544,7 +5652,7 @@
         <v/>
       </c>
       <c r="H6" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I6" s="8">
         <f t="shared" si="1"/>
@@ -5557,7 +5665,7 @@
         <v/>
       </c>
       <c r="B7" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C7" s="9">
         <f>main!H14</f>
@@ -5568,7 +5676,7 @@
         <v/>
       </c>
       <c r="E7" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F7" s="9">
         <f>main!I14</f>
@@ -5579,7 +5687,7 @@
         <v/>
       </c>
       <c r="H7" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I7" s="8">
         <f t="shared" si="1"/>
@@ -5592,7 +5700,7 @@
         <v/>
       </c>
       <c r="B8" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C8" s="9">
         <f>main!H15</f>
@@ -5603,7 +5711,7 @@
         <v/>
       </c>
       <c r="E8" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F8" s="9">
         <f>main!I15</f>
@@ -5614,7 +5722,7 @@
         <v/>
       </c>
       <c r="H8" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I8" s="8">
         <f t="shared" si="1"/>
@@ -5627,7 +5735,7 @@
         <v/>
       </c>
       <c r="B9" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C9" s="9">
         <f>main!H16</f>
@@ -5638,7 +5746,7 @@
         <v/>
       </c>
       <c r="E9" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F9" s="9">
         <f>main!I16</f>
@@ -5649,7 +5757,7 @@
         <v/>
       </c>
       <c r="H9" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I9" s="8">
         <f t="shared" si="1"/>
@@ -5662,7 +5770,7 @@
         <v/>
       </c>
       <c r="B10" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C10" s="9">
         <f>main!H17</f>
@@ -5673,7 +5781,7 @@
         <v/>
       </c>
       <c r="E10" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F10" s="9">
         <f>main!I17</f>
@@ -5684,7 +5792,7 @@
         <v/>
       </c>
       <c r="H10" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I10" s="8">
         <f t="shared" si="1"/>
@@ -5697,7 +5805,7 @@
         <v/>
       </c>
       <c r="B11" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C11" s="9">
         <f>main!H18</f>
@@ -5708,7 +5816,7 @@
         <v/>
       </c>
       <c r="E11" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F11" s="9">
         <f>main!I18</f>
@@ -5719,7 +5827,7 @@
         <v/>
       </c>
       <c r="H11" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I11" s="8">
         <f t="shared" si="1"/>
@@ -5732,7 +5840,7 @@
         <v/>
       </c>
       <c r="B12" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C12" s="9">
         <f>main!H19</f>
@@ -5743,7 +5851,7 @@
         <v/>
       </c>
       <c r="E12" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F12" s="9">
         <f>main!I19</f>
@@ -5754,7 +5862,7 @@
         <v/>
       </c>
       <c r="H12" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" si="1"/>
@@ -5767,7 +5875,7 @@
         <v/>
       </c>
       <c r="B13" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C13" s="9">
         <f>main!H20</f>
@@ -5778,7 +5886,7 @@
         <v/>
       </c>
       <c r="E13" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F13" s="9">
         <f>main!I20</f>
@@ -5789,7 +5897,7 @@
         <v/>
       </c>
       <c r="H13" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I13" s="8">
         <f t="shared" si="1"/>
@@ -5802,7 +5910,7 @@
         <v/>
       </c>
       <c r="B14" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C14" s="9">
         <f>main!H21</f>
@@ -5813,7 +5921,7 @@
         <v/>
       </c>
       <c r="E14" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F14" s="9">
         <f>main!I21</f>
@@ -5824,7 +5932,7 @@
         <v/>
       </c>
       <c r="H14" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I14" s="8">
         <f t="shared" si="1"/>
@@ -5837,7 +5945,7 @@
         <v/>
       </c>
       <c r="B15" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C15" s="9">
         <f>main!H22</f>
@@ -5848,7 +5956,7 @@
         <v/>
       </c>
       <c r="E15" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F15" s="9">
         <f>main!I22</f>
@@ -5859,7 +5967,7 @@
         <v/>
       </c>
       <c r="H15" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I15" s="8">
         <f t="shared" si="1"/>
@@ -5872,7 +5980,7 @@
         <v/>
       </c>
       <c r="B16" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C16" s="9">
         <f>main!H23</f>
@@ -5883,7 +5991,7 @@
         <v/>
       </c>
       <c r="E16" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F16" s="9">
         <f>main!I23</f>
@@ -5894,7 +6002,7 @@
         <v/>
       </c>
       <c r="H16" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I16" s="8">
         <f t="shared" si="1"/>
@@ -5907,7 +6015,7 @@
         <v/>
       </c>
       <c r="B17" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C17" s="9">
         <f>main!H24</f>
@@ -5918,7 +6026,7 @@
         <v/>
       </c>
       <c r="E17" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F17" s="9">
         <f>main!I24</f>
@@ -5929,7 +6037,7 @@
         <v/>
       </c>
       <c r="H17" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I17" s="8">
         <f t="shared" si="1"/>
@@ -5942,7 +6050,7 @@
         <v/>
       </c>
       <c r="B18" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C18" s="9">
         <f>main!H25</f>
@@ -5953,7 +6061,7 @@
         <v/>
       </c>
       <c r="E18" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F18" s="9">
         <f>main!I25</f>
@@ -5964,7 +6072,7 @@
         <v/>
       </c>
       <c r="H18" s="8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I18" s="8">
         <f t="shared" si="1"/>
@@ -5977,7 +6085,7 @@
         <v/>
       </c>
       <c r="B19" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C19" s="9">
         <f>main!H26</f>
@@ -5988,7 +6096,7 @@
         <v/>
       </c>
       <c r="E19" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F19" s="9">
         <f>main!I26</f>
@@ -5999,7 +6107,7 @@
         <v/>
       </c>
       <c r="H19" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I19" s="8">
         <f t="shared" si="1"/>
@@ -6012,7 +6120,7 @@
         <v/>
       </c>
       <c r="B20" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C20" s="9">
         <f>main!H27</f>
@@ -6023,7 +6131,7 @@
         <v/>
       </c>
       <c r="E20" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F20" s="9">
         <f>main!I27</f>
@@ -6034,7 +6142,7 @@
         <v/>
       </c>
       <c r="H20" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I20" s="8">
         <f t="shared" si="1"/>
@@ -6047,7 +6155,7 @@
         <v/>
       </c>
       <c r="B21" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C21" s="9">
         <f>main!H28</f>
@@ -6058,7 +6166,7 @@
         <v/>
       </c>
       <c r="E21" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F21" s="9">
         <f>main!I28</f>
@@ -6069,7 +6177,7 @@
         <v/>
       </c>
       <c r="H21" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I21" s="8">
         <f t="shared" si="1"/>
@@ -6082,7 +6190,7 @@
         <v/>
       </c>
       <c r="B22" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C22" s="9">
         <f>main!H29</f>
@@ -6093,7 +6201,7 @@
         <v/>
       </c>
       <c r="E22" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F22" s="9">
         <f>main!I29</f>
@@ -6104,7 +6212,7 @@
         <v/>
       </c>
       <c r="H22" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="1"/>
@@ -6117,7 +6225,7 @@
         <v/>
       </c>
       <c r="B23" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C23" s="9">
         <f>main!H30</f>
@@ -6128,7 +6236,7 @@
         <v/>
       </c>
       <c r="E23" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F23" s="9">
         <f>main!I30</f>
@@ -6139,7 +6247,7 @@
         <v/>
       </c>
       <c r="H23" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I23" s="8">
         <f t="shared" si="1"/>
@@ -6152,7 +6260,7 @@
         <v/>
       </c>
       <c r="B24" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C24" s="9">
         <f>main!H31</f>
@@ -6163,7 +6271,7 @@
         <v/>
       </c>
       <c r="E24" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F24" s="9">
         <f>main!I31</f>
@@ -6174,7 +6282,7 @@
         <v/>
       </c>
       <c r="H24" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I24" s="8">
         <f t="shared" si="1"/>
@@ -6187,7 +6295,7 @@
         <v/>
       </c>
       <c r="B25" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C25" s="9">
         <f>main!H32</f>
@@ -6198,7 +6306,7 @@
         <v/>
       </c>
       <c r="E25" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F25" s="9">
         <f>main!I32</f>
@@ -6209,7 +6317,7 @@
         <v/>
       </c>
       <c r="H25" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I25" s="8">
         <f t="shared" si="1"/>
@@ -6222,7 +6330,7 @@
         <v/>
       </c>
       <c r="B26" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C26" s="9">
         <f>main!H33</f>
@@ -6233,7 +6341,7 @@
         <v/>
       </c>
       <c r="E26" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F26" s="9">
         <f>main!I33</f>
@@ -6244,7 +6352,7 @@
         <v/>
       </c>
       <c r="H26" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I26" s="8">
         <f t="shared" si="1"/>
@@ -6257,7 +6365,7 @@
         <v/>
       </c>
       <c r="B27" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C27" s="9">
         <f>main!H34</f>
@@ -6268,7 +6376,7 @@
         <v/>
       </c>
       <c r="E27" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F27" s="9">
         <f>main!I34</f>
@@ -6279,7 +6387,7 @@
         <v/>
       </c>
       <c r="H27" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I27" s="8">
         <f t="shared" si="1"/>
@@ -6292,7 +6400,7 @@
         <v/>
       </c>
       <c r="B28" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C28" s="9">
         <f>main!H35</f>
@@ -6303,7 +6411,7 @@
         <v/>
       </c>
       <c r="E28" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F28" s="9">
         <f>main!I35</f>
@@ -6314,7 +6422,7 @@
         <v/>
       </c>
       <c r="H28" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I28" s="8">
         <f t="shared" si="1"/>
@@ -6327,7 +6435,7 @@
         <v/>
       </c>
       <c r="B29" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C29" s="9">
         <f>main!H36</f>
@@ -6338,7 +6446,7 @@
         <v/>
       </c>
       <c r="E29" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F29" s="9">
         <f>main!I36</f>
@@ -6349,7 +6457,7 @@
         <v/>
       </c>
       <c r="H29" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I29" s="8">
         <f t="shared" si="1"/>
@@ -6362,7 +6470,7 @@
         <v/>
       </c>
       <c r="B30" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C30" s="9">
         <f>main!H37</f>
@@ -6373,7 +6481,7 @@
         <v/>
       </c>
       <c r="E30" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F30" s="9">
         <f>main!I37</f>
@@ -6384,7 +6492,7 @@
         <v/>
       </c>
       <c r="H30" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I30" s="8">
         <f t="shared" si="1"/>
@@ -6397,7 +6505,7 @@
         <v/>
       </c>
       <c r="B31" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C31" s="9">
         <f>main!H38</f>
@@ -6408,7 +6516,7 @@
         <v/>
       </c>
       <c r="E31" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F31" s="9">
         <f>main!I38</f>
@@ -6419,7 +6527,7 @@
         <v/>
       </c>
       <c r="H31" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I31" s="8">
         <f t="shared" si="1"/>
@@ -6432,7 +6540,7 @@
         <v/>
       </c>
       <c r="B32" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C32" s="9">
         <f>main!H39</f>
@@ -6443,7 +6551,7 @@
         <v/>
       </c>
       <c r="E32" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F32" s="9">
         <f>main!I39</f>
@@ -6454,7 +6562,7 @@
         <v/>
       </c>
       <c r="H32" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I32" s="8">
         <f t="shared" si="1"/>
@@ -6467,7 +6575,7 @@
         <v/>
       </c>
       <c r="B33" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C33" s="9">
         <f>main!H40</f>
@@ -6478,7 +6586,7 @@
         <v/>
       </c>
       <c r="E33" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F33" s="9">
         <f>main!I40</f>
@@ -6489,7 +6597,7 @@
         <v/>
       </c>
       <c r="H33" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I33" s="8">
         <f t="shared" si="1"/>
@@ -6502,7 +6610,7 @@
         <v/>
       </c>
       <c r="B34" s="8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C34" s="9">
         <f>main!H41</f>
@@ -6513,7 +6621,7 @@
         <v/>
       </c>
       <c r="E34" s="8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F34" s="9">
         <f>main!I41</f>
@@ -6524,7 +6632,7 @@
         <v/>
       </c>
       <c r="H34" s="8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="I34" s="8">
         <f t="shared" si="1"/>
@@ -6537,7 +6645,7 @@
         <v/>
       </c>
       <c r="B35" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C35" s="9">
         <f>main!H42</f>
@@ -6548,7 +6656,7 @@
         <v/>
       </c>
       <c r="E35" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F35" s="9">
         <f>main!I42</f>
@@ -6559,7 +6667,7 @@
         <v/>
       </c>
       <c r="H35" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I35" s="8">
         <f t="shared" si="1"/>
@@ -6572,7 +6680,7 @@
         <v/>
       </c>
       <c r="B36" s="8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C36" s="9">
         <f>main!H43</f>
@@ -6583,7 +6691,7 @@
         <v/>
       </c>
       <c r="E36" s="8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F36" s="9">
         <f>main!I43</f>
@@ -6594,7 +6702,7 @@
         <v/>
       </c>
       <c r="H36" s="8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I36" s="8">
         <f t="shared" si="1"/>
@@ -6607,7 +6715,7 @@
         <v/>
       </c>
       <c r="B37" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C37" s="9">
         <f>main!H44</f>
@@ -6618,7 +6726,7 @@
         <v/>
       </c>
       <c r="E37" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F37" s="9">
         <f>main!I44</f>
@@ -6629,7 +6737,7 @@
         <v/>
       </c>
       <c r="H37" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I37" s="8">
         <f t="shared" si="1"/>
@@ -6642,7 +6750,7 @@
         <v/>
       </c>
       <c r="B38" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C38" s="9">
         <f>main!H45</f>
@@ -6653,7 +6761,7 @@
         <v/>
       </c>
       <c r="E38" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F38" s="9">
         <f>main!I45</f>
@@ -6664,7 +6772,7 @@
         <v/>
       </c>
       <c r="H38" s="8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I38" s="8">
         <f t="shared" si="1"/>
@@ -6677,7 +6785,7 @@
         <v/>
       </c>
       <c r="B39" s="8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C39" s="9">
         <f>main!H46</f>
@@ -6688,7 +6796,7 @@
         <v/>
       </c>
       <c r="E39" s="8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F39" s="9">
         <f>main!I46</f>
@@ -6699,7 +6807,7 @@
         <v/>
       </c>
       <c r="H39" s="8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I39" s="8">
         <f t="shared" si="1"/>
@@ -6712,7 +6820,7 @@
         <v/>
       </c>
       <c r="B40" s="8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C40" s="9">
         <f>main!H47</f>
@@ -6723,7 +6831,7 @@
         <v/>
       </c>
       <c r="E40" s="8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F40" s="9">
         <f>main!I47</f>
@@ -6734,7 +6842,7 @@
         <v/>
       </c>
       <c r="H40" s="8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I40" s="8">
         <f t="shared" si="1"/>
@@ -6747,7 +6855,7 @@
         <v/>
       </c>
       <c r="B41" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C41" s="9">
         <f>main!H48</f>
@@ -6758,7 +6866,7 @@
         <v/>
       </c>
       <c r="E41" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F41" s="9">
         <f>main!I48</f>
@@ -6769,7 +6877,7 @@
         <v/>
       </c>
       <c r="H41" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I41" s="8">
         <f t="shared" si="1"/>
@@ -6782,7 +6890,7 @@
         <v/>
       </c>
       <c r="B42" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C42" s="9">
         <f>main!H49</f>
@@ -6793,7 +6901,7 @@
         <v/>
       </c>
       <c r="E42" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F42" s="9">
         <f>main!I49</f>
@@ -6804,7 +6912,7 @@
         <v/>
       </c>
       <c r="H42" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I42" s="8">
         <f t="shared" si="1"/>
@@ -6817,7 +6925,7 @@
         <v/>
       </c>
       <c r="B43" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C43" s="9">
         <f>main!H50</f>
@@ -6828,7 +6936,7 @@
         <v/>
       </c>
       <c r="E43" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F43" s="9">
         <f>main!I50</f>
@@ -6839,7 +6947,7 @@
         <v/>
       </c>
       <c r="H43" s="8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I43" s="8">
         <f t="shared" si="1"/>
@@ -6852,7 +6960,7 @@
         <v/>
       </c>
       <c r="B44" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C44" s="9">
         <f>main!H51</f>
@@ -6863,7 +6971,7 @@
         <v/>
       </c>
       <c r="E44" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F44" s="9">
         <f>main!I51</f>
@@ -6874,7 +6982,7 @@
         <v/>
       </c>
       <c r="H44" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I44" s="8">
         <f t="shared" si="1"/>
@@ -6887,7 +6995,7 @@
         <v/>
       </c>
       <c r="B45" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C45" s="9">
         <f>main!H52</f>
@@ -6898,7 +7006,7 @@
         <v/>
       </c>
       <c r="E45" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F45" s="9">
         <f>main!I52</f>
@@ -6909,7 +7017,7 @@
         <v/>
       </c>
       <c r="H45" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I45" s="8">
         <f t="shared" si="1"/>
@@ -6922,7 +7030,7 @@
         <v/>
       </c>
       <c r="B46" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C46" s="9">
         <f>main!H53</f>
@@ -6933,7 +7041,7 @@
         <v/>
       </c>
       <c r="E46" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F46" s="9">
         <f>main!I53</f>
@@ -6944,7 +7052,7 @@
         <v/>
       </c>
       <c r="H46" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I46" s="8">
         <f t="shared" si="1"/>
@@ -6957,7 +7065,7 @@
         <v/>
       </c>
       <c r="B47" s="8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C47" s="9">
         <f>main!H54</f>
@@ -6968,7 +7076,7 @@
         <v/>
       </c>
       <c r="E47" s="8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F47" s="9">
         <f>main!I54</f>
@@ -6979,7 +7087,7 @@
         <v/>
       </c>
       <c r="H47" s="8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I47" s="8">
         <f t="shared" si="1"/>
@@ -6992,7 +7100,7 @@
         <v/>
       </c>
       <c r="B48" s="8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C48" s="9">
         <f>main!H55</f>
@@ -7003,7 +7111,7 @@
         <v/>
       </c>
       <c r="E48" s="8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F48" s="9">
         <f>main!I55</f>
@@ -7014,7 +7122,7 @@
         <v/>
       </c>
       <c r="H48" s="8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I48" s="8">
         <f t="shared" si="1"/>
@@ -7027,7 +7135,7 @@
         <v/>
       </c>
       <c r="B49" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C49" s="9">
         <f>main!H56</f>
@@ -7038,7 +7146,7 @@
         <v/>
       </c>
       <c r="E49" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F49" s="9">
         <f>main!I56</f>
@@ -7049,7 +7157,7 @@
         <v/>
       </c>
       <c r="H49" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I49" s="8">
         <f t="shared" si="1"/>
@@ -7062,7 +7170,7 @@
         <v/>
       </c>
       <c r="B50" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C50" s="9">
         <f>main!H57</f>
@@ -7073,7 +7181,7 @@
         <v/>
       </c>
       <c r="E50" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F50" s="9">
         <f>main!I57</f>
@@ -7084,7 +7192,7 @@
         <v/>
       </c>
       <c r="H50" s="8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I50" s="8">
         <f t="shared" si="1"/>
@@ -7097,7 +7205,7 @@
         <v/>
       </c>
       <c r="B51" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C51" s="9">
         <f>main!H58</f>
@@ -7108,7 +7216,7 @@
         <v/>
       </c>
       <c r="E51" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F51" s="9">
         <f>main!I58</f>
@@ -7119,7 +7227,7 @@
         <v/>
       </c>
       <c r="H51" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I51" s="8">
         <f t="shared" si="1"/>
@@ -7132,7 +7240,7 @@
         <v/>
       </c>
       <c r="B52" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C52" s="9">
         <f>main!H59</f>
@@ -7143,7 +7251,7 @@
         <v/>
       </c>
       <c r="E52" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F52" s="9">
         <f>main!I59</f>
@@ -7154,7 +7262,7 @@
         <v/>
       </c>
       <c r="H52" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I52" s="8">
         <f t="shared" si="1"/>
@@ -7167,7 +7275,7 @@
         <v/>
       </c>
       <c r="B53" s="8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C53" s="9">
         <f>main!H60</f>
@@ -7178,7 +7286,7 @@
         <v/>
       </c>
       <c r="E53" s="8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F53" s="9">
         <f>main!I60</f>
@@ -7189,7 +7297,7 @@
         <v/>
       </c>
       <c r="H53" s="8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I53" s="8">
         <f t="shared" si="1"/>
@@ -7202,7 +7310,7 @@
         <v/>
       </c>
       <c r="B54" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C54" s="9">
         <f>main!H61</f>
@@ -7213,7 +7321,7 @@
         <v/>
       </c>
       <c r="E54" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F54" s="9">
         <f>main!I61</f>
@@ -7224,7 +7332,7 @@
         <v/>
       </c>
       <c r="H54" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I54" s="8">
         <f t="shared" si="1"/>
@@ -7237,7 +7345,7 @@
         <v/>
       </c>
       <c r="B55" s="8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C55" s="9">
         <f>main!H62</f>
@@ -7248,7 +7356,7 @@
         <v/>
       </c>
       <c r="E55" s="8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F55" s="9">
         <f>main!I62</f>
@@ -7259,7 +7367,7 @@
         <v/>
       </c>
       <c r="H55" s="8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I55" s="8">
         <f t="shared" si="1"/>
@@ -7272,7 +7380,7 @@
         <v/>
       </c>
       <c r="B56" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C56" s="9">
         <f>main!H63</f>
@@ -7283,7 +7391,7 @@
         <v/>
       </c>
       <c r="E56" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F56" s="9">
         <f>main!I63</f>
@@ -7294,7 +7402,7 @@
         <v/>
       </c>
       <c r="H56" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I56" s="8">
         <f t="shared" si="1"/>
@@ -7307,7 +7415,7 @@
         <v/>
       </c>
       <c r="B57" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C57" s="9">
         <f>main!H64</f>
@@ -7318,7 +7426,7 @@
         <v/>
       </c>
       <c r="E57" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F57" s="9">
         <f>main!I64</f>
@@ -7329,7 +7437,7 @@
         <v/>
       </c>
       <c r="H57" s="8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="I57" s="8">
         <f t="shared" si="1"/>
@@ -7342,7 +7450,7 @@
         <v/>
       </c>
       <c r="B58" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C58" s="9">
         <f>main!H65</f>
@@ -7353,7 +7461,7 @@
         <v/>
       </c>
       <c r="E58" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F58" s="9">
         <f>main!I65</f>
@@ -7364,7 +7472,7 @@
         <v/>
       </c>
       <c r="H58" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="I58" s="8">
         <f t="shared" si="1"/>
@@ -7377,7 +7485,7 @@
         <v/>
       </c>
       <c r="B59" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C59" s="9">
         <f>main!H66</f>
@@ -7388,7 +7496,7 @@
         <v/>
       </c>
       <c r="E59" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F59" s="9">
         <f>main!I66</f>
@@ -7399,7 +7507,7 @@
         <v/>
       </c>
       <c r="H59" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I59" s="8">
         <f t="shared" si="1"/>
@@ -7412,7 +7520,7 @@
         <v/>
       </c>
       <c r="B60" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C60" s="9">
         <f>main!H67</f>
@@ -7423,7 +7531,7 @@
         <v/>
       </c>
       <c r="E60" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F60" s="9">
         <f>main!I67</f>
@@ -7434,7 +7542,7 @@
         <v/>
       </c>
       <c r="H60" s="8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I60" s="8">
         <f t="shared" si="1"/>
@@ -7447,7 +7555,7 @@
         <v/>
       </c>
       <c r="B61" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C61" s="9">
         <f>main!H68</f>
@@ -7458,7 +7566,7 @@
         <v/>
       </c>
       <c r="E61" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F61" s="9">
         <f>main!I68</f>
@@ -7469,7 +7577,7 @@
         <v/>
       </c>
       <c r="H61" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I61" s="8">
         <f t="shared" si="1"/>
@@ -7482,7 +7590,7 @@
         <v/>
       </c>
       <c r="B62" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C62" s="9">
         <f>main!H69</f>
@@ -7493,7 +7601,7 @@
         <v/>
       </c>
       <c r="E62" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F62" s="9">
         <f>main!I69</f>
@@ -7504,7 +7612,7 @@
         <v/>
       </c>
       <c r="H62" s="8" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I62" s="8">
         <f t="shared" si="1"/>
@@ -7517,7 +7625,7 @@
         <v/>
       </c>
       <c r="B63" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C63" s="9">
         <f>main!H70</f>
@@ -7528,7 +7636,7 @@
         <v/>
       </c>
       <c r="E63" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F63" s="9">
         <f>main!I70</f>
@@ -7539,7 +7647,7 @@
         <v/>
       </c>
       <c r="H63" s="8" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I63" s="8">
         <f t="shared" si="1"/>
@@ -7552,7 +7660,7 @@
         <v/>
       </c>
       <c r="B64" s="8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C64" s="9">
         <f>main!H71</f>
@@ -7563,7 +7671,7 @@
         <v/>
       </c>
       <c r="E64" s="8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F64" s="9">
         <f>main!I71</f>
@@ -7574,7 +7682,7 @@
         <v/>
       </c>
       <c r="H64" s="8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="I64" s="8">
         <f t="shared" si="1"/>
@@ -7587,7 +7695,7 @@
         <v/>
       </c>
       <c r="B65" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C65" s="9">
         <f>main!H72</f>
@@ -7598,7 +7706,7 @@
         <v/>
       </c>
       <c r="E65" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F65" s="9">
         <f>main!I72</f>
@@ -7609,7 +7717,7 @@
         <v/>
       </c>
       <c r="H65" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="I65" s="8">
         <f t="shared" si="1"/>
@@ -7622,7 +7730,7 @@
         <v/>
       </c>
       <c r="B66" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C66" s="9">
         <f>main!H73</f>
@@ -7633,7 +7741,7 @@
         <v/>
       </c>
       <c r="E66" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F66" s="9">
         <f>main!I73</f>
@@ -7644,7 +7752,7 @@
         <v/>
       </c>
       <c r="H66" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="I66" s="8">
         <f t="shared" si="1"/>
@@ -7657,7 +7765,7 @@
         <v/>
       </c>
       <c r="B67" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C67" s="9">
         <f>main!H74</f>
@@ -7668,7 +7776,7 @@
         <v/>
       </c>
       <c r="E67" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F67" s="9">
         <f>main!I74</f>
@@ -7679,7 +7787,7 @@
         <v/>
       </c>
       <c r="H67" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I67" s="8">
         <f t="shared" ref="I67:I97" si="3">IF(C67=0,0,0.5)</f>
@@ -7692,7 +7800,7 @@
         <v/>
       </c>
       <c r="B68" s="8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C68" s="9">
         <f>main!H75</f>
@@ -7703,7 +7811,7 @@
         <v/>
       </c>
       <c r="E68" s="8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F68" s="9">
         <f>main!I75</f>
@@ -7714,7 +7822,7 @@
         <v/>
       </c>
       <c r="H68" s="8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I68" s="8">
         <f t="shared" si="3"/>
@@ -7727,7 +7835,7 @@
         <v/>
       </c>
       <c r="B69" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C69" s="9">
         <f>main!H76</f>
@@ -7738,7 +7846,7 @@
         <v/>
       </c>
       <c r="E69" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F69" s="9">
         <f>main!I76</f>
@@ -7749,7 +7857,7 @@
         <v/>
       </c>
       <c r="H69" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I69" s="8">
         <f t="shared" si="3"/>
@@ -7762,7 +7870,7 @@
         <v/>
       </c>
       <c r="B70" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C70" s="9">
         <f>main!H77</f>
@@ -7773,7 +7881,7 @@
         <v/>
       </c>
       <c r="E70" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F70" s="9">
         <f>main!I77</f>
@@ -7784,7 +7892,7 @@
         <v/>
       </c>
       <c r="H70" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="I70" s="8">
         <f t="shared" si="3"/>
@@ -7797,7 +7905,7 @@
         <v/>
       </c>
       <c r="B71" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C71" s="9">
         <f>main!H78</f>
@@ -7808,7 +7916,7 @@
         <v/>
       </c>
       <c r="E71" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F71" s="9">
         <f>main!I78</f>
@@ -7819,7 +7927,7 @@
         <v/>
       </c>
       <c r="H71" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="I71" s="8">
         <f t="shared" si="3"/>
@@ -7832,7 +7940,7 @@
         <v/>
       </c>
       <c r="B72" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C72" s="9">
         <f>main!H79</f>
@@ -7843,7 +7951,7 @@
         <v/>
       </c>
       <c r="E72" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F72" s="9">
         <f>main!I79</f>
@@ -7854,7 +7962,7 @@
         <v/>
       </c>
       <c r="H72" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I72" s="8">
         <f t="shared" si="3"/>
@@ -7867,7 +7975,7 @@
         <v/>
       </c>
       <c r="B73" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C73" s="9">
         <f>main!H80</f>
@@ -7878,7 +7986,7 @@
         <v/>
       </c>
       <c r="E73" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F73" s="9">
         <f>main!I80</f>
@@ -7889,7 +7997,7 @@
         <v/>
       </c>
       <c r="H73" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I73" s="8">
         <f t="shared" si="3"/>
@@ -7902,7 +8010,7 @@
         <v/>
       </c>
       <c r="B74" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C74" s="9">
         <f>main!H81</f>
@@ -7913,7 +8021,7 @@
         <v/>
       </c>
       <c r="E74" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F74" s="9">
         <f>main!I81</f>
@@ -7924,7 +8032,7 @@
         <v/>
       </c>
       <c r="H74" s="8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I74" s="8">
         <f t="shared" si="3"/>
@@ -7937,7 +8045,7 @@
         <v/>
       </c>
       <c r="B75" s="8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C75" s="9">
         <f>main!H82</f>
@@ -7948,7 +8056,7 @@
         <v/>
       </c>
       <c r="E75" s="8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F75" s="9">
         <f>main!I82</f>
@@ -7959,7 +8067,7 @@
         <v/>
       </c>
       <c r="H75" s="8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I75" s="8">
         <f t="shared" si="3"/>
@@ -7972,7 +8080,7 @@
         <v/>
       </c>
       <c r="B76" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C76" s="9">
         <f>main!H83</f>
@@ -7983,7 +8091,7 @@
         <v/>
       </c>
       <c r="E76" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F76" s="9">
         <f>main!I83</f>
@@ -7994,7 +8102,7 @@
         <v/>
       </c>
       <c r="H76" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="I76" s="8">
         <f t="shared" si="3"/>
@@ -8007,7 +8115,7 @@
         <v/>
       </c>
       <c r="B77" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C77" s="9">
         <f>main!H84</f>
@@ -8018,7 +8126,7 @@
         <v/>
       </c>
       <c r="E77" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F77" s="9">
         <f>main!I84</f>
@@ -8029,7 +8137,7 @@
         <v/>
       </c>
       <c r="H77" s="8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I77" s="8">
         <f t="shared" si="3"/>
@@ -8042,7 +8150,7 @@
         <v/>
       </c>
       <c r="B78" s="8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C78" s="9">
         <f>main!H85</f>
@@ -8053,7 +8161,7 @@
         <v/>
       </c>
       <c r="E78" s="8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F78" s="9">
         <f>main!I85</f>
@@ -8064,7 +8172,7 @@
         <v/>
       </c>
       <c r="H78" s="8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I78" s="8">
         <f t="shared" si="3"/>
@@ -8077,7 +8185,7 @@
         <v/>
       </c>
       <c r="B79" s="8" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C79" s="9">
         <f>main!H86</f>
@@ -8088,7 +8196,7 @@
         <v/>
       </c>
       <c r="E79" s="8" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F79" s="9">
         <f>main!I86</f>
@@ -8099,7 +8207,7 @@
         <v/>
       </c>
       <c r="H79" s="8" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="I79" s="8">
         <f t="shared" si="3"/>
@@ -8112,7 +8220,7 @@
         <v/>
       </c>
       <c r="B80" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C80" s="9">
         <f>main!H87</f>
@@ -8123,7 +8231,7 @@
         <v/>
       </c>
       <c r="E80" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F80" s="9">
         <f>main!I87</f>
@@ -8134,7 +8242,7 @@
         <v/>
       </c>
       <c r="H80" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I80" s="8">
         <f t="shared" si="3"/>
@@ -8147,7 +8255,7 @@
         <v/>
       </c>
       <c r="B81" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C81" s="9">
         <f>main!H88</f>
@@ -8158,7 +8266,7 @@
         <v/>
       </c>
       <c r="E81" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F81" s="9">
         <f>main!I88</f>
@@ -8169,7 +8277,7 @@
         <v/>
       </c>
       <c r="H81" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="I81" s="8">
         <f t="shared" si="3"/>
@@ -8182,7 +8290,7 @@
         <v/>
       </c>
       <c r="B82" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C82" s="9">
         <f>main!H89</f>
@@ -8193,7 +8301,7 @@
         <v/>
       </c>
       <c r="E82" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F82" s="9">
         <f>main!I89</f>
@@ -8204,7 +8312,7 @@
         <v/>
       </c>
       <c r="H82" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="I82" s="8">
         <f t="shared" si="3"/>
@@ -8217,7 +8325,7 @@
         <v/>
       </c>
       <c r="B83" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C83" s="9">
         <f>main!H90</f>
@@ -8228,7 +8336,7 @@
         <v/>
       </c>
       <c r="E83" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F83" s="9">
         <f>main!I90</f>
@@ -8239,7 +8347,7 @@
         <v/>
       </c>
       <c r="H83" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="I83" s="8">
         <f t="shared" si="3"/>
@@ -8252,7 +8360,7 @@
         <v/>
       </c>
       <c r="B84" s="8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C84" s="9">
         <f>main!H91</f>
@@ -8263,7 +8371,7 @@
         <v/>
       </c>
       <c r="E84" s="8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F84" s="9">
         <f>main!I91</f>
@@ -8274,7 +8382,7 @@
         <v/>
       </c>
       <c r="H84" s="8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I84" s="8">
         <f t="shared" si="3"/>
@@ -8287,7 +8395,7 @@
         <v/>
       </c>
       <c r="B85" s="8" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C85" s="9">
         <f>main!H92</f>
@@ -8298,7 +8406,7 @@
         <v/>
       </c>
       <c r="E85" s="8" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F85" s="9">
         <f>main!I92</f>
@@ -8309,7 +8417,7 @@
         <v/>
       </c>
       <c r="H85" s="8" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I85" s="8">
         <f t="shared" si="3"/>
@@ -8322,7 +8430,7 @@
         <v/>
       </c>
       <c r="B86" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C86" s="9">
         <f>main!H93</f>
@@ -8333,7 +8441,7 @@
         <v/>
       </c>
       <c r="E86" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F86" s="9">
         <f>main!I93</f>
@@ -8344,7 +8452,7 @@
         <v/>
       </c>
       <c r="H86" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I86" s="8">
         <f t="shared" si="3"/>
@@ -8357,7 +8465,7 @@
         <v/>
       </c>
       <c r="B87" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C87" s="9">
         <f>main!H94</f>
@@ -8368,7 +8476,7 @@
         <v/>
       </c>
       <c r="E87" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F87" s="9">
         <f>main!I94</f>
@@ -8379,7 +8487,7 @@
         <v/>
       </c>
       <c r="H87" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="I87" s="8">
         <f t="shared" si="3"/>
@@ -8392,7 +8500,7 @@
         <v/>
       </c>
       <c r="B88" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C88" s="9">
         <f>main!H95</f>
@@ -8403,7 +8511,7 @@
         <v/>
       </c>
       <c r="E88" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F88" s="9">
         <f>main!I95</f>
@@ -8414,7 +8522,7 @@
         <v/>
       </c>
       <c r="H88" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I88" s="8">
         <f t="shared" si="3"/>
@@ -8427,7 +8535,7 @@
         <v/>
       </c>
       <c r="B89" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C89" s="9">
         <f>main!H96</f>
@@ -8438,7 +8546,7 @@
         <v/>
       </c>
       <c r="E89" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F89" s="9">
         <f>main!I96</f>
@@ -8449,7 +8557,7 @@
         <v/>
       </c>
       <c r="H89" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I89" s="8">
         <f t="shared" si="3"/>
@@ -8462,7 +8570,7 @@
         <v/>
       </c>
       <c r="B90" s="8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C90" s="9">
         <f>main!H97</f>
@@ -8473,7 +8581,7 @@
         <v/>
       </c>
       <c r="E90" s="8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F90" s="9">
         <f>main!I97</f>
@@ -8484,7 +8592,7 @@
         <v/>
       </c>
       <c r="H90" s="8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I90" s="8">
         <f t="shared" si="3"/>
@@ -8497,7 +8605,7 @@
         <v/>
       </c>
       <c r="B91" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C91" s="9">
         <f>main!H98</f>
@@ -8508,7 +8616,7 @@
         <v/>
       </c>
       <c r="E91" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F91" s="9">
         <f>main!I98</f>
@@ -8519,7 +8627,7 @@
         <v/>
       </c>
       <c r="H91" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I91" s="8">
         <f t="shared" si="3"/>
@@ -8532,7 +8640,7 @@
         <v/>
       </c>
       <c r="B92" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C92" s="9">
         <f>main!H99</f>
@@ -8543,7 +8651,7 @@
         <v/>
       </c>
       <c r="E92" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F92" s="9">
         <f>main!I99</f>
@@ -8554,7 +8662,7 @@
         <v/>
       </c>
       <c r="H92" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I92" s="8">
         <f t="shared" si="3"/>
@@ -8567,7 +8675,7 @@
         <v/>
       </c>
       <c r="B93" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C93" s="9">
         <f>main!H100</f>
@@ -8578,7 +8686,7 @@
         <v/>
       </c>
       <c r="E93" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F93" s="9">
         <f>main!I100</f>
@@ -8589,7 +8697,7 @@
         <v/>
       </c>
       <c r="H93" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I93" s="8">
         <f t="shared" si="3"/>
@@ -8602,7 +8710,7 @@
         <v/>
       </c>
       <c r="B94" s="8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C94" s="9">
         <f>main!H101</f>
@@ -8613,7 +8721,7 @@
         <v/>
       </c>
       <c r="E94" s="8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F94" s="9">
         <f>main!I101</f>
@@ -8624,7 +8732,7 @@
         <v/>
       </c>
       <c r="H94" s="8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I94" s="8">
         <f t="shared" si="3"/>
@@ -8637,7 +8745,7 @@
         <v/>
       </c>
       <c r="B95" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C95" s="9">
         <f>main!H102</f>
@@ -8648,7 +8756,7 @@
         <v/>
       </c>
       <c r="E95" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F95" s="9">
         <f>main!I102</f>
@@ -8659,7 +8767,7 @@
         <v/>
       </c>
       <c r="H95" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I95" s="8">
         <f t="shared" si="3"/>
@@ -8672,7 +8780,7 @@
         <v/>
       </c>
       <c r="B96" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C96" s="9">
         <f>main!H103</f>
@@ -8683,7 +8791,7 @@
         <v/>
       </c>
       <c r="E96" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F96" s="9">
         <f>main!I103</f>
@@ -8694,7 +8802,7 @@
         <v/>
       </c>
       <c r="H96" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="I96" s="8">
         <f t="shared" si="3"/>
@@ -8707,7 +8815,7 @@
         <v/>
       </c>
       <c r="B97" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C97" s="9">
         <f>main!H104</f>
@@ -8718,7 +8826,7 @@
         <v/>
       </c>
       <c r="E97" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F97" s="9">
         <f>main!I104</f>
@@ -8729,7 +8837,7 @@
         <v/>
       </c>
       <c r="H97" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="I97" s="8">
         <f t="shared" si="3"/>

--- a/templates/02-ont-plasmid.xlsx
+++ b/templates/02-ont-plasmid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angeloas/code/opentrons/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EA3D23-D7FD-BB49-9D2B-93C14CA069EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5234DFCE-E017-CF49-B2F5-5662E8B96C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="1140" windowWidth="28060" windowHeight="16560" xr2:uid="{0E74BB9A-F8B8-AA47-B7C7-EA2C2417D685}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="341">
   <si>
     <t>The incubations are done off instrument</t>
   </si>
@@ -1076,6 +1076,12 @@
   </si>
   <si>
     <t>SQK-RBK114.96</t>
+  </si>
+  <si>
+    <t>realfmoles</t>
+  </si>
+  <si>
+    <t>sample3</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1235,7 +1241,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1246,10 +1251,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1303,10 +1305,16 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -1344,26 +1352,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59494247-6707-4A4B-A68E-97E8FDDD4AF4}" name="Table1" displayName="Table1" ref="B8:K104" totalsRowShown="0" headerRowDxfId="15">
-  <autoFilter ref="B8:K104" xr:uid="{59494247-6707-4A4B-A68E-97E8FDDD4AF4}"/>
-  <tableColumns count="10">
-    <tableColumn id="8" xr3:uid="{FA78698F-F611-D543-B141-D777144BECEE}" name="source well" dataDxfId="14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59494247-6707-4A4B-A68E-97E8FDDD4AF4}" name="Table1" displayName="Table1" ref="B8:L104" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="B8:L104" xr:uid="{59494247-6707-4A4B-A68E-97E8FDDD4AF4}"/>
+  <tableColumns count="11">
+    <tableColumn id="8" xr3:uid="{FA78698F-F611-D543-B141-D777144BECEE}" name="source well" dataDxfId="15"/>
     <tableColumn id="1" xr3:uid="{91DE4E1A-6DA9-5D41-9DB5-21149FC9505F}" name="sample name"/>
     <tableColumn id="7" xr3:uid="{E7F73DE6-44A2-FD49-95BC-9E263FB79FB0}" name="barcode"/>
     <tableColumn id="2" xr3:uid="{D3E7E880-2BC6-B94A-AFA4-408237577810}" name="plasmid size"/>
     <tableColumn id="3" xr3:uid="{AF07D2D6-012E-8643-901A-5055CCEAF026}" name="ng/ul"/>
-    <tableColumn id="4" xr3:uid="{80D148B5-CECA-CA44-B1DD-F9E1A8DAA6A0}" name="fmoles/ul" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{80D148B5-CECA-CA44-B1DD-F9E1A8DAA6A0}" name="fmoles/ul" dataDxfId="14">
       <calculatedColumnFormula array="1">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F9/((E9*617.96)+36.04) * 1000000)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{6A4DD60B-B1AB-FF44-9E4F-4697D7C0CC9E}" name="ul plasmid" dataDxfId="11">
+    <tableColumn id="5" xr3:uid="{6A4DD60B-B1AB-FF44-9E4F-4697D7C0CC9E}" name="ul plasmid" dataDxfId="13">
       <calculatedColumnFormula array="1">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{53D08A06-9EBD-1143-A0BC-3E9BC0C89175}" name="ul water to 5" dataDxfId="10">
+    <tableColumn id="6" xr3:uid="{53D08A06-9EBD-1143-A0BC-3E9BC0C89175}" name="ul water to 5" dataDxfId="12">
       <calculatedColumnFormula>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0EE7AD1A-A1CC-364C-B346-C43B6AB6BFEF}" name="dest well" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{DDAE90F6-C57C-A64E-B7AF-286C3EB0FE38}" name="barcode well" dataDxfId="12">
+    <tableColumn id="10" xr3:uid="{0EE7AD1A-A1CC-364C-B346-C43B6AB6BFEF}" name="dest well" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{DDAE90F6-C57C-A64E-B7AF-286C3EB0FE38}" name="barcode well" dataDxfId="10">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{4297D046-A6BE-9F42-A42E-BFB3E78382B1}" name="realfmoles" dataDxfId="9">
+      <calculatedColumnFormula>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -1679,10 +1690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842AFD07-9B34-384A-83A8-BAD898DE59C4}">
-  <dimension ref="B1:Q105"/>
+  <dimension ref="B1:R105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1698,39 +1709,40 @@
     <col min="10" max="10" width="11.5" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="16.83203125" customWidth="1"/>
-    <col min="15" max="15" width="12.5" customWidth="1"/>
-    <col min="16" max="16" width="13.1640625" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.83203125" customWidth="1"/>
+    <col min="16" max="16" width="12.5" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="I3" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>330</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="M4" s="1" t="s">
+      <c r="J4" s="12"/>
+      <c r="N4" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -1741,7 +1753,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -1751,34 +1763,34 @@
       <c r="J6" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>315</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="O6" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>302</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="M7" t="s">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="N7" t="s">
         <v>317</v>
       </c>
-      <c r="N7" s="11">
+      <c r="O7" s="11">
         <v>4</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>305</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>301</v>
       </c>
@@ -1809,20 +1821,24 @@
       <c r="K8" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="M8" t="s">
+      <c r="L8" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" t="s">
         <v>312</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="O8" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>308</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>108</v>
       </c>
@@ -1836,19 +1852,18 @@
         <v>5000</v>
       </c>
       <c r="F9">
-        <v>40</v>
-      </c>
-      <c r="G9" s="2" cm="1">
-        <f t="array" ref="G9">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F9/((E9*617.96)+36.04) * 1000000)</f>
-        <v>12.945670735331316</v>
+        <v>123</v>
+      </c>
+      <c r="G9" s="2">
+        <v>12</v>
       </c>
       <c r="H9" s="2" cm="1">
         <f t="array" ref="H9">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
-        <v>1.5449180199999999</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I9" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
-        <v>3.4550819800000001</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>108</v>
@@ -1857,14 +1872,19 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v>A02</v>
       </c>
-      <c r="M9" t="s">
+      <c r="L9" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>20</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" t="s">
         <v>322</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="O9" s="11" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>109</v>
       </c>
@@ -1899,37 +1919,45 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v>E01</v>
       </c>
-      <c r="M10" t="s">
+      <c r="L10" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>26.699200208467353</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" t="s">
         <v>321</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="O10" s="11" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="C11" t="s">
+        <v>340</v>
+      </c>
       <c r="D11" t="s">
         <v>210</v>
       </c>
       <c r="E11">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="F11">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="G11" s="2" cm="1">
         <f t="array" ref="G11">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F11/((E11*617.96)+36.04) * 1000000)</f>
-        <v>2.6700679470152755</v>
+        <v>75.732173801688191</v>
       </c>
       <c r="H11" s="2" cm="1">
         <f t="array" ref="H11">_xlfn.IFS(ISBLANK(Table1[[#This Row],[source well]]),0,Table1[[#This Row],[fmoles/ul]]=0,0,$J$5/Table1[[#This Row],[fmoles/ul]]&lt;0.5,0.5,$J$5/Table1[[#This Row],[fmoles/ul]]&gt;5,5,  TRUE, $J$5/Table1[[#This Row],[fmoles/ul]])</f>
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="I11" s="2">
         <f>IF(Table1[[#This Row],[ul plasmid]]=0,0,5-Table1[[#This Row],[ul plasmid]])</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>110</v>
@@ -1938,8 +1966,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v>F01</v>
       </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L11" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>37.866086900844095</v>
+      </c>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="G12" s="2" cm="1">
         <f t="array" ref="G12">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F12/((E12*617.96)+36.04) * 1000000)</f>
@@ -1960,14 +1993,19 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-      <c r="M12" s="14" t="s">
+      <c r="L12" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="O12" s="11" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="G13" s="2" cm="1">
         <f t="array" ref="G13">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F13/((E13*617.96)+36.04) * 1000000)</f>
@@ -1988,15 +2026,20 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-      <c r="M13" s="14" t="s">
+      <c r="L13" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <f>COUNTA(Table1[source well])</f>
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="G14" s="2" cm="1">
         <f t="array" ref="G14">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F14/((E14*617.96)+36.04) * 1000000)</f>
@@ -2017,12 +2060,17 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-      <c r="M14" s="14" t="s">
+      <c r="L14" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="N14" s="15"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="O14" s="14"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="G15" s="2" cm="1">
         <f t="array" ref="G15">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F15/((E15*617.96)+36.04) * 1000000)</f>
@@ -2043,12 +2091,17 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="L15" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="N15" s="16"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="G16" s="2" cm="1">
         <f t="array" ref="G16">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F16/((E16*617.96)+36.04) * 1000000)</f>
@@ -2069,8 +2122,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="G17" s="2" cm="1">
         <f t="array" ref="G17">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F17/((E17*617.96)+36.04) * 1000000)</f>
@@ -2091,8 +2149,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="G18" s="2" cm="1">
         <f t="array" ref="G18">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F18/((E18*617.96)+36.04) * 1000000)</f>
@@ -2113,8 +2176,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="G19" s="2" cm="1">
         <f t="array" ref="G19">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F19/((E19*617.96)+36.04) * 1000000)</f>
@@ -2135,8 +2203,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="G20" s="2" cm="1">
         <f t="array" ref="G20">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F20/((E20*617.96)+36.04) * 1000000)</f>
@@ -2157,8 +2230,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="G21" s="2" cm="1">
         <f t="array" ref="G21">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F21/((E21*617.96)+36.04) * 1000000)</f>
@@ -2179,8 +2257,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="G22" s="2" cm="1">
         <f t="array" ref="G22">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F22/((E22*617.96)+36.04) * 1000000)</f>
@@ -2201,8 +2284,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="G23" s="2" cm="1">
         <f t="array" ref="G23">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F23/((E23*617.96)+36.04) * 1000000)</f>
@@ -2223,8 +2311,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="G24" s="2" cm="1">
         <f t="array" ref="G24">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F24/((E24*617.96)+36.04) * 1000000)</f>
@@ -2245,8 +2338,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="G25" s="2" cm="1">
         <f t="array" ref="G25">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F25/((E25*617.96)+36.04) * 1000000)</f>
@@ -2267,8 +2365,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="G26" s="2" cm="1">
         <f t="array" ref="G26">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F26/((E26*617.96)+36.04) * 1000000)</f>
@@ -2289,8 +2392,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="G27" s="2" cm="1">
         <f t="array" ref="G27">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F27/((E27*617.96)+36.04) * 1000000)</f>
@@ -2311,8 +2419,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="G28" s="2" cm="1">
         <f t="array" ref="G28">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F28/((E28*617.96)+36.04) * 1000000)</f>
@@ -2333,8 +2446,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="G29" s="2" cm="1">
         <f t="array" ref="G29">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F29/((E29*617.96)+36.04) * 1000000)</f>
@@ -2355,8 +2473,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="G30" s="2" cm="1">
         <f t="array" ref="G30">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F30/((E30*617.96)+36.04) * 1000000)</f>
@@ -2377,8 +2500,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="G31" s="2" cm="1">
         <f t="array" ref="G31">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F31/((E31*617.96)+36.04) * 1000000)</f>
@@ -2399,8 +2527,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="G32" s="2" cm="1">
         <f t="array" ref="G32">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F32/((E32*617.96)+36.04) * 1000000)</f>
@@ -2421,8 +2554,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="G33" s="2" cm="1">
         <f t="array" ref="G33">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F33/((E33*617.96)+36.04) * 1000000)</f>
@@ -2443,8 +2581,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="G34" s="2" cm="1">
         <f t="array" ref="G34">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F34/((E34*617.96)+36.04) * 1000000)</f>
@@ -2465,8 +2608,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="G35" s="2" cm="1">
         <f t="array" ref="G35">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F35/((E35*617.96)+36.04) * 1000000)</f>
@@ -2487,8 +2635,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="G36" s="2" cm="1">
         <f t="array" ref="G36">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F36/((E36*617.96)+36.04) * 1000000)</f>
@@ -2509,8 +2662,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L36" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="G37" s="2" cm="1">
         <f t="array" ref="G37">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F37/((E37*617.96)+36.04) * 1000000)</f>
@@ -2531,8 +2689,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L37" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="G38" s="2" cm="1">
         <f t="array" ref="G38">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F38/((E38*617.96)+36.04) * 1000000)</f>
@@ -2553,8 +2716,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="G39" s="2" cm="1">
         <f t="array" ref="G39">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F39/((E39*617.96)+36.04) * 1000000)</f>
@@ -2575,8 +2743,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="G40" s="2" cm="1">
         <f t="array" ref="G40">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F40/((E40*617.96)+36.04) * 1000000)</f>
@@ -2597,8 +2770,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="G41" s="2" cm="1">
         <f t="array" ref="G41">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F41/((E41*617.96)+36.04) * 1000000)</f>
@@ -2619,8 +2797,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="G42" s="2" cm="1">
         <f t="array" ref="G42">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F42/((E42*617.96)+36.04) * 1000000)</f>
@@ -2641,8 +2824,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="G43" s="2" cm="1">
         <f t="array" ref="G43">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F43/((E43*617.96)+36.04) * 1000000)</f>
@@ -2663,8 +2851,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="G44" s="2" cm="1">
         <f t="array" ref="G44">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F44/((E44*617.96)+36.04) * 1000000)</f>
@@ -2685,8 +2878,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="G45" s="2" cm="1">
         <f t="array" ref="G45">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F45/((E45*617.96)+36.04) * 1000000)</f>
@@ -2707,8 +2905,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
       <c r="G46" s="2" cm="1">
         <f t="array" ref="G46">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F46/((E46*617.96)+36.04) * 1000000)</f>
@@ -2729,8 +2932,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="2"/>
       <c r="G47" s="2" cm="1">
         <f t="array" ref="G47">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F47/((E47*617.96)+36.04) * 1000000)</f>
@@ -2751,8 +2959,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="2"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B48" s="2"/>
       <c r="G48" s="2" cm="1">
         <f t="array" ref="G48">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F48/((E48*617.96)+36.04) * 1000000)</f>
@@ -2773,8 +2986,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B49" s="2"/>
       <c r="G49" s="2" cm="1">
         <f t="array" ref="G49">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F49/((E49*617.96)+36.04) * 1000000)</f>
@@ -2795,8 +3013,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="2"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
       <c r="G50" s="2" cm="1">
         <f t="array" ref="G50">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F50/((E50*617.96)+36.04) * 1000000)</f>
@@ -2817,8 +3040,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B51" s="2"/>
       <c r="G51" s="2" cm="1">
         <f t="array" ref="G51">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F51/((E51*617.96)+36.04) * 1000000)</f>
@@ -2839,8 +3067,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
       <c r="G52" s="2" cm="1">
         <f t="array" ref="G52">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F52/((E52*617.96)+36.04) * 1000000)</f>
@@ -2861,8 +3094,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="2"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
       <c r="G53" s="2" cm="1">
         <f t="array" ref="G53">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F53/((E53*617.96)+36.04) * 1000000)</f>
@@ -2883,8 +3121,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B54" s="2"/>
       <c r="G54" s="2" cm="1">
         <f t="array" ref="G54">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F54/((E54*617.96)+36.04) * 1000000)</f>
@@ -2905,8 +3148,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
       <c r="G55" s="2" cm="1">
         <f t="array" ref="G55">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F55/((E55*617.96)+36.04) * 1000000)</f>
@@ -2927,8 +3175,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="G56" s="2" cm="1">
         <f t="array" ref="G56">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F56/((E56*617.96)+36.04) * 1000000)</f>
@@ -2949,8 +3202,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="2"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="G57" s="2" cm="1">
         <f t="array" ref="G57">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F57/((E57*617.96)+36.04) * 1000000)</f>
@@ -2971,8 +3229,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M57" s="2"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="G58" s="2" cm="1">
         <f t="array" ref="G58">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F58/((E58*617.96)+36.04) * 1000000)</f>
@@ -2993,8 +3256,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M58" s="2"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
       <c r="G59" s="2" cm="1">
         <f t="array" ref="G59">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F59/((E59*617.96)+36.04) * 1000000)</f>
@@ -3015,8 +3283,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M59" s="2"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B60" s="2"/>
       <c r="G60" s="2" cm="1">
         <f t="array" ref="G60">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F60/((E60*617.96)+36.04) * 1000000)</f>
@@ -3037,8 +3310,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M60" s="2"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
       <c r="G61" s="2" cm="1">
         <f t="array" ref="G61">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F61/((E61*617.96)+36.04) * 1000000)</f>
@@ -3059,8 +3337,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M61" s="2"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="G62" s="2" cm="1">
         <f t="array" ref="G62">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F62/((E62*617.96)+36.04) * 1000000)</f>
@@ -3081,8 +3364,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M62" s="2"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="G63" s="2" cm="1">
         <f t="array" ref="G63">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F63/((E63*617.96)+36.04) * 1000000)</f>
@@ -3103,8 +3391,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M63" s="2"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B64" s="2"/>
       <c r="G64" s="2" cm="1">
         <f t="array" ref="G64">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F64/((E64*617.96)+36.04) * 1000000)</f>
@@ -3125,8 +3418,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M64" s="2"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
       <c r="G65" s="2" cm="1">
         <f t="array" ref="G65">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F65/((E65*617.96)+36.04) * 1000000)</f>
@@ -3147,8 +3445,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M65" s="2"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B66" s="2"/>
       <c r="G66" s="2" cm="1">
         <f t="array" ref="G66">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F66/((E66*617.96)+36.04) * 1000000)</f>
@@ -3169,8 +3472,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M66" s="2"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
       <c r="G67" s="2" cm="1">
         <f t="array" ref="G67">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F67/((E67*617.96)+36.04) * 1000000)</f>
@@ -3191,8 +3499,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M67" s="2"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B68" s="2"/>
       <c r="G68" s="2" cm="1">
         <f t="array" ref="G68">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F68/((E68*617.96)+36.04) * 1000000)</f>
@@ -3213,8 +3526,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M68" s="2"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
       <c r="G69" s="2" cm="1">
         <f t="array" ref="G69">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F69/((E69*617.96)+36.04) * 1000000)</f>
@@ -3235,8 +3553,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M69" s="2"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B70" s="2"/>
       <c r="G70" s="2" cm="1">
         <f t="array" ref="G70">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F70/((E70*617.96)+36.04) * 1000000)</f>
@@ -3257,8 +3580,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M70" s="2"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B71" s="2"/>
       <c r="G71" s="2" cm="1">
         <f t="array" ref="G71">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F71/((E71*617.96)+36.04) * 1000000)</f>
@@ -3279,8 +3607,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M71" s="2"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B72" s="2"/>
       <c r="G72" s="2" cm="1">
         <f t="array" ref="G72">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F72/((E72*617.96)+36.04) * 1000000)</f>
@@ -3301,8 +3634,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M72" s="2"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B73" s="2"/>
       <c r="G73" s="2" cm="1">
         <f t="array" ref="G73">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F73/((E73*617.96)+36.04) * 1000000)</f>
@@ -3323,8 +3661,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M73" s="2"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B74" s="2"/>
       <c r="G74" s="2" cm="1">
         <f t="array" ref="G74">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F74/((E74*617.96)+36.04) * 1000000)</f>
@@ -3345,8 +3688,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M74" s="2"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B75" s="2"/>
       <c r="G75" s="2" cm="1">
         <f t="array" ref="G75">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F75/((E75*617.96)+36.04) * 1000000)</f>
@@ -3367,8 +3715,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M75" s="2"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B76" s="2"/>
       <c r="G76" s="2" cm="1">
         <f t="array" ref="G76">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F76/((E76*617.96)+36.04) * 1000000)</f>
@@ -3389,8 +3742,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M76" s="2"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B77" s="2"/>
       <c r="G77" s="2" cm="1">
         <f t="array" ref="G77">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F77/((E77*617.96)+36.04) * 1000000)</f>
@@ -3411,8 +3769,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M77" s="2"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B78" s="2"/>
       <c r="G78" s="2" cm="1">
         <f t="array" ref="G78">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F78/((E78*617.96)+36.04) * 1000000)</f>
@@ -3433,8 +3796,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L78" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M78" s="2"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="2"/>
       <c r="G79" s="2" cm="1">
         <f t="array" ref="G79">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F79/((E79*617.96)+36.04) * 1000000)</f>
@@ -3455,8 +3823,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L79" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M79" s="2"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B80" s="2"/>
       <c r="G80" s="2" cm="1">
         <f t="array" ref="G80">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F80/((E80*617.96)+36.04) * 1000000)</f>
@@ -3477,8 +3850,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B81" s="2"/>
       <c r="G81" s="2" cm="1">
         <f t="array" ref="G81">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F81/((E81*617.96)+36.04) * 1000000)</f>
@@ -3499,8 +3877,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M81" s="2"/>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B82" s="2"/>
       <c r="G82" s="2" cm="1">
         <f t="array" ref="G82">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F82/((E82*617.96)+36.04) * 1000000)</f>
@@ -3521,8 +3904,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M82" s="2"/>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B83" s="2"/>
       <c r="G83" s="2" cm="1">
         <f t="array" ref="G83">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F83/((E83*617.96)+36.04) * 1000000)</f>
@@ -3543,8 +3931,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M83" s="2"/>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B84" s="2"/>
       <c r="G84" s="2" cm="1">
         <f t="array" ref="G84">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F84/((E84*617.96)+36.04) * 1000000)</f>
@@ -3565,8 +3958,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M84" s="2"/>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B85" s="2"/>
       <c r="G85" s="2" cm="1">
         <f t="array" ref="G85">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F85/((E85*617.96)+36.04) * 1000000)</f>
@@ -3587,8 +3985,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M85" s="2"/>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B86" s="2"/>
       <c r="G86" s="2" cm="1">
         <f t="array" ref="G86">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F86/((E86*617.96)+36.04) * 1000000)</f>
@@ -3609,8 +4012,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M86" s="2"/>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B87" s="2"/>
       <c r="G87" s="2" cm="1">
         <f t="array" ref="G87">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F87/((E87*617.96)+36.04) * 1000000)</f>
@@ -3631,8 +4039,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M87" s="2"/>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B88" s="2"/>
       <c r="G88" s="2" cm="1">
         <f t="array" ref="G88">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F88/((E88*617.96)+36.04) * 1000000)</f>
@@ -3653,8 +4066,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M88" s="2"/>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B89" s="2"/>
       <c r="G89" s="2" cm="1">
         <f t="array" ref="G89">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F89/((E89*617.96)+36.04) * 1000000)</f>
@@ -3675,8 +4093,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M89" s="2"/>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B90" s="2"/>
       <c r="G90" s="2" cm="1">
         <f t="array" ref="G90">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F90/((E90*617.96)+36.04) * 1000000)</f>
@@ -3697,8 +4120,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M90" s="2"/>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B91" s="2"/>
       <c r="G91" s="2" cm="1">
         <f t="array" ref="G91">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F91/((E91*617.96)+36.04) * 1000000)</f>
@@ -3719,8 +4147,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M91" s="2"/>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B92" s="2"/>
       <c r="G92" s="2" cm="1">
         <f t="array" ref="G92">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F92/((E92*617.96)+36.04) * 1000000)</f>
@@ -3741,8 +4174,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M92" s="2"/>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B93" s="2"/>
       <c r="G93" s="2" cm="1">
         <f t="array" ref="G93">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F93/((E93*617.96)+36.04) * 1000000)</f>
@@ -3763,8 +4201,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M93" s="2"/>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B94" s="2"/>
       <c r="G94" s="2" cm="1">
         <f t="array" ref="G94">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F94/((E94*617.96)+36.04) * 1000000)</f>
@@ -3785,8 +4228,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M94" s="2"/>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B95" s="2"/>
       <c r="G95" s="2" cm="1">
         <f t="array" ref="G95">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F95/((E95*617.96)+36.04) * 1000000)</f>
@@ -3807,8 +4255,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M95" s="2"/>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B96" s="2"/>
       <c r="G96" s="2" cm="1">
         <f t="array" ref="G96">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F96/((E96*617.96)+36.04) * 1000000)</f>
@@ -3829,8 +4282,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M96" s="2"/>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B97" s="2"/>
       <c r="G97" s="2" cm="1">
         <f t="array" ref="G97">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F97/((E97*617.96)+36.04) * 1000000)</f>
@@ -3851,8 +4309,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M97" s="2"/>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B98" s="2"/>
       <c r="G98" s="2" cm="1">
         <f t="array" ref="G98">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F98/((E98*617.96)+36.04) * 1000000)</f>
@@ -3873,8 +4336,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M98" s="2"/>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B99" s="2"/>
       <c r="G99" s="2" cm="1">
         <f t="array" ref="G99">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F99/((E99*617.96)+36.04) * 1000000)</f>
@@ -3895,8 +4363,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M99" s="2"/>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B100" s="2"/>
       <c r="G100" s="2" cm="1">
         <f t="array" ref="G100">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F100/((E100*617.96)+36.04) * 1000000)</f>
@@ -3917,8 +4390,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M100" s="2"/>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B101" s="2"/>
       <c r="G101" s="2" cm="1">
         <f t="array" ref="G101">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F101/((E101*617.96)+36.04) * 1000000)</f>
@@ -3939,8 +4417,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M101" s="2"/>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B102" s="2"/>
       <c r="G102" s="2" cm="1">
         <f t="array" ref="G102">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F102/((E102*617.96)+36.04) * 1000000)</f>
@@ -3961,8 +4444,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L102" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M102" s="2"/>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B103" s="2"/>
       <c r="G103" s="2" cm="1">
         <f t="array" ref="G103">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F103/((E103*617.96)+36.04) * 1000000)</f>
@@ -3983,8 +4471,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L103" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M103" s="2"/>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B104" s="2"/>
       <c r="G104" s="2" cm="1">
         <f t="array" ref="G104">_xlfn.IFS(ISBLANK(Table1[[#This Row],[plasmid size]]), 0, TRUE, F104/((E104*617.96)+36.04) * 1000000)</f>
@@ -4005,8 +4498,13 @@
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[barcode]],Table2[name],Table2[well],"")</f>
         <v/>
       </c>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L104" s="2">
+        <f>Table1[[#This Row],[ul plasmid]]*Table1[[#This Row],[fmoles/ul]]</f>
+        <v>0</v>
+      </c>
+      <c r="M104" s="2"/>
+    </row>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B105" s="2"/>
       <c r="D105" s="2"/>
       <c r="H105" s="2"/>
@@ -4016,17 +4514,22 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="G9:G104">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="between">
+      <formula>0.1</formula>
+      <formula>$J$5/5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>$J$5/0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
-      <formula>0.1</formula>
-      <formula>$J$5/5</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:L104">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>L9&gt;$J$5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="N6" twoDigitTextYear="1"/>
+    <ignoredError sqref="O6" twoDigitTextYear="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -5494,7 +5997,7 @@
       </c>
       <c r="C2" s="9">
         <f>main!H9</f>
-        <v>1.5449180199999999</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="D2" s="8" t="str">
         <f>IF(C2=0, "", "A01")</f>
@@ -5505,7 +6008,7 @@
       </c>
       <c r="F2" s="9">
         <f>main!I9</f>
-        <v>3.4550819800000001</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="G2" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D9,Table2[name],Table2[well],"")</f>
@@ -5564,7 +6067,7 @@
       </c>
       <c r="C4" s="9">
         <f>main!H11</f>
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="D4" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5575,7 +6078,7 @@
       </c>
       <c r="F4" s="9">
         <f>main!I11</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G4" s="8" t="str">
         <f>_xlfn.XLOOKUP(main!D11,Table2[name],Table2[well],"")</f>
